--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\chinasoft.nw.gou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A040EC-C3B4-4A70-93A0-1457EF737B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C47ABE-D76F-46E5-A6BE-06042BE783C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,23 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>discover :[dɪˈskʌvər] :发现
-pattern :[ˈpætərn] :模式,方式</t>
+pattern :[ˈpætərn] :模式,方式
+train：火车
+on time：准时
+see：看见，I see：我明白了
+quarter：4分之一
+late：迟到
+fast：快的
+mean：表示。。意思
+cost：花费
+expensive：贵的
+anythin：任何的
+cheaper：便宜的
+dollar：美元
+change：零钱，a change:改变
+problem：问题
+money：钱
+hundred：100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,14 +164,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,65 +456,65 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <f ca="1">TODAY()</f>
-        <v>44006</v>
-      </c>
-      <c r="B1" s="9" t="s">
+        <v>44012</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <f ca="1">A1+1</f>
-        <v>44007</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1">
         <f ca="1">A1+2</f>
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1">
         <f ca="1">A1+4</f>
-        <v>44010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1">
         <f ca="1">A1+7</f>
-        <v>44013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1">
         <f ca="1">A1+15</f>
-        <v>44021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I12" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" s="3"/>
     </row>
   </sheetData>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C47ABE-D76F-46E5-A6BE-06042BE783C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F88DA44-1223-47C3-8538-92FD9D038CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>discover :[dɪˈskʌvər] :发现
 pattern :[ˈpætərn] :模式,方式
@@ -51,6 +51,10 @@
 problem：问题
 money：钱
 hundred：100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14,16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -142,11 +146,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -172,6 +196,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -468,14 +498,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
-        <f ca="1">TODAY()</f>
         <v>44012</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <f ca="1">A1+1</f>
+        <f>A1+1</f>
         <v>44013</v>
       </c>
     </row>
@@ -483,7 +512,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="1">
-        <f ca="1">A1+2</f>
+        <f>A1+2</f>
         <v>44014</v>
       </c>
     </row>
@@ -491,7 +520,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1">
-        <f ca="1">A1+4</f>
+        <f>A1+4</f>
         <v>44016</v>
       </c>
     </row>
@@ -499,7 +528,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1">
-        <f ca="1">A1+7</f>
+        <f>A1+7</f>
         <v>44019</v>
       </c>
     </row>
@@ -507,8 +536,52 @@
       <c r="A5" s="6"/>
       <c r="B5" s="9"/>
       <c r="C5" s="1">
-        <f ca="1">A1+15</f>
+        <f>A1+15</f>
         <v>44027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <f>A6+1</f>
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="1">
+        <f>A6+2</f>
+        <v>44015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="1">
+        <f>A6+4</f>
+        <v>44017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1">
+        <f>A6+7</f>
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="1">
+        <f>A6+15</f>
+        <v>44028</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -518,9 +591,11 @@
       <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:B5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F88DA44-1223-47C3-8538-92FD9D038CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A11A403-DC8A-42B5-80CF-14A84F4E12BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,14,16</t>
+    <t>today：今天
+Sunday：星期六
+june：6月
+because：因为
+brithday：生日
+February：二月
+size：尺寸
+wear：穿
+extra：格外的
+large：大的
+try：尝试
+necktie：领导：
+special：特别的
+brand：品牌
+simple：简单的
+sale：出售，on sale ：打折
+something：某物，某事
+store：商店
+clothing：衣服
+shoes：鞋子
+small：小的
+big：大的
+pair：一对
+show：看
+lower：较低的
+fit：合身
+smaller：较小的，small的比较级2
+afraid：恐怕
+shame：可惜的事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,11 +225,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -515,6 +543,9 @@
         <f>A1+2</f>
         <v>44014</v>
       </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
@@ -542,46 +573,46 @@
     </row>
     <row r="6" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44013</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>44014</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1">
         <f>A6+1</f>
-        <v>44014</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1">
         <f>A6+2</f>
-        <v>44015</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1">
         <f>A6+4</f>
-        <v>44017</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1">
         <f>A6+7</f>
-        <v>44020</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1">
         <f>A6+15</f>
-        <v>44028</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A11A403-DC8A-42B5-80CF-14A84F4E12BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17CCBB-E396-47F2-82D6-77F2F5B74174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,56 +33,417 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>discover :[dɪˈskʌvər] :发现
+    <r>
+      <t>discover :[dɪˈskʌvər] :发现
 pattern :[ˈpætərn] :模式,方式
-train：火车
-on time：准时
-see：看见，I see：我明白了
-quarter：4分之一
-late：迟到
-fast：快的
-mean：表示。。意思
-cost：花费
-expensive：贵的
-anythin：任何的
-cheaper：便宜的
-dollar：美元
-change：零钱，a change:改变
-problem：问题
-money：钱
-hundred：100</t>
+train：火车：[treɪn]
+on time：准时：[ɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n taɪm]
+see：看见：[si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] ，I see：我明白了
+quarter：4分之一：[ˈkwɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtər] 
+late：迟到：[leɪt]
+fast：快的：[fæst]
+mean：表示。。意思：[mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]
+cost：花费： [kɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st]
+expensive：贵的：[ɪkˈspensɪv]
+anything：任何的：[ˈeniθɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]
+cheaper：便宜的：[ˈtʃipər]
+dollar：美元： [ˈdɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lər]
+change：零钱：[tʃeɪndʒ] ，a change:改变
+problem：问题：[ˈprɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bləm] 
+money：钱： [ˈmʌni]
+hundred：100： [ˈhʌndrəd]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>today：今天
-Sunday：星期六
-june：6月
-because：因为
-brithday：生日
-February：二月
-size：尺寸
-wear：穿
-extra：格外的
-large：大的
-try：尝试
-necktie：领导：
-special：特别的
-brand：品牌
-simple：简单的
-sale：出售，on sale ：打折
-something：某物，某事
-store：商店
-clothing：衣服
-shoes：鞋子
-small：小的
-big：大的
-pair：一对
-show：看
-lower：较低的
-fit：合身
-smaller：较小的，small的比较级2
-afraid：恐怕
-shame：可惜的事</t>
+    <r>
+      <t>today：今天：[təˈdeɪ]
+Sunday：星期六： [ˈsʌndeɪ]
+june：6月：[dʒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]
+because：因为：[bɪˈkɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z]
+birthday：生日： [ˈbɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rθdeɪ]
+February：二月： [ˈfebrueri] 
+size：尺寸：[saɪz]
+wear：穿： [wer]
+extra：格外的：[ˈekstrə]
+large：大的： [lɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdʒ] 
+try：尝试：[traɪ] 
+necktie：领带：[ˈnektaɪ]
+special：特别的：[ˈspeʃl]
+brand：品牌： [brænd]
+simple：简单的：[ˈsɪmpl]
+sale：出售： [seɪl] ，on sale ：打折
+something：某物，某事： [ˈsʌmθɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] 
+store：商店： [stɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r] 
+clothing：衣服：[ˈkloʊðɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]
+shoes：鞋子：[ʃu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z]
+small：小的：[smɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l]
+big：大的：[bɪɡ]
+pair：一对：[per]
+show：看：[ʃoʊ] 
+lower：较低的：[laʊər]
+fit：合身:[fɪt]
+smaller：较小的:[ˈsmɔlər]，small的比较级2
+afraid：恐怕：[əˈfreɪd]
+shame：可惜的事： [ʃeɪm]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +464,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -225,11 +594,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,18 +882,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="99.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>44012</v>
       </c>
@@ -536,7 +905,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="1">
@@ -547,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1">
@@ -555,7 +924,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1">
@@ -563,7 +932,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="9"/>
       <c r="C5" s="1">
@@ -571,11 +940,11 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44014</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -583,42 +952,42 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1">
         <f>A6+2</f>
         <v>44016</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1">
         <f>A6+4</f>
         <v>44018</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1">
         <f>A6+7</f>
         <v>44021</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1">
         <f>A6+15</f>
         <v>44029</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
     </row>
   </sheetData>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17CCBB-E396-47F2-82D6-77F2F5B74174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5918C155-47F7-4B47-8CE9-5D3B7CC626BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,198 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <r>
-      <t>discover :[dɪˈskʌvər] :发现
-pattern :[ˈpætərn] :模式,方式
-train：火车：[treɪn]
-on time：准时：[ɑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n taɪm]
-see：看见：[si</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>] ，I see：我明白了
-quarter：4分之一：[ˈkwɔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rtər] 
-late：迟到：[leɪt]
-fast：快的：[fæst]
-mean：表示。。意思：[mi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n]
-cost：花费： [kɔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>st]
-expensive：贵的：[ɪkˈspensɪv]
-anything：任何的：[ˈeniθɪ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ŋ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]
-cheaper：便宜的：[ˈtʃipər]
-dollar：美元： [ˈdɑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lər]
-change：零钱：[tʃeɪndʒ] ，a change:改变
-problem：问题：[ˈprɑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bləm] 
-money：钱： [ˈmʌni]
-hundred：100： [ˈhʌndrəd]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t>today：今天：[təˈdeɪ]
@@ -234,8 +43,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ː</t>
@@ -256,8 +65,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ː</t>
@@ -278,8 +87,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ː</t>
@@ -304,8 +113,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ː</t>
@@ -332,8 +141,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ŋ</t>
@@ -354,8 +163,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ː</t>
@@ -376,8 +185,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ŋ</t>
@@ -398,8 +207,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ː</t>
@@ -420,8 +229,8 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ː</t>
@@ -443,6 +252,225 @@
 smaller：较小的:[ˈsmɔlər]，small的比较级2
 afraid：恐怕：[əˈfreɪd]
 shame：可惜的事： [ʃeɪm]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department：
+gift：礼物
+idea：主意，想法
+wrap：包：
+gift-wrap：包装礼物
+blue：蓝色
+dress：连衣裙
+measurement：尺寸
+over here：在这里
+fitting：试衣，试穿
+corner：角落
+welcome：欢迎
+there：哪里
+author：作者
+be sold out ：卖完
+sold：sell的过去分词：卖，售
+next week：下星期
+come back：回来，come：来（到）
+dictionary：字典
+latest：最新的，late的最高级
+late：迟的
+edition：版本
+paperback：平装书
+hardcover：精装书
+difference：不同，差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>discover :[dɪˈskʌvər] :发现
+pattern :[ˈpætərn] :模式,方式
+train：火车：[treɪn]
+on time：准时：[ɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n taɪm]
+see：看见：[si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] ，I see：我明白了
+quarter：4分之一：[ˈkwɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtər] 
+late：迟到：[leɪt]
+fast：快的：[fæst]
+mean：表示。。意思：[mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]
+cost：花费： [kɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st]
+expensive：贵的：[ɪkˈspensɪv]
+anything：任何的：[ˈeniθɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]
+cheaper：便宜的：[ˈtʃipər]
+dollar：美元： [ˈdɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lər]
+change：零钱：[tʃeɪndʒ] ，a change:改变
+problem：问题：[ˈprɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bləm] 
+money：钱： [ˈmʌni]
+hundred：100： [ˈhʌndrəd]</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,8 +498,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -567,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -599,6 +627,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,32 +918,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="99.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="99.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <v>44012</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1">
         <f>A1+1</f>
         <v>44013</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="1">
@@ -916,15 +954,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1">
         <f>A1+4</f>
         <v>44016</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1">
@@ -932,7 +973,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="9"/>
       <c r="C5" s="1">
@@ -940,27 +981,30 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>44014</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <f>A6+1</f>
         <v>44015</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="1">
         <f>A6+2</f>
         <v>44016</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="11"/>
       <c r="C8" s="1">
@@ -968,7 +1012,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="11"/>
       <c r="C9" s="1">
@@ -976,26 +1020,68 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="1">
+      <c r="C10" s="12">
         <f>A6+15</f>
         <v>44029</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>44017</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <f>A11+1</f>
+        <v>44018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="1">
+        <f>A11+2</f>
+        <v>44019</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="1">
+        <f>A11+4</f>
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="1">
+        <f>A11+7</f>
+        <v>44024</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
+    <row r="15" spans="1:9" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="1">
+        <f>A11+15</f>
+        <v>44032</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:B5"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E74E30-2C9B-4A91-B529-4205D03969A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FBC663-41FA-4C06-8476-5383D1D494ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1279,6 +1279,130 @@
   </si>
   <si>
     <t>不同，差异</t>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speak to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask + 人 + to +动词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as soon as possible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hold on </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a few</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandwich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ariport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>international</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deomestic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>must</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>should</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1309,7 +1433,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,8 +1446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1346,20 +1476,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1644,1122 +1786,1324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>44012</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="4">
         <f>A2+1</f>
         <v>44013</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4">
         <f>A2+2</f>
         <v>44014</v>
       </c>
-      <c r="G3" s="3" t="b">
+      <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4">
         <f>A2+4</f>
         <v>44016</v>
       </c>
-      <c r="G4" s="3" t="b">
+      <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1">
+      <c r="E5" s="1"/>
+      <c r="F5" s="4">
         <f>A2+7</f>
         <v>44019</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <f>A2+15</f>
         <v>44027</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="E19" s="1"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>44014</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1">
+      <c r="E20" s="1"/>
+      <c r="F20" s="4">
         <f>A20+1</f>
         <v>44015</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="1">
+      <c r="E21" s="1"/>
+      <c r="F21" s="4">
         <f>A20+2</f>
         <v>44016</v>
       </c>
-      <c r="G21" s="3" t="b">
+      <c r="G21" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1">
+      <c r="E22" s="1"/>
+      <c r="F22" s="4">
         <f>A20+4</f>
         <v>44018</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1">
+      <c r="E23" s="1"/>
+      <c r="F23" s="4">
         <f>A20+7</f>
         <v>44021</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="1">
+      <c r="E24" s="1"/>
+      <c r="F24" s="4">
         <f>A20+15</f>
         <v>44029</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="E44" s="1"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>44017</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="1">
+      <c r="E45" s="1"/>
+      <c r="F45" s="4">
         <f>A45+1</f>
         <v>44018</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="1">
+      <c r="E46" s="1"/>
+      <c r="F46" s="4">
         <f>A45+2</f>
         <v>44019</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="1">
+      <c r="E47" s="1"/>
+      <c r="F47" s="4">
         <f>A45+4</f>
         <v>44021</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="1">
+      <c r="E48" s="1"/>
+      <c r="F48" s="4">
         <f>A45+7</f>
         <v>44024</v>
       </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="1">
+      <c r="E49" s="1"/>
+      <c r="F49" s="4">
         <f>A45+15</f>
         <v>44032</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+      <c r="E53" s="1"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="B54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
+      <c r="B56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
+      <c r="B59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
+      <c r="B60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
+      <c r="B61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
+      <c r="B62" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
+      <c r="B67" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+      <c r="B68" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>44018</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F69" s="4">
+        <f>A69+1</f>
+        <v>44019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F70" s="4">
+        <f>A69+2</f>
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F71" s="4">
+        <f>A69+4</f>
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="4">
+        <f>A69+7</f>
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F73" s="4">
+        <f>A69+15</f>
+        <v>44033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="5" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A69:A92"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="F50:F68"/>
     <mergeCell ref="G50:G68"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FBC663-41FA-4C06-8476-5383D1D494ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD28CE-C57A-4777-A73B-9F767E6BF649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="311">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,13 +611,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>[ˈspeʃl]</t>
-  </si>
-  <si>
-    <t>领带</t>
   </si>
   <si>
     <t>brand</t>
@@ -680,9 +674,6 @@
     <t>某物，某事</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <r>
       <t>[stɔ</t>
     </r>
@@ -709,9 +700,6 @@
     </r>
   </si>
   <si>
-    <t>鞋子</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -1297,10 +1285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ask + 人 + to +动词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>as soon as possible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1309,10 +1293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a few</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>travel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,18 +1353,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ariport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>international</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deomestic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1402,6 +1374,592 @@
   </si>
   <si>
     <t>shall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈmesɪdʒ]</t>
+  </si>
+  <si>
+    <t>消息、信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˌkɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nvərˈseɪʃn]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[spi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k tu]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与…交谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[æz su</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n æz ˈpɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>səbl]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [æsk] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求、要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask + 人 + to +动词；请某人做什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[hoʊld ɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请稍等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>few</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[fju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很少的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a few，少许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈtrævl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈeɪdʒənt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈleɪtər]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈsɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rvɪs]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.订购、点、n.顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdər]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order some food,点一些食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[səm , sʌm]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈkɪtʃɪn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈoʊnli]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈsænwɪtʃ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三明治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.喝,n.饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[drɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[stɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rv]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饿死</t>
+  </si>
+  <si>
+    <t>前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌfrʌnt ˈdesk]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈraɪv]</t>
+  </si>
+  <si>
+    <t>到达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[oʊn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量器，计量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈmi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tər]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈerpɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌɪntərˈnæʃnəl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domestic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dəˈmestɪk]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[flaɪt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航班</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>[wɪl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+  </si>
+  <si>
+    <t>[mʌst , məst]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ʃʊd , ʃəd]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ʃæl , ʃəl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在疑问句中同I和we连用，表示提出或征求意见;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(表示预期)应该会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1453,7 +2011,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1476,17 +2034,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1499,13 +2046,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1788,22 +2335,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,8 +2373,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1846,8 +2393,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1866,8 +2413,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1886,8 +2433,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1904,8 +2451,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1924,8 +2471,8 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,11 +2483,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1951,11 +2498,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1966,11 +2513,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1981,11 +2528,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1996,11 +2543,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2011,11 +2558,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -2026,11 +2573,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -2041,11 +2588,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2056,11 +2603,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2073,11 +2620,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -2088,11 +2635,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -2103,11 +2650,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -2118,11 +2665,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2141,8 +2688,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -2161,8 +2708,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2177,10 +2724,12 @@
         <f>A20+4</f>
         <v>44018</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -2197,8 +2746,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -2215,8 +2764,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2227,11 +2776,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2242,11 +2791,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -2257,11 +2806,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -2272,11 +2821,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2287,248 +2836,248 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="1" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44017</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>44017</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="4">
@@ -2537,16 +3086,16 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="4">
@@ -2555,16 +3104,16 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="4">
@@ -2573,16 +3122,16 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
       <c r="B48" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="4">
@@ -2591,16 +3140,16 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="4">
@@ -2609,501 +3158,791 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
       <c r="B50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E53" s="1"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="1" t="s">
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="1" t="s">
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="1" t="s">
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E68" s="1"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>44018</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
-        <v>44018</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="C69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="4">
         <f>A69+1</f>
         <v>44019</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="4">
         <f>A69+2</f>
         <v>44020</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="4">
         <f>A69+4</f>
         <v>44022</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="4">
         <f>A69+7</f>
         <v>44025</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="5" t="s">
-        <v>218</v>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="F73" s="4">
         <f>A69+15</f>
         <v>44033</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="5" t="s">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="7" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="5" t="s">
+      <c r="C80" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="5" t="s">
+      <c r="C81" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="5" t="s">
+      <c r="C82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
+      <c r="B83" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="5" t="s">
+      <c r="C83" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="5" t="s">
+      <c r="C84" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5"/>
+      <c r="B85" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="5" t="s">
+      <c r="C85" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5"/>
+      <c r="B86" s="7" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="5" t="s">
+      <c r="C86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="B87" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="5" t="s">
+      <c r="C87" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5"/>
+      <c r="B88" s="7" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="5" t="s">
+      <c r="C88" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5"/>
+      <c r="B89" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="5" t="s">
+      <c r="C89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5"/>
+      <c r="B90" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="5" t="s">
+      <c r="C90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5"/>
+      <c r="B91" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="5" t="s">
+      <c r="C91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5"/>
+      <c r="B92" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="5" t="s">
+      <c r="C93" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5"/>
+      <c r="B95" s="7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="5" t="s">
+      <c r="C95" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5"/>
+      <c r="B96" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="5" t="s">
+      <c r="C96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5"/>
+      <c r="B97" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="5" t="s">
+      <c r="C97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="5" t="s">
+      <c r="C98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="5" t="s">
-        <v>244</v>
-      </c>
+      <c r="C99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A69:A92"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="F50:F68"/>
     <mergeCell ref="G50:G68"/>
@@ -3113,6 +3952,7 @@
     <mergeCell ref="F25:F44"/>
     <mergeCell ref="G25:G44"/>
     <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A69:A99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD28CE-C57A-4777-A73B-9F767E6BF649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8A39D-0C88-4EC5-AC5C-1812765EB73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="337">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1960,6 +1960,110 @@
   </si>
   <si>
     <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>these</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>those</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certainly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luggage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bellboy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2011,7 +2115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2034,11 +2138,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2046,13 +2161,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2333,24 +2449,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,8 +2489,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2393,8 +2509,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2413,8 +2529,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2433,8 +2549,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2451,8 +2567,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2471,8 +2587,8 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2483,11 +2599,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2498,11 +2614,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -2513,11 +2629,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2528,11 +2644,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2543,11 +2659,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2558,11 +2674,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -2573,11 +2689,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -2588,11 +2704,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2603,11 +2719,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2620,11 +2736,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -2635,11 +2751,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -2650,11 +2766,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -2665,11 +2781,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2688,8 +2804,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -2708,8 +2824,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2728,8 +2844,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -2746,8 +2862,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -2764,8 +2880,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2776,11 +2892,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -2791,11 +2907,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -2806,11 +2922,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -2821,11 +2937,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2836,11 +2952,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>307</v>
       </c>
@@ -2851,11 +2967,11 @@
         <v>308</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -2866,11 +2982,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -2881,11 +2997,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -2896,11 +3012,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -2911,11 +3027,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>309</v>
       </c>
@@ -2926,11 +3042,11 @@
         <v>310</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -2941,11 +3057,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -2956,11 +3072,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -2971,11 +3087,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -2986,11 +3102,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -3001,11 +3117,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -3016,11 +3132,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -3033,11 +3149,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3048,11 +3164,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3063,11 +3179,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3086,8 +3202,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3104,8 +3220,8 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3122,8 +3238,8 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3140,8 +3256,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3158,8 +3274,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3170,11 +3286,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3185,11 +3301,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3200,11 +3316,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3215,11 +3331,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -3230,11 +3346,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -3245,11 +3361,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3260,11 +3376,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -3275,11 +3391,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -3290,11 +3406,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -3305,11 +3421,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -3322,11 +3438,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3337,11 +3453,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3354,11 +3470,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -3369,11 +3485,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -3386,11 +3502,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -3401,11 +3517,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -3416,11 +3532,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3431,11 +3547,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -3446,14 +3562,14 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
         <v>44018</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>210</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3469,9 +3585,9 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="7" t="s">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3487,9 +3603,9 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="7" t="s">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -3505,9 +3621,9 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="7" t="s">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -3523,9 +3639,9 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="7" t="s">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -3543,9 +3659,9 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="7" t="s">
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
+      <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3558,9 +3674,9 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="7" t="s">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
+      <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3573,9 +3689,9 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="7" t="s">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -3590,9 +3706,9 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="7" t="s">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3605,9 +3721,9 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="7" t="s">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3620,9 +3736,9 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="7" t="s">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3635,9 +3751,9 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="7" t="s">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3650,9 +3766,9 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="7" t="s">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3667,9 +3783,9 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="7" t="s">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3682,9 +3798,9 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="7" t="s">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3697,9 +3813,9 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="7" t="s">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3712,9 +3828,9 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="7" t="s">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3727,9 +3843,9 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="7" t="s">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
+      <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3742,9 +3858,9 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="7" t="s">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
+      <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3757,9 +3873,9 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="7" t="s">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3772,9 +3888,9 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="7" t="s">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3787,9 +3903,9 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="7" t="s">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -3802,9 +3918,9 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="7" t="s">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -3817,9 +3933,9 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="7" t="s">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -3832,9 +3948,9 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="7" t="s">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -3847,9 +3963,9 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="7" t="s">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6"/>
+      <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -3862,9 +3978,9 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="7" t="s">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3877,9 +3993,9 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="7" t="s">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -3892,9 +4008,9 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="7" t="s">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -3907,9 +4023,9 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="7" t="s">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
+      <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -3924,9 +4040,9 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="7" t="s">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
+      <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -3941,8 +4057,206 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>44019</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F100" s="4">
+        <f>A100+1</f>
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
+      <c r="B101" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F101" s="4">
+        <f>A100+2</f>
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
+      <c r="B102" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F102" s="4">
+        <f>A100+4</f>
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
+      <c r="B103" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F103" s="4">
+        <f>A100+7</f>
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6"/>
+      <c r="B104" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F104" s="4">
+        <f>A100+15</f>
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6"/>
+      <c r="B106" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6"/>
+      <c r="B107" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="6"/>
+      <c r="B108" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
+      <c r="B109" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="6"/>
+      <c r="B110" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
+      <c r="B111" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
+      <c r="B112" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="6"/>
+      <c r="B113" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
+      <c r="B114" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="6"/>
+      <c r="B115" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
+      <c r="B116" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
+      <c r="B117" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="6"/>
+      <c r="B118" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="6"/>
+      <c r="B119" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6"/>
+      <c r="B120" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6"/>
+      <c r="B121" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6"/>
+      <c r="B122" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6"/>
+      <c r="B123" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6"/>
+      <c r="B124" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6"/>
+      <c r="B125" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6"/>
+      <c r="B126" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
+    </row>
+    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6"/>
+    </row>
+    <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A69:A99"/>
+    <mergeCell ref="A100:A130"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="F50:F68"/>
     <mergeCell ref="G50:G68"/>
@@ -3952,7 +4266,6 @@
     <mergeCell ref="F25:F44"/>
     <mergeCell ref="G25:G44"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A69:A99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8A39D-0C88-4EC5-AC5C-1812765EB73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438200FE-19B5-4D95-BF67-6407442FC81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="392">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,6 +2064,363 @@
   </si>
   <si>
     <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbɪgər]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dʒʌst]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正好;恰好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [haɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这边;这边请;这边走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ðɪs weɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈkʌstəmər]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ði</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ðoʊz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一的;单个的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈsɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɡl]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈfʊli]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈveɪləbl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可获得的，可用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[steɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停留</t>
+  </si>
+  <si>
+    <t>[ˈdʌbl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两倍的，双重的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[reɪt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度;进度;比率;率;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big的比较级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈraɪv]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达;抵达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成双的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[twɪn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [rɪˈzɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rv] </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌrezərˈveɪʃn] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.预订,保留 n.储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[fɪl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[kæʃ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈsɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtnli]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，肯定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈtʃek ɪn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈpæspɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记入住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈlʌɡɪdʒ] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手提箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈsu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tkeɪs]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈbelbɔɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(旅馆的)行李员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[hoʊˈtel]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[peɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2115,7 +2472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2149,11 +2506,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2168,7 +2551,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2449,24 +2840,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44012</v>
       </c>
@@ -2509,7 +2900,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -2529,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -2549,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -2567,7 +2958,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -2587,7 +2978,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -2602,7 +2993,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -2617,7 +3008,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -2632,7 +3023,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -2647,7 +3038,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -2662,7 +3053,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -2677,7 +3068,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -2692,7 +3083,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
@@ -2707,7 +3098,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
@@ -2722,7 +3113,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -2739,7 +3130,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
@@ -2754,7 +3145,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
@@ -2769,7 +3160,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
@@ -2784,7 +3175,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>44014</v>
       </c>
@@ -2804,7 +3195,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
@@ -2824,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
@@ -2844,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
@@ -2862,7 +3253,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
@@ -2880,7 +3271,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
@@ -2895,7 +3286,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
@@ -2910,7 +3301,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
@@ -2925,7 +3316,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
@@ -2940,7 +3331,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
@@ -2955,7 +3346,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>307</v>
@@ -2970,7 +3361,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
@@ -2985,7 +3376,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
@@ -3000,7 +3391,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
@@ -3015,7 +3406,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
@@ -3030,7 +3421,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>309</v>
@@ -3045,7 +3436,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -3060,7 +3451,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
@@ -3075,7 +3466,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
@@ -3090,7 +3481,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
@@ -3105,7 +3496,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
@@ -3120,7 +3511,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
@@ -3135,7 +3526,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
@@ -3152,7 +3543,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
@@ -3167,7 +3558,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
@@ -3182,7 +3573,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44017</v>
       </c>
@@ -3202,7 +3593,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
@@ -3218,9 +3609,11 @@
         <f>A45+2</f>
         <v>44019</v>
       </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
@@ -3238,7 +3631,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
@@ -3256,7 +3649,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
@@ -3274,7 +3667,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
@@ -3289,7 +3682,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
@@ -3304,7 +3697,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
@@ -3319,7 +3712,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
@@ -3334,7 +3727,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
@@ -3349,7 +3742,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
@@ -3364,7 +3757,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
@@ -3379,7 +3772,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
@@ -3394,7 +3787,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
@@ -3409,7 +3802,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
@@ -3424,7 +3817,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
@@ -3441,7 +3834,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
@@ -3456,7 +3849,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
@@ -3473,7 +3866,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
@@ -3488,7 +3881,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
@@ -3505,7 +3898,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
@@ -3520,7 +3913,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
@@ -3535,7 +3928,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
@@ -3550,7 +3943,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
@@ -3565,7 +3958,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>44018</v>
       </c>
@@ -3585,7 +3978,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
@@ -3603,7 +3996,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
@@ -3621,7 +4014,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
@@ -3639,7 +4032,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
@@ -3659,7 +4052,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
@@ -3671,10 +4064,10 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
@@ -3686,10 +4079,10 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
@@ -3703,10 +4096,10 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="9"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
@@ -3718,10 +4111,10 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
@@ -3733,10 +4126,10 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
@@ -3748,10 +4141,10 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
@@ -3763,10 +4156,10 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
@@ -3780,10 +4173,10 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
@@ -3795,10 +4188,10 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
@@ -3810,10 +4203,10 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
@@ -3825,10 +4218,10 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="9"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
@@ -3840,10 +4233,10 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
@@ -3855,10 +4248,10 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
@@ -3870,10 +4263,10 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
@@ -3885,10 +4278,10 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
@@ -3900,10 +4293,10 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
@@ -3915,10 +4308,10 @@
         <v>306</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
@@ -3930,10 +4323,10 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
@@ -3945,10 +4338,10 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
@@ -3960,10 +4353,10 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
@@ -3975,10 +4368,10 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="9"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
@@ -3990,10 +4383,10 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
@@ -4005,10 +4398,10 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
@@ -4020,10 +4413,10 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
@@ -4037,10 +4430,10 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
@@ -4054,218 +4447,448 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>44019</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="5" t="s">
         <v>311</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="F100" s="4">
         <f>A100+1</f>
         <v>44020</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>312</v>
       </c>
+      <c r="C101" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E101" s="1"/>
       <c r="F101" s="4">
         <f>A100+2</f>
         <v>44021</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>313</v>
       </c>
+      <c r="C102" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E102" s="1"/>
       <c r="F102" s="4">
         <f>A100+4</f>
         <v>44023</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="5" t="s">
         <v>314</v>
       </c>
+      <c r="C103" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E103" s="1"/>
       <c r="F103" s="4">
         <f>A100+7</f>
         <v>44026</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="5" t="s">
         <v>315</v>
       </c>
+      <c r="C104" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E104" s="1"/>
       <c r="F104" s="4">
         <f>A100+15</f>
         <v>44034</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="5" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="5" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="5" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="5" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="5" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="5" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
-    </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
-    </row>
-    <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
-    </row>
-    <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
+      <c r="C126" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A69:A99"/>
-    <mergeCell ref="A100:A130"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
+  <mergeCells count="13">
     <mergeCell ref="F7:F19"/>
     <mergeCell ref="G7:G19"/>
     <mergeCell ref="A20:A44"/>
     <mergeCell ref="F25:F44"/>
     <mergeCell ref="G25:G44"/>
     <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A69:A99"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438200FE-19B5-4D95-BF67-6407442FC81B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0614D-0BBF-4A99-A2F4-9F8868034E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="405">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2421,6 +2421,58 @@
   </si>
   <si>
     <t>支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>economy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>round-trip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2536,7 +2588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2545,11 +2597,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2560,6 +2612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2840,24 +2893,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2880,8 +2933,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2900,8 +2953,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2920,8 +2973,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2940,8 +2993,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2958,8 +3011,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2978,8 +3031,8 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2990,11 +3043,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3005,11 +3058,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,11 +3073,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3035,11 +3088,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3050,11 +3103,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3065,11 +3118,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3080,11 +3133,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3095,11 +3148,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3110,11 +3163,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3127,11 +3180,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -3142,11 +3195,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -3157,11 +3210,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3172,11 +3225,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3195,8 +3248,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3215,8 +3268,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -3235,8 +3288,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3253,8 +3306,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -3271,8 +3324,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3283,11 +3336,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -3298,11 +3351,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -3313,11 +3366,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -3328,11 +3381,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -3343,11 +3396,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>307</v>
       </c>
@@ -3358,11 +3411,11 @@
         <v>308</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3373,11 +3426,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -3388,11 +3441,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -3403,11 +3456,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -3418,11 +3471,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>309</v>
       </c>
@@ -3433,11 +3486,11 @@
         <v>310</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3448,11 +3501,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3463,11 +3516,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3478,11 +3531,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -3493,11 +3546,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -3508,11 +3561,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -3523,11 +3576,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -3540,11 +3593,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3555,11 +3608,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3570,11 +3623,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3593,8 +3646,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3613,8 +3666,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3631,8 +3684,8 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3649,8 +3702,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3667,8 +3720,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3679,11 +3732,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3694,11 +3747,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3709,11 +3762,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3724,11 +3777,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -3739,11 +3792,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -3754,11 +3807,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3769,11 +3822,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -3784,11 +3837,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -3799,11 +3852,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -3814,11 +3867,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -3831,11 +3884,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3846,11 +3899,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3863,11 +3916,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -3878,11 +3931,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -3895,11 +3948,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -3910,11 +3963,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -3925,11 +3978,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3940,11 +3993,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -3955,11 +4008,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3978,8 +4031,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -3996,8 +4049,8 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -4014,8 +4067,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -4032,8 +4085,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -4052,8 +4105,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -4067,8 +4120,8 @@
       <c r="F74" s="8"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -4082,8 +4135,8 @@
       <c r="F75" s="9"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -4099,8 +4152,8 @@
       <c r="F76" s="9"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -4114,8 +4167,8 @@
       <c r="F77" s="9"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -4129,8 +4182,8 @@
       <c r="F78" s="9"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -4144,8 +4197,8 @@
       <c r="F79" s="9"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -4159,8 +4212,8 @@
       <c r="F80" s="9"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -4176,8 +4229,8 @@
       <c r="F81" s="9"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -4191,8 +4244,8 @@
       <c r="F82" s="9"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -4206,8 +4259,8 @@
       <c r="F83" s="9"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -4221,8 +4274,8 @@
       <c r="F84" s="9"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -4236,8 +4289,8 @@
       <c r="F85" s="9"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -4251,8 +4304,8 @@
       <c r="F86" s="9"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -4266,8 +4319,8 @@
       <c r="F87" s="9"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -4281,8 +4334,8 @@
       <c r="F88" s="9"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -4296,8 +4349,8 @@
       <c r="F89" s="9"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -4311,8 +4364,8 @@
       <c r="F90" s="9"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -4326,8 +4379,8 @@
       <c r="F91" s="9"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -4341,8 +4394,8 @@
       <c r="F92" s="9"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -4356,8 +4409,8 @@
       <c r="F93" s="9"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -4371,8 +4424,8 @@
       <c r="F94" s="9"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -4386,8 +4439,8 @@
       <c r="F95" s="9"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -4401,8 +4454,8 @@
       <c r="F96" s="9"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -4416,8 +4469,8 @@
       <c r="F97" s="9"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -4433,8 +4486,8 @@
       <c r="F98" s="9"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -4450,8 +4503,8 @@
       <c r="F99" s="10"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4472,8 +4525,8 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
         <v>312</v>
       </c>
@@ -4490,8 +4543,8 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
         <v>313</v>
       </c>
@@ -4508,8 +4561,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7"/>
       <c r="B103" s="5" t="s">
         <v>314</v>
       </c>
@@ -4526,8 +4579,8 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7"/>
       <c r="B104" s="5" t="s">
         <v>315</v>
       </c>
@@ -4544,8 +4597,8 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
         <v>316</v>
       </c>
@@ -4559,8 +4612,8 @@
       <c r="F105" s="8"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7"/>
       <c r="B106" s="5" t="s">
         <v>317</v>
       </c>
@@ -4574,8 +4627,8 @@
       <c r="F106" s="9"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7"/>
       <c r="B107" s="5" t="s">
         <v>318</v>
       </c>
@@ -4589,8 +4642,8 @@
       <c r="F107" s="9"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7"/>
       <c r="B108" s="5" t="s">
         <v>319</v>
       </c>
@@ -4604,8 +4657,8 @@
       <c r="F108" s="9"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7"/>
       <c r="B109" s="5" t="s">
         <v>320</v>
       </c>
@@ -4619,8 +4672,8 @@
       <c r="F109" s="9"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7"/>
       <c r="B110" s="5" t="s">
         <v>321</v>
       </c>
@@ -4634,8 +4687,8 @@
       <c r="F110" s="9"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7"/>
       <c r="B111" s="5" t="s">
         <v>322</v>
       </c>
@@ -4649,8 +4702,8 @@
       <c r="F111" s="9"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7"/>
       <c r="B112" s="5" t="s">
         <v>323</v>
       </c>
@@ -4664,8 +4717,8 @@
       <c r="F112" s="9"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -4679,8 +4732,8 @@
       <c r="F113" s="9"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7"/>
       <c r="B114" s="5" t="s">
         <v>324</v>
       </c>
@@ -4694,8 +4747,8 @@
       <c r="F114" s="9"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7"/>
       <c r="B115" s="5" t="s">
         <v>325</v>
       </c>
@@ -4709,8 +4762,8 @@
       <c r="F115" s="9"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7"/>
       <c r="B116" s="5" t="s">
         <v>326</v>
       </c>
@@ -4724,8 +4777,8 @@
       <c r="F116" s="9"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
         <v>327</v>
       </c>
@@ -4739,8 +4792,8 @@
       <c r="F117" s="9"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7"/>
       <c r="B118" s="5" t="s">
         <v>328</v>
       </c>
@@ -4754,8 +4807,8 @@
       <c r="F118" s="9"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7"/>
       <c r="B119" s="5" t="s">
         <v>329</v>
       </c>
@@ -4769,8 +4822,8 @@
       <c r="F119" s="9"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
         <v>330</v>
       </c>
@@ -4784,8 +4837,8 @@
       <c r="F120" s="9"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7"/>
       <c r="B121" s="5" t="s">
         <v>331</v>
       </c>
@@ -4799,8 +4852,8 @@
       <c r="F121" s="9"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7"/>
       <c r="B122" s="5" t="s">
         <v>332</v>
       </c>
@@ -4814,8 +4867,8 @@
       <c r="F122" s="9"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7"/>
       <c r="B123" s="5" t="s">
         <v>333</v>
       </c>
@@ -4829,8 +4882,8 @@
       <c r="F123" s="9"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7"/>
       <c r="B124" s="5" t="s">
         <v>334</v>
       </c>
@@ -4844,8 +4897,8 @@
       <c r="F124" s="9"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7"/>
       <c r="B125" s="5" t="s">
         <v>335</v>
       </c>
@@ -4859,8 +4912,8 @@
       <c r="F125" s="9"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7"/>
       <c r="B126" s="5" t="s">
         <v>336</v>
       </c>
@@ -4874,14 +4927,151 @@
       <c r="F126" s="10"/>
       <c r="G126" s="1"/>
     </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>44020</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F127" s="4">
+        <f>A127+1</f>
+        <v>44021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
+      <c r="B128" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F128" s="4">
+        <f>A127+2</f>
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
+      <c r="B129" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F129" s="4">
+        <f>A127+4</f>
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
+      <c r="B130" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F130" s="4">
+        <f>A127+7</f>
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
+      <c r="B131" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F131" s="4">
+        <f>A127+15</f>
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
+      <c r="B132" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7"/>
+      <c r="B133" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7"/>
+      <c r="B134" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7"/>
+      <c r="B135" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7"/>
+      <c r="B136" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7"/>
+      <c r="B137" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7"/>
+      <c r="B138" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7"/>
+      <c r="B139" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7"/>
+    </row>
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7"/>
+    </row>
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7"/>
+    </row>
+    <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7"/>
+    </row>
+    <row r="146" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7"/>
+    </row>
+    <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7"/>
+    </row>
+    <row r="148" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7"/>
+    </row>
+    <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7"/>
+    </row>
+    <row r="150" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7"/>
+    </row>
+    <row r="151" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7"/>
+    </row>
+    <row r="152" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="7"/>
+    </row>
+    <row r="153" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
+  <mergeCells count="14">
+    <mergeCell ref="A127:A153"/>
     <mergeCell ref="A69:A99"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="F50:F68"/>
@@ -4889,6 +5079,12 @@
     <mergeCell ref="A100:A126"/>
     <mergeCell ref="F74:F99"/>
     <mergeCell ref="F105:F126"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0614D-0BBF-4A99-A2F4-9F8868034E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1791C28-C7F3-4E6D-A081-B82348EF2B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="431">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2448,10 +2448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>confirmtion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>airline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2473,6 +2469,271 @@
   </si>
   <si>
     <t>round-trip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[baɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[θɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东西;事物</t>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[wɪʃ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ɪˈkɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nəmi]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <r>
+      <t>[dɪˈpɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtʃər]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开；出发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˌrɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kənˈfɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rm]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˌkɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfərˈmeɪʃn]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈerlaɪn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[flaɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班;班级;课;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[klæs]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈbɪznəs]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[dɪˈpɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开;离职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌraʊnd ˈtrɪp]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往返</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2597,11 +2858,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2612,7 +2873,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2893,24 +3156,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="L131" sqref="L131"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="J123" sqref="J123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2933,8 +3196,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2953,8 +3216,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2973,8 +3236,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2993,8 +3256,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3011,8 +3274,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3031,8 +3294,8 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3043,11 +3306,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3058,11 +3321,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3073,11 +3336,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3088,11 +3351,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3103,11 +3366,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3118,11 +3381,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3133,11 +3396,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3148,11 +3411,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3163,11 +3426,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3180,11 +3443,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -3195,11 +3458,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -3210,11 +3473,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3225,11 +3488,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3248,8 +3511,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3268,8 +3531,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -3288,8 +3551,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3306,8 +3569,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -3324,8 +3587,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3336,11 +3599,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -3351,11 +3614,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -3366,11 +3629,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -3381,11 +3644,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -3396,11 +3659,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>307</v>
       </c>
@@ -3411,11 +3674,11 @@
         <v>308</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3426,11 +3689,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -3441,11 +3704,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -3456,11 +3719,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -3471,11 +3734,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>309</v>
       </c>
@@ -3486,11 +3749,11 @@
         <v>310</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3501,11 +3764,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3516,11 +3779,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3531,11 +3794,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -3546,11 +3809,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -3561,11 +3824,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -3576,11 +3839,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -3593,11 +3856,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3608,11 +3871,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3623,11 +3886,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3646,8 +3909,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3666,8 +3929,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3684,8 +3947,8 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3702,8 +3965,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3720,8 +3983,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3732,11 +3995,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3747,11 +4010,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3762,11 +4025,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3777,11 +4040,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -3792,11 +4055,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -3807,11 +4070,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3822,11 +4085,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -3837,11 +4100,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -3852,11 +4115,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -3867,11 +4130,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -3884,11 +4147,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3899,11 +4162,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3916,11 +4179,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -3931,11 +4194,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -3948,11 +4211,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -3963,11 +4226,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -3978,11 +4241,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3993,11 +4256,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -4008,11 +4271,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4031,8 +4294,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -4047,10 +4310,12 @@
         <f>A69+2</f>
         <v>44020</v>
       </c>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="G70" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -4067,8 +4332,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -4085,8 +4350,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -4105,8 +4370,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -4118,10 +4383,10 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -4133,10 +4398,10 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -4150,10 +4415,10 @@
         <v>256</v>
       </c>
       <c r="F76" s="9"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -4165,10 +4430,10 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -4180,10 +4445,10 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -4195,10 +4460,10 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -4210,10 +4475,10 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -4227,10 +4492,10 @@
         <v>267</v>
       </c>
       <c r="F81" s="9"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -4242,10 +4507,10 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -4257,10 +4522,10 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -4272,10 +4537,10 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -4287,10 +4552,10 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -4302,10 +4567,10 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -4317,10 +4582,10 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -4332,10 +4597,10 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -4347,10 +4612,10 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -4362,10 +4627,10 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -4377,10 +4642,10 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -4392,10 +4657,10 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -4407,10 +4672,10 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -4422,10 +4687,10 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -4437,10 +4702,10 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -4452,10 +4717,10 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -4467,10 +4732,10 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -4484,10 +4749,10 @@
         <v>305</v>
       </c>
       <c r="F98" s="9"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -4501,10 +4766,10 @@
         <v>304</v>
       </c>
       <c r="F99" s="10"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4523,10 +4788,12 @@
         <f>A100+1</f>
         <v>44020</v>
       </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="G100" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
       <c r="B101" s="5" t="s">
         <v>312</v>
       </c>
@@ -4543,8 +4810,8 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
       <c r="B102" s="5" t="s">
         <v>313</v>
       </c>
@@ -4561,8 +4828,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
       <c r="B103" s="5" t="s">
         <v>314</v>
       </c>
@@ -4579,8 +4846,8 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
       <c r="B104" s="5" t="s">
         <v>315</v>
       </c>
@@ -4597,8 +4864,8 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
       <c r="B105" s="5" t="s">
         <v>316</v>
       </c>
@@ -4610,10 +4877,10 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="8"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
       <c r="B106" s="5" t="s">
         <v>317</v>
       </c>
@@ -4625,10 +4892,10 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
       <c r="B107" s="5" t="s">
         <v>318</v>
       </c>
@@ -4640,10 +4907,10 @@
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
       <c r="B108" s="5" t="s">
         <v>319</v>
       </c>
@@ -4655,10 +4922,10 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
       <c r="B109" s="5" t="s">
         <v>320</v>
       </c>
@@ -4670,10 +4937,10 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
       <c r="B110" s="5" t="s">
         <v>321</v>
       </c>
@@ -4685,10 +4952,10 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
       <c r="B111" s="5" t="s">
         <v>322</v>
       </c>
@@ -4700,10 +4967,10 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
       <c r="B112" s="5" t="s">
         <v>323</v>
       </c>
@@ -4715,10 +4982,10 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -4730,10 +4997,10 @@
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
       <c r="B114" s="5" t="s">
         <v>324</v>
       </c>
@@ -4745,10 +5012,10 @@
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
       <c r="B115" s="5" t="s">
         <v>325</v>
       </c>
@@ -4760,10 +5027,10 @@
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
       <c r="B116" s="5" t="s">
         <v>326</v>
       </c>
@@ -4775,10 +5042,10 @@
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
       <c r="B117" s="5" t="s">
         <v>327</v>
       </c>
@@ -4790,10 +5057,10 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
       <c r="B118" s="5" t="s">
         <v>328</v>
       </c>
@@ -4805,10 +5072,10 @@
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
       <c r="B119" s="5" t="s">
         <v>329</v>
       </c>
@@ -4820,10 +5087,10 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
       <c r="B120" s="5" t="s">
         <v>330</v>
       </c>
@@ -4835,10 +5102,10 @@
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
       <c r="B121" s="5" t="s">
         <v>331</v>
       </c>
@@ -4850,10 +5117,10 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
       <c r="B122" s="5" t="s">
         <v>332</v>
       </c>
@@ -4865,10 +5132,10 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
       <c r="B123" s="5" t="s">
         <v>333</v>
       </c>
@@ -4880,10 +5147,10 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
       <c r="B124" s="5" t="s">
         <v>334</v>
       </c>
@@ -4895,10 +5162,10 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
       <c r="B125" s="5" t="s">
         <v>335</v>
       </c>
@@ -4910,10 +5177,10 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
       <c r="B126" s="5" t="s">
         <v>336</v>
       </c>
@@ -4925,153 +5192,228 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
         <v>44020</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="5" t="s">
         <v>392</v>
       </c>
+      <c r="C127" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E127" s="1"/>
       <c r="F127" s="4">
         <f>A127+1</f>
         <v>44021</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
-      <c r="B128" s="11" t="s">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="B128" s="5" t="s">
         <v>393</v>
       </c>
+      <c r="C128" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E128" s="1"/>
       <c r="F128" s="4">
         <f>A127+2</f>
         <v>44022</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
-      <c r="B129" s="11" t="s">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="5" t="s">
         <v>394</v>
       </c>
+      <c r="C129" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="4">
         <f>A127+4</f>
         <v>44024</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7"/>
-      <c r="B130" s="11" t="s">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="5" t="s">
         <v>395</v>
       </c>
+      <c r="C130" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E130" s="1"/>
       <c r="F130" s="4">
         <f>A127+7</f>
         <v>44027</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
-      <c r="B131" s="11" t="s">
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+      <c r="B131" s="5" t="s">
         <v>396</v>
       </c>
+      <c r="C131" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E131" s="1"/>
       <c r="F131" s="4">
         <f>A127+15</f>
         <v>44035</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
-      <c r="B132" s="11" t="s">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
-      <c r="B133" s="11" t="s">
+      <c r="C132" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+      <c r="B134" s="5" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
-      <c r="B134" s="11" t="s">
+      <c r="C134" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+      <c r="B135" s="5" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
-      <c r="B135" s="11" t="s">
+      <c r="C135" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+      <c r="B136" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
-      <c r="B136" s="11" t="s">
+      <c r="C136" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="B137" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
-      <c r="B137" s="11" t="s">
+      <c r="C137" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="B138" s="5" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
-      <c r="B138" s="11" t="s">
+      <c r="C138" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+      <c r="B139" s="5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
-      <c r="B139" s="11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7"/>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-    </row>
-    <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
-    </row>
-    <row r="146" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
-    </row>
-    <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
-    </row>
-    <row r="148" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
-    </row>
-    <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
-    </row>
-    <row r="150" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
-    </row>
-    <row r="151" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
-    </row>
-    <row r="152" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7"/>
-    </row>
-    <row r="153" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7"/>
+      <c r="C139" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A127:A153"/>
+  <mergeCells count="18">
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A69:A99"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="F50:F68"/>
@@ -5079,12 +5421,11 @@
     <mergeCell ref="A100:A126"/>
     <mergeCell ref="F74:F99"/>
     <mergeCell ref="F105:F126"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A127:A139"/>
+    <mergeCell ref="F132:F139"/>
+    <mergeCell ref="G105:G126"/>
+    <mergeCell ref="G74:G99"/>
+    <mergeCell ref="G132:G139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1791C28-C7F3-4E6D-A081-B82348EF2B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043CCAF-3079-4B04-A29B-749CF11ABEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="445">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1943,10 +1943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拥有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>special</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2734,6 +2730,66 @@
   </si>
   <si>
     <t>往返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有，欠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrive lounge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure lounge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check in counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aisle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry-on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2849,7 +2905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2858,11 +2914,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2873,9 +2932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3156,24 +3213,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="J123" sqref="J123"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3196,8 +3253,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3216,8 +3273,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3236,8 +3293,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3256,8 +3313,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3274,8 +3331,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3294,8 +3351,8 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3309,8 +3366,8 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3324,8 +3381,8 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3339,8 +3396,8 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3354,8 +3411,8 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3369,8 +3426,8 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3384,8 +3441,8 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3399,8 +3456,8 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3414,8 +3471,8 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3429,8 +3486,8 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3446,8 +3503,8 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -3461,8 +3518,8 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -3476,8 +3533,8 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3491,8 +3548,8 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3511,8 +3568,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3531,8 +3588,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -3551,8 +3608,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3569,8 +3626,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -3587,8 +3644,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3602,8 +3659,8 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -3617,8 +3674,8 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -3632,8 +3689,8 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -3647,8 +3704,8 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -3662,23 +3719,23 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3692,8 +3749,8 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -3707,8 +3764,8 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -3722,8 +3779,8 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -3737,23 +3794,23 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3767,8 +3824,8 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -3782,8 +3839,8 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -3797,8 +3854,8 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -3812,8 +3869,8 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -3827,8 +3884,8 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -3842,8 +3899,8 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -3859,8 +3916,8 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3874,8 +3931,8 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3889,8 +3946,8 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3909,8 +3966,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3929,8 +3986,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3947,8 +4004,8 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3965,8 +4022,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3983,8 +4040,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3998,8 +4055,8 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -4013,8 +4070,8 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -4028,8 +4085,8 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4043,8 +4100,8 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -4058,8 +4115,8 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -4073,8 +4130,8 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -4088,8 +4145,8 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -4103,8 +4160,8 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -4118,8 +4175,8 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -4133,8 +4190,8 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4150,8 +4207,8 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4165,8 +4222,8 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4182,8 +4239,8 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -4197,8 +4254,8 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -4214,8 +4271,8 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -4229,8 +4286,8 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4244,8 +4301,8 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4259,8 +4316,8 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -4274,8 +4331,8 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4294,8 +4351,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -4314,8 +4371,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -4332,8 +4389,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -4350,8 +4407,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -4370,8 +4427,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="8"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -4382,11 +4439,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="8"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -4397,11 +4454,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="8"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -4414,11 +4471,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -4429,11 +4486,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="8"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -4444,11 +4501,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="8"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -4459,11 +4516,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -4474,11 +4531,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -4491,11 +4548,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -4506,11 +4563,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -4521,11 +4578,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -4536,11 +4593,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -4551,11 +4608,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -4566,11 +4623,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -4581,11 +4638,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="8"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -4596,11 +4653,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="8"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -4611,11 +4668,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="8"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -4623,14 +4680,14 @@
         <v>284</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="8"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -4641,11 +4698,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="8"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -4656,11 +4713,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="8"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -4671,11 +4728,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="8"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -4686,11 +4743,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="8"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -4701,11 +4758,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -4716,11 +4773,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="8"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -4731,11 +4788,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="8"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -4748,11 +4805,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -4765,24 +4822,24 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C100" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="E100" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F100" s="4">
         <f>A100+1</f>
@@ -4792,16 +4849,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8"/>
       <c r="B101" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="4">
@@ -4810,16 +4867,16 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="8"/>
       <c r="B102" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="4">
@@ -4828,16 +4885,16 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8"/>
       <c r="B103" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="4">
@@ -4846,16 +4903,16 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="8"/>
       <c r="B104" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="4">
@@ -4864,348 +4921,348 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8"/>
       <c r="B105" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="8"/>
+      <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="C106" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="5" t="s">
+      <c r="D106" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="8"/>
+      <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="C107" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="5" t="s">
+      <c r="E107" s="1"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8"/>
+      <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="5" t="s">
+      <c r="D108" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="8"/>
+      <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="5" t="s">
+      <c r="D109" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="8"/>
+      <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="5" t="s">
+      <c r="D110" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="8"/>
+      <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="5" t="s">
+      <c r="D111" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="8"/>
+      <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C112" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="8"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="8"/>
+      <c r="B114" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="5" t="s">
+      <c r="E114" s="1"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="8"/>
+      <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="5" t="s">
+      <c r="D115" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="8"/>
+      <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E116" s="1"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="8"/>
+      <c r="B117" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="5" t="s">
+      <c r="D117" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="8"/>
+      <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6"/>
-      <c r="B118" s="5" t="s">
+      <c r="D118" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="8"/>
+      <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="5" t="s">
+      <c r="D119" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="8"/>
+      <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="5" t="s">
+      <c r="D120" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="8"/>
+      <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E121" s="1"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="8"/>
+      <c r="B122" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="5" t="s">
+      <c r="E122" s="1"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="8"/>
+      <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="5" t="s">
+      <c r="E123" s="1"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="8"/>
+      <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="5" t="s">
+      <c r="D124" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="8"/>
+      <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="C125" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6"/>
-      <c r="B125" s="5" t="s">
+      <c r="E125" s="1"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="8"/>
+      <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="1"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="8">
+        <v>44020</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <v>44020</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>392</v>
-      </c>
       <c r="C127" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="4">
@@ -5214,16 +5271,16 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="8"/>
       <c r="B128" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>406</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="4">
@@ -5232,16 +5289,16 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="8"/>
       <c r="B129" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="4">
@@ -5250,16 +5307,16 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="8"/>
       <c r="B130" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="4">
@@ -5268,16 +5325,16 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="8"/>
       <c r="B131" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C131" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="4">
@@ -5286,134 +5343,227 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="8"/>
       <c r="B132" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="8"/>
+      <c r="B133" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="8"/>
+      <c r="B134" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C134" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="5" t="s">
+      <c r="E134" s="1"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="8"/>
+      <c r="B135" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="5" t="s">
+      <c r="D135" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="8"/>
+      <c r="B136" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="C136" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="5" t="s">
+      <c r="E136" s="1"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="8"/>
+      <c r="B137" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="5" t="s">
+      <c r="D137" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="8"/>
+      <c r="B138" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="C138" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="6"/>
-      <c r="B138" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="8"/>
       <c r="B139" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>429</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C139" s="5"/>
       <c r="D139" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
     </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="8"/>
+      <c r="B140" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="8">
+        <v>44020</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="8"/>
+      <c r="B142" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="8"/>
+      <c r="B143" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="8"/>
+      <c r="B144" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="8"/>
+      <c r="B145" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="8"/>
+      <c r="B146" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="8"/>
+      <c r="B147" s="12" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="8"/>
+      <c r="B148" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="8"/>
+      <c r="B149" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="8"/>
+      <c r="B150" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="8"/>
+      <c r="B151" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="8"/>
+      <c r="B152" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="8"/>
+      <c r="B153" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
+  <mergeCells count="19">
+    <mergeCell ref="A141:A153"/>
+    <mergeCell ref="A127:A140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="G105:G126"/>
+    <mergeCell ref="G74:G99"/>
+    <mergeCell ref="G132:G140"/>
     <mergeCell ref="A69:A99"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="F50:F68"/>
@@ -5421,11 +5571,12 @@
     <mergeCell ref="A100:A126"/>
     <mergeCell ref="F74:F99"/>
     <mergeCell ref="F105:F126"/>
-    <mergeCell ref="A127:A139"/>
-    <mergeCell ref="F132:F139"/>
-    <mergeCell ref="G105:G126"/>
-    <mergeCell ref="G74:G99"/>
-    <mergeCell ref="G132:G139"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A043CCAF-3079-4B04-A29B-749CF11ABEE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764DDA74-750A-4298-95EB-B8D93F94BA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2917,9 +2917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2932,7 +2930,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3215,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3363,8 +3363,8 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -3378,8 +3378,8 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -3393,8 +3393,8 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
@@ -3408,8 +3408,8 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -3423,8 +3423,8 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
@@ -3438,8 +3438,8 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -3453,8 +3453,8 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -3468,8 +3468,8 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -3483,8 +3483,8 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -3500,8 +3500,8 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
@@ -3515,8 +3515,8 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
@@ -3530,8 +3530,8 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -3545,8 +3545,8 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
@@ -3656,8 +3656,8 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
@@ -3671,8 +3671,8 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
@@ -3686,8 +3686,8 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
@@ -3701,8 +3701,8 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
@@ -3716,8 +3716,8 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
@@ -3731,8 +3731,8 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
@@ -3746,8 +3746,8 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -3761,8 +3761,8 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
@@ -3776,8 +3776,8 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
@@ -3791,8 +3791,8 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
@@ -3806,8 +3806,8 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
@@ -3821,8 +3821,8 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
@@ -3836,8 +3836,8 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
@@ -3851,8 +3851,8 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
@@ -3866,8 +3866,8 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
@@ -3881,8 +3881,8 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
@@ -3896,8 +3896,8 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
@@ -3913,8 +3913,8 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
@@ -3928,8 +3928,8 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
@@ -3943,8 +3943,8 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
@@ -4002,7 +4002,9 @@
         <f>A45+4</f>
         <v>44021</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
@@ -4052,8 +4054,8 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
@@ -4067,8 +4069,8 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
@@ -4082,8 +4084,8 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
@@ -4097,8 +4099,8 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
@@ -4112,8 +4114,8 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -4127,8 +4129,8 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
@@ -4142,8 +4144,8 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
@@ -4157,8 +4159,8 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
@@ -4172,8 +4174,8 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
@@ -4187,8 +4189,8 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
@@ -4204,8 +4206,8 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
@@ -4219,8 +4221,8 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
@@ -4236,8 +4238,8 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
@@ -4251,8 +4253,8 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
@@ -4268,8 +4270,8 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
@@ -4283,8 +4285,8 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
@@ -4298,8 +4300,8 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
@@ -4313,8 +4315,8 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -4328,8 +4330,8 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
@@ -4865,7 +4867,9 @@
         <f>A100+2</f>
         <v>44021</v>
       </c>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
@@ -5480,84 +5484,96 @@
       <c r="A141" s="8">
         <v>44020</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="7" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="7" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="7" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="7" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="7" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="7" t="s">
         <v>444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>
@@ -5565,18 +5581,6 @@
     <mergeCell ref="G74:G99"/>
     <mergeCell ref="G132:G140"/>
     <mergeCell ref="A69:A99"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764DDA74-750A-4298-95EB-B8D93F94BA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C816260-F29C-4F6D-8007-1728E7726BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="469">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2791,6 +2791,179 @@
   <si>
     <t>carry-on</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[aɪˌdentɪfɪˈkeɪʃn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率</t>
+  </si>
+  <si>
+    <t>[ɪksˈtʃeɪndʒ reɪt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈtɪkɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈkɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rənsi]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rest]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈfɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">loʊ] </t>
+    </r>
+  </si>
+  <si>
+    <t>登机柜台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tʃek ɪn ˈkaʊntər]</t>
+  </si>
+  <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>[peɪ]</t>
+  </si>
+  <si>
+    <t>税</t>
+  </si>
+  <si>
+    <t>[tæks]</t>
+  </si>
+  <si>
+    <t>过道</t>
+  </si>
+  <si>
+    <t>[aɪl]</t>
+  </si>
+  <si>
+    <t>座位</t>
+  </si>
+  <si>
+    <r>
+      <t>[si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[ˈkæri ɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]</t>
+    </r>
+  </si>
+  <si>
+    <t>随时的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[laʊndʒ]</t>
   </si>
 </sst>
 </file>
@@ -2905,7 +3078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2917,7 +3090,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2928,9 +3103,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3215,22 +3387,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44012</v>
       </c>
@@ -3273,7 +3445,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -3293,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -3313,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
@@ -3331,7 +3503,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -3351,7 +3523,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -3363,10 +3535,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -3378,10 +3550,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -3393,10 +3565,10 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -3408,10 +3580,10 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -3423,10 +3595,10 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -3438,10 +3610,10 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -3453,10 +3625,10 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
@@ -3468,10 +3640,10 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
@@ -3483,10 +3655,10 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -3500,10 +3672,10 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
@@ -3515,10 +3687,10 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
@@ -3530,10 +3702,10 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
@@ -3545,10 +3717,10 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44014</v>
       </c>
@@ -3568,7 +3740,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
@@ -3588,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
@@ -3608,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
@@ -3626,7 +3798,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
@@ -3644,7 +3816,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
@@ -3656,10 +3828,10 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
@@ -3671,10 +3843,10 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
@@ -3686,10 +3858,10 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
@@ -3701,10 +3873,10 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
@@ -3716,10 +3888,10 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
@@ -3731,10 +3903,10 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
@@ -3746,10 +3918,10 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
@@ -3761,10 +3933,10 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
@@ -3776,10 +3948,10 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
@@ -3791,10 +3963,10 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
@@ -3806,10 +3978,10 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -3821,10 +3993,10 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
@@ -3836,10 +4008,10 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
@@ -3851,10 +4023,10 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
@@ -3866,10 +4038,10 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
@@ -3881,10 +4053,10 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
@@ -3896,10 +4068,10 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
@@ -3913,10 +4085,10 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
@@ -3928,10 +4100,10 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
@@ -3943,10 +4115,10 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44017</v>
       </c>
@@ -3966,7 +4138,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
@@ -3986,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
@@ -4006,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
@@ -4024,7 +4196,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
@@ -4042,7 +4214,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
@@ -4054,10 +4226,10 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
@@ -4069,10 +4241,10 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
@@ -4084,10 +4256,10 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
@@ -4099,10 +4271,10 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
@@ -4114,10 +4286,10 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
@@ -4129,10 +4301,10 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
@@ -4144,10 +4316,10 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
@@ -4159,10 +4331,10 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
@@ -4174,10 +4346,10 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
@@ -4189,10 +4361,10 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
@@ -4206,10 +4378,10 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
@@ -4221,10 +4393,10 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
@@ -4238,10 +4410,10 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
@@ -4253,10 +4425,10 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
@@ -4270,10 +4442,10 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
@@ -4285,10 +4457,10 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
@@ -4300,10 +4472,10 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
@@ -4315,10 +4487,10 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
@@ -4330,10 +4502,10 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>44018</v>
       </c>
@@ -4353,7 +4525,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
@@ -4373,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
@@ -4391,7 +4563,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
@@ -4409,7 +4581,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
@@ -4429,7 +4601,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
@@ -4444,7 +4616,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
@@ -4459,7 +4631,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
@@ -4476,7 +4648,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
@@ -4491,7 +4663,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
@@ -4506,7 +4678,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
@@ -4521,7 +4693,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
@@ -4536,7 +4708,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
@@ -4553,7 +4725,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
@@ -4568,7 +4740,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
@@ -4583,7 +4755,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
@@ -4598,7 +4770,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
@@ -4613,7 +4785,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
@@ -4628,7 +4800,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
@@ -4643,7 +4815,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
@@ -4658,7 +4830,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
@@ -4673,7 +4845,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
@@ -4688,7 +4860,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
@@ -4703,7 +4875,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
@@ -4718,7 +4890,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
@@ -4733,7 +4905,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
@@ -4748,7 +4920,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
@@ -4763,7 +4935,7 @@
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
@@ -4778,7 +4950,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
@@ -4793,7 +4965,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
@@ -4810,7 +4982,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
@@ -4827,7 +4999,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>44019</v>
       </c>
@@ -4851,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
@@ -4871,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
@@ -4889,7 +5061,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
@@ -4907,7 +5079,7 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
@@ -4925,7 +5097,7 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
@@ -4940,7 +5112,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
@@ -4955,7 +5127,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
@@ -4970,7 +5142,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
@@ -4985,7 +5157,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
@@ -5000,7 +5172,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
@@ -5015,7 +5187,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
@@ -5030,7 +5202,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
     </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
@@ -5045,7 +5217,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
@@ -5060,7 +5232,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
@@ -5075,7 +5247,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
@@ -5090,7 +5262,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
@@ -5105,7 +5277,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
@@ -5120,7 +5292,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
@@ -5135,7 +5307,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
@@ -5150,7 +5322,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
@@ -5165,7 +5337,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
@@ -5180,7 +5352,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
@@ -5195,7 +5367,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
@@ -5210,7 +5382,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
@@ -5225,7 +5397,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
@@ -5240,7 +5412,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
@@ -5255,7 +5427,7 @@
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
     </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>44020</v>
       </c>
@@ -5275,7 +5447,7 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="5" t="s">
         <v>392</v>
@@ -5293,7 +5465,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="5" t="s">
         <v>393</v>
@@ -5311,7 +5483,7 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="5" t="s">
         <v>394</v>
@@ -5329,7 +5501,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="5" t="s">
         <v>395</v>
@@ -5347,7 +5519,7 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="5" t="s">
         <v>396</v>
@@ -5362,7 +5534,7 @@
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="5" t="s">
         <v>415</v>
@@ -5377,7 +5549,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
     </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="5" t="s">
         <v>397</v>
@@ -5392,7 +5564,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="5" t="s">
         <v>398</v>
@@ -5407,7 +5579,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="5" t="s">
         <v>399</v>
@@ -5422,7 +5594,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
     </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="5" t="s">
         <v>400</v>
@@ -5437,7 +5609,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
     </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="5" t="s">
         <v>401</v>
@@ -5452,12 +5624,14 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
     </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="5"/>
+      <c r="C139" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="D139" s="1" t="s">
         <v>436</v>
       </c>
@@ -5465,7 +5639,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="5" t="s">
         <v>402</v>
@@ -5480,100 +5654,216 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
-        <v>44020</v>
-      </c>
-      <c r="B141" s="7" t="s">
+        <v>44021</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C141" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="4">
+        <f>A141+1</f>
+        <v>44022</v>
+      </c>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="4">
+        <f>A141+2</f>
+        <v>44023</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="5" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="4">
+        <f>A141+4</f>
+        <v>44025</v>
+      </c>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C144" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="4">
+        <f>A141+7</f>
+        <v>44028</v>
+      </c>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="5" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C145" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="4">
+        <f>A141+15</f>
+        <v>44036</v>
+      </c>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="5" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C146" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C147" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C148" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C149" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C150" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C151" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C152" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="5" t="s">
         <v>444</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>
@@ -5581,6 +5871,18 @@
     <mergeCell ref="G74:G99"/>
     <mergeCell ref="G132:G140"/>
     <mergeCell ref="A69:A99"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C816260-F29C-4F6D-8007-1728E7726BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EA805B-D64D-4C25-AE11-D26C7C876A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="503">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2208,10 +2208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>速度;进度;比率;率;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>big的比较级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2964,6 +2960,146 @@
   </si>
   <si>
     <t>[laʊndʒ]</t>
+  </si>
+  <si>
+    <t>速度/率;价格，费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入境大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出境大厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>put</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overweight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boarding pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>till</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-ray machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>air mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envelope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>though</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>throat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3078,7 +3214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3089,9 +3225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3105,6 +3238,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3385,24 +3522,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3425,8 +3562,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3445,8 +3582,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3465,8 +3602,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3485,8 +3622,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3503,8 +3640,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3523,8 +3660,8 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3535,11 +3672,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3550,11 +3687,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3565,11 +3702,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3580,11 +3717,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3595,11 +3732,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3610,11 +3747,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3625,11 +3762,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3640,11 +3777,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3655,11 +3792,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3672,11 +3809,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,11 +3824,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -3702,11 +3839,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3717,11 +3854,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3740,8 +3877,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3760,8 +3897,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -3780,8 +3917,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3798,8 +3935,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -3816,8 +3953,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3828,11 +3965,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -3843,11 +3980,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -3858,11 +3995,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -3873,11 +4010,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -3888,11 +4025,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -3903,11 +4040,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -3918,11 +4055,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -3933,11 +4070,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -3948,11 +4085,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -3963,11 +4100,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -3978,11 +4115,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -3993,11 +4130,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -4008,11 +4145,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -4023,11 +4160,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -4038,11 +4175,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -4053,11 +4190,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -4068,11 +4205,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -4085,11 +4222,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -4100,11 +4237,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -4115,11 +4252,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4138,8 +4275,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4158,8 +4295,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -4178,8 +4315,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -4196,8 +4333,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -4214,8 +4351,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -4226,11 +4363,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -4241,11 +4378,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -4256,11 +4393,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4271,11 +4408,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -4286,11 +4423,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -4301,11 +4438,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -4316,11 +4453,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -4331,11 +4468,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -4346,11 +4483,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -4361,11 +4498,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4378,11 +4515,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4393,11 +4530,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4410,11 +4547,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -4425,11 +4562,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -4442,11 +4579,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -4457,11 +4594,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4472,11 +4609,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4487,11 +4624,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -4502,11 +4639,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4525,8 +4662,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -4545,8 +4682,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -4563,8 +4700,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -4581,8 +4718,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -4601,8 +4738,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -4613,11 +4750,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -4628,11 +4765,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -4645,11 +4782,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -4660,11 +4797,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -4675,11 +4812,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -4690,11 +4827,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -4705,11 +4842,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -4722,11 +4859,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -4737,11 +4874,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -4752,11 +4889,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -4767,11 +4904,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -4782,11 +4919,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -4797,11 +4934,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -4812,11 +4949,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -4827,11 +4964,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -4842,11 +4979,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -4854,14 +4991,14 @@
         <v>284</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -4872,11 +5009,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -4887,11 +5024,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -4902,11 +5039,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -4917,11 +5054,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -4932,11 +5069,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -4947,11 +5084,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -4962,11 +5099,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -4979,11 +5116,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -4996,11 +5133,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -5013,7 +5150,7 @@
         <v>337</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F100" s="4">
         <f>A100+1</f>
@@ -5023,8 +5160,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -5043,8 +5180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -5061,8 +5198,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -5077,10 +5214,12 @@
         <f>A100+7</f>
         <v>44026</v>
       </c>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="G103" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -5097,8 +5236,8 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -5109,11 +5248,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -5124,11 +5263,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -5139,11 +5278,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -5154,11 +5293,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -5169,11 +5308,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -5184,11 +5323,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -5199,11 +5338,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -5211,234 +5350,234 @@
         <v>360</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>361</v>
+        <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>374</v>
-      </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="7"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="8"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="1"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>44020</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="8">
-        <v>44020</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>391</v>
-      </c>
       <c r="C127" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="4">
@@ -5447,16 +5586,16 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
       <c r="B128" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C128" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="4">
@@ -5465,16 +5604,16 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
       <c r="B129" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>407</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>408</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="4">
@@ -5483,16 +5622,16 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
       <c r="B130" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C130" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="4">
@@ -5501,16 +5640,16 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
       <c r="B131" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C131" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="4">
@@ -5519,153 +5658,153 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
       <c r="B132" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7"/>
+      <c r="B133" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7"/>
+      <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C134" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-      <c r="B134" s="5" t="s">
+      <c r="E134" s="1"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7"/>
+      <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C135" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="5" t="s">
+      <c r="D135" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="7"/>
+      <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="C136" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-      <c r="B136" s="5" t="s">
+      <c r="E136" s="1"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7"/>
+      <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="B137" s="5" t="s">
+      <c r="D137" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7"/>
+      <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="C138" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="5" t="s">
+      <c r="D138" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="7"/>
+      <c r="B139" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7"/>
+      <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="C140" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C140" s="5" t="s">
+      <c r="D140" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="4">
@@ -5674,16 +5813,16 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7"/>
       <c r="B142" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="4">
@@ -5692,16 +5831,16 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8"/>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7"/>
       <c r="B143" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C143" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="4">
@@ -5710,16 +5849,16 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8"/>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="7"/>
       <c r="B144" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C144" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="4">
@@ -5728,15 +5867,17 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8"/>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7"/>
       <c r="B145" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D145" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="E145" s="1"/>
       <c r="F145" s="4">
         <f>A141+15</f>
@@ -5744,126 +5885,336 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="7"/>
       <c r="B146" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D146" s="1"/>
+        <v>467</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>470</v>
+      </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7"/>
       <c r="B147" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7"/>
       <c r="B148" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="7"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="7"/>
       <c r="B150" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="7"/>
       <c r="B151" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="7"/>
       <c r="B152" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="7"/>
       <c r="B153" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
+        <v>44022</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="F154" s="4">
+        <f>A154+1</f>
+        <v>44023</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="7"/>
+      <c r="B155" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="F155" s="4">
+        <f>A154+2</f>
+        <v>44024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="7"/>
+      <c r="B156" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F156" s="4">
+        <f>A154+4</f>
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="7"/>
+      <c r="B157" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F157" s="4">
+        <f>A154+7</f>
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7"/>
+      <c r="B158" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F158" s="4">
+        <f>A154+15</f>
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="7"/>
+      <c r="B159" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="7"/>
+      <c r="B160" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="7"/>
+      <c r="B161" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7"/>
+      <c r="B162" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="7"/>
+      <c r="B163" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="7"/>
+      <c r="B164" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="7"/>
+      <c r="B165" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="7"/>
+      <c r="B166" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="A154:A166"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>
@@ -5871,18 +6222,6 @@
     <mergeCell ref="G74:G99"/>
     <mergeCell ref="G132:G140"/>
     <mergeCell ref="A69:A99"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EA805B-D64D-4C25-AE11-D26C7C876A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936433D-028E-43B0-9653-17B55D2C8F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="538">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3099,6 +3099,146 @@
   </si>
   <si>
     <t>fever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>also</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>near</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>railing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>after all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elephant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gigantic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-feeding sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tusk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endangered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3150,7 +3290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3210,11 +3350,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3226,8 +3386,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3238,10 +3402,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3522,10 +3688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3563,7 +3729,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3583,7 +3749,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3603,7 +3769,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3623,7 +3789,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3641,7 +3807,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3658,10 +3824,12 @@
         <f>A2+15</f>
         <v>44027</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3672,11 +3840,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3687,11 +3855,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3702,11 +3870,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3717,11 +3885,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3732,11 +3900,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3747,11 +3915,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3762,11 +3930,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3777,11 +3945,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3792,11 +3960,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3809,11 +3977,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -3824,11 +3992,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -3839,11 +4007,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -3854,11 +4022,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3878,7 +4046,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3898,7 +4066,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -3918,7 +4086,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3936,7 +4104,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -3954,7 +4122,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -3965,11 +4133,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -3980,11 +4148,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -3995,11 +4163,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -4010,11 +4178,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -4025,11 +4193,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -4040,11 +4208,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -4055,11 +4223,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -4070,11 +4238,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -4085,11 +4253,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -4100,11 +4268,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -4115,11 +4283,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -4130,11 +4298,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -4145,11 +4313,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -4160,11 +4328,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -4175,11 +4343,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -4190,11 +4358,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -4205,11 +4373,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -4222,11 +4390,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -4237,11 +4405,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -4252,11 +4420,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4276,7 +4444,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4296,7 +4464,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -4316,7 +4484,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -4334,7 +4502,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -4352,7 +4520,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -4363,11 +4531,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -4378,11 +4546,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -4393,11 +4561,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4408,11 +4576,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -4423,11 +4591,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -4438,11 +4606,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -4453,11 +4621,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -4468,11 +4636,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -4483,11 +4651,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -4498,11 +4666,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4515,11 +4683,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4530,11 +4698,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4547,11 +4715,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -4562,11 +4730,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -4579,11 +4747,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -4594,11 +4762,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4609,11 +4777,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4624,11 +4792,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -4639,11 +4807,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4663,7 +4831,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -4683,7 +4851,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -4701,7 +4869,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -4719,7 +4887,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -4739,7 +4907,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -4750,11 +4918,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -4765,11 +4933,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -4782,11 +4950,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -4797,11 +4965,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -4812,11 +4980,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -4827,11 +4995,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -4842,11 +5010,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -4859,11 +5027,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -4874,11 +5042,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -4889,11 +5057,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -4904,11 +5072,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -4919,11 +5087,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -4934,11 +5102,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -4949,11 +5117,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -4964,11 +5132,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -4979,11 +5147,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -4994,11 +5162,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -5009,11 +5177,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -5024,11 +5192,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -5039,11 +5207,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -5054,11 +5222,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -5069,11 +5237,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -5084,11 +5252,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -5099,11 +5267,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -5116,11 +5284,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -5133,11 +5301,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -5161,7 +5329,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -5181,7 +5349,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -5199,7 +5367,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -5219,7 +5387,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -5237,7 +5405,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -5248,11 +5416,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -5263,11 +5431,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -5278,11 +5446,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -5293,11 +5461,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -5308,11 +5476,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -5323,11 +5491,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -5338,11 +5506,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -5353,11 +5521,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -5368,11 +5536,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -5383,11 +5551,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -5398,11 +5566,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -5413,11 +5581,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -5428,11 +5596,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -5443,11 +5611,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -5458,11 +5626,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -5473,11 +5641,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -5488,11 +5656,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -5503,11 +5671,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -5518,11 +5686,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -5533,11 +5701,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -5548,11 +5716,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -5563,11 +5731,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -5587,7 +5755,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -5605,7 +5773,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -5623,7 +5791,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -5641,7 +5809,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -5659,7 +5827,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -5670,11 +5838,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -5685,11 +5853,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
+      <c r="A134" s="8"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -5700,11 +5868,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -5715,11 +5883,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -5730,11 +5898,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -5745,11 +5913,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -5760,11 +5928,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -5775,11 +5943,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -5790,11 +5958,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
+      <c r="A141" s="8">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -5814,7 +5982,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -5832,7 +6000,7 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -5850,7 +6018,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -5868,7 +6036,7 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -5886,7 +6054,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -5901,7 +6069,7 @@
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -5916,7 +6084,7 @@
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -5931,7 +6099,7 @@
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -5946,7 +6114,7 @@
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -5961,7 +6129,7 @@
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -5976,7 +6144,7 @@
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -5991,7 +6159,7 @@
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -6006,203 +6174,436 @@
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
-        <v>44022</v>
-      </c>
-      <c r="B154" s="12" t="s">
+      <c r="A154" s="13">
+        <v>44026</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>471</v>
       </c>
       <c r="F154" s="4">
         <f>A154+1</f>
-        <v>44023</v>
+        <v>44027</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7"/>
-      <c r="B155" s="12" t="s">
+      <c r="A155" s="14"/>
+      <c r="B155" s="7" t="s">
         <v>472</v>
       </c>
       <c r="F155" s="4">
         <f>A154+2</f>
-        <v>44024</v>
+        <v>44028</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
-      <c r="B156" s="12" t="s">
+      <c r="A156" s="14"/>
+      <c r="B156" s="7" t="s">
         <v>473</v>
       </c>
       <c r="F156" s="4">
         <f>A154+4</f>
-        <v>44026</v>
+        <v>44030</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
-      <c r="B157" s="12" t="s">
+      <c r="A157" s="14"/>
+      <c r="B157" s="7" t="s">
         <v>474</v>
       </c>
       <c r="F157" s="4">
         <f>A154+7</f>
-        <v>44029</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
-      <c r="B158" s="12" t="s">
+      <c r="A158" s="14"/>
+      <c r="B158" s="7" t="s">
         <v>475</v>
       </c>
       <c r="F158" s="4">
         <f>A154+15</f>
-        <v>44037</v>
+        <v>44041</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
-      <c r="B159" s="12" t="s">
+      <c r="A159" s="14"/>
+      <c r="B159" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7"/>
-      <c r="B160" s="12" t="s">
+      <c r="A160" s="14"/>
+      <c r="B160" s="7" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7"/>
-      <c r="B161" s="12" t="s">
+      <c r="A161" s="14"/>
+      <c r="B161" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
-      <c r="B162" s="12" t="s">
+      <c r="A162" s="14"/>
+      <c r="B162" s="7" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7"/>
-      <c r="B163" s="12" t="s">
+      <c r="A163" s="14"/>
+      <c r="B163" s="7" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7"/>
-      <c r="B164" s="12" t="s">
+      <c r="A164" s="14"/>
+      <c r="B164" s="7" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7"/>
-      <c r="B165" s="12" t="s">
+      <c r="A165" s="14"/>
+      <c r="B165" s="7" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7"/>
-      <c r="B166" s="12" t="s">
+      <c r="A166" s="14"/>
+      <c r="B166" s="7" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="12" t="s">
+      <c r="A167" s="14"/>
+      <c r="B167" s="7" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="12" t="s">
+      <c r="A168" s="14"/>
+      <c r="B168" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="12" t="s">
+      <c r="A169" s="14"/>
+      <c r="B169" s="7" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="12" t="s">
+      <c r="A170" s="14"/>
+      <c r="B170" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="12" t="s">
+      <c r="A171" s="14"/>
+      <c r="B171" s="7" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="12" t="s">
+      <c r="A172" s="14"/>
+      <c r="B172" s="7" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="12" t="s">
+      <c r="A173" s="14"/>
+      <c r="B173" s="7" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="12" t="s">
+      <c r="A174" s="14"/>
+      <c r="B174" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="12" t="s">
+      <c r="A175" s="14"/>
+      <c r="B175" s="7" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="12" t="s">
+      <c r="A176" s="14"/>
+      <c r="B176" s="7" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="12" t="s">
+    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="14"/>
+      <c r="B177" s="7" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="12" t="s">
+    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="14"/>
+      <c r="B178" s="7" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="12" t="s">
+    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="14"/>
+      <c r="B179" s="7" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="12" t="s">
+    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="14"/>
+      <c r="B180" s="7" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="12" t="s">
+    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="14"/>
+      <c r="B181" s="7" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="12" t="s">
+    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="14"/>
+      <c r="B182" s="7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="12" t="s">
+    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="14"/>
+      <c r="B183" s="7" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="12" t="s">
+    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="14"/>
+      <c r="B184" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="12" t="s">
+    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="14"/>
+      <c r="B185" s="7" t="s">
         <v>502</v>
       </c>
     </row>
+    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="13">
+        <v>44027</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="14"/>
+      <c r="B187" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="14"/>
+      <c r="B188" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="14"/>
+      <c r="B189" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="14"/>
+      <c r="B190" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="14"/>
+      <c r="B191" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="14"/>
+      <c r="B192" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="14"/>
+      <c r="B193" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="14"/>
+      <c r="B194" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="14"/>
+      <c r="B195" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="14"/>
+      <c r="B196" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="14"/>
+      <c r="B197" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="14"/>
+      <c r="B198" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="14"/>
+      <c r="B199" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="14"/>
+      <c r="B200" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="14"/>
+      <c r="B201" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="14"/>
+      <c r="B202" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="14"/>
+      <c r="B203" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="14"/>
+      <c r="B204" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="14"/>
+      <c r="B205" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="14"/>
+      <c r="B206" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="14"/>
+      <c r="B207" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="14"/>
+      <c r="B208" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="14"/>
+      <c r="B209" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="14"/>
+      <c r="B210" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="14"/>
+      <c r="B211" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="14"/>
+      <c r="B212" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="14"/>
+      <c r="B213" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="14"/>
+      <c r="B214" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="14"/>
+      <c r="B215" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="14"/>
+      <c r="B216" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="14"/>
+      <c r="B217" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A154:A166"/>
+  <mergeCells count="21">
+    <mergeCell ref="A186:A217"/>
+    <mergeCell ref="G105:G126"/>
+    <mergeCell ref="G74:G99"/>
+    <mergeCell ref="G132:G140"/>
+    <mergeCell ref="A69:A99"/>
+    <mergeCell ref="A154:A185"/>
     <mergeCell ref="F7:F19"/>
     <mergeCell ref="G7:G19"/>
     <mergeCell ref="A20:A44"/>
@@ -6218,10 +6619,6 @@
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>
-    <mergeCell ref="G105:G126"/>
-    <mergeCell ref="G74:G99"/>
-    <mergeCell ref="G132:G140"/>
-    <mergeCell ref="A69:A99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936433D-028E-43B0-9653-17B55D2C8F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F383FA9A-1EB5-4289-A3BA-6C3673E6B6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="600">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3240,6 +3240,482 @@
   <si>
     <t>animal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tæɡ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈtætʃ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pʊt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[skeɪl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌoʊvərˈweɪt] </t>
+  </si>
+  <si>
+    <t>[ɪkˈses , ˈekses]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[kleɪm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [stʌb]</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈbɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pæs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[bɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rd]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ɡeɪt]</t>
+  </si>
+  <si>
+    <t>[weɪt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [tɪl]</t>
+  </si>
+  <si>
+    <r>
+      <t>[eks reɪ məˈʃi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈpoʊst ɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fɪs]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈredʒɪstər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈletər] </t>
+  </si>
+  <si>
+    <t>[weɪ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈdres] </t>
+  </si>
+  <si>
+    <t>[send</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [er meɪl]</t>
+  </si>
+  <si>
+    <r>
+      <t>[kɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rd]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[si</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ˈenvəloʊp]</t>
+  </si>
+  <si>
+    <t>[ðoʊ]</t>
+  </si>
+  <si>
+    <t>[stæmp]</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈdɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ktər]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[flu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[kɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[sɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>[θroʊt]</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈfi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vər] </t>
+    </r>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超重</t>
+  </si>
+  <si>
+    <t>过量的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存根</t>
+  </si>
+  <si>
+    <t>登机牌</t>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直到</t>
+  </si>
+  <si>
+    <t>X光机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮局</t>
+  </si>
+  <si>
+    <t>登记</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>称重量</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>航空邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片</t>
+  </si>
+  <si>
+    <t>密封</t>
+  </si>
+  <si>
+    <t>信封</t>
+  </si>
+  <si>
+    <t>虽然</t>
+  </si>
+  <si>
+    <t>邮票</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>流感</t>
+  </si>
+  <si>
+    <t>咳嗽</t>
+  </si>
+  <si>
+    <t>疼痛的</t>
+  </si>
+  <si>
+    <t>喉咙</t>
+  </si>
+  <si>
+    <t>发烧</t>
   </si>
 </sst>
 </file>
@@ -3387,11 +3863,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3402,11 +3878,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3690,22 +4166,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3728,8 +4204,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3748,8 +4224,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3768,8 +4244,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3788,8 +4264,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3806,8 +4282,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3828,8 +4304,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -3840,11 +4316,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3855,11 +4331,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -3870,11 +4346,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3885,11 +4361,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -3900,11 +4376,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3915,11 +4391,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -3930,11 +4406,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3945,11 +4421,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -3960,11 +4436,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -3977,11 +4453,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -3992,11 +4468,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -4007,11 +4483,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -4022,11 +4498,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4045,8 +4521,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -4065,8 +4541,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,8 +4561,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -4103,8 +4579,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -4121,8 +4597,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -4133,11 +4609,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -4148,11 +4624,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -4163,11 +4639,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -4178,11 +4654,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -4193,11 +4669,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -4208,11 +4684,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -4223,11 +4699,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -4238,11 +4714,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -4253,11 +4729,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -4268,11 +4744,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -4283,11 +4759,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -4298,11 +4774,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -4313,11 +4789,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -4328,11 +4804,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -4343,11 +4819,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -4358,11 +4834,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -4373,11 +4849,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -4390,11 +4866,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -4405,11 +4881,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -4420,11 +4896,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4443,8 +4919,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4463,8 +4939,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -4483,8 +4959,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -4501,8 +4977,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -4519,8 +4995,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -4531,11 +5007,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -4546,11 +5022,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -4561,11 +5037,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4576,11 +5052,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -4591,11 +5067,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -4606,11 +5082,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -4621,11 +5097,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -4636,11 +5112,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -4651,11 +5127,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -4666,11 +5142,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4683,11 +5159,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4698,11 +5174,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4715,11 +5191,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -4730,11 +5206,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -4747,11 +5223,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -4762,11 +5238,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -4777,11 +5253,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4792,11 +5268,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -4807,11 +5283,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4830,8 +5306,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -4850,8 +5326,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -4868,8 +5344,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -4886,8 +5362,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -4906,8 +5382,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -4921,8 +5397,8 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -4936,8 +5412,8 @@
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -4953,8 +5429,8 @@
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -4968,8 +5444,8 @@
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
     </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -4983,8 +5459,8 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -4998,8 +5474,8 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -5013,8 +5489,8 @@
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -5030,8 +5506,8 @@
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
     </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -5045,8 +5521,8 @@
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -5060,8 +5536,8 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -5075,8 +5551,8 @@
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
     </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -5090,8 +5566,8 @@
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
     </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -5105,8 +5581,8 @@
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -5120,8 +5596,8 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -5135,8 +5611,8 @@
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
     </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -5150,8 +5626,8 @@
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
     </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -5165,8 +5641,8 @@
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
     </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -5180,8 +5656,8 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -5195,8 +5671,8 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -5210,8 +5686,8 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -5225,8 +5701,8 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -5240,8 +5716,8 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -5255,8 +5731,8 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -5270,8 +5746,8 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
     </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -5287,8 +5763,8 @@
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -5304,8 +5780,8 @@
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -5328,8 +5804,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -5348,8 +5824,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -5366,8 +5842,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -5386,8 +5862,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -5404,8 +5880,8 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -5419,8 +5895,8 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
     </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -5434,8 +5910,8 @@
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
     </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -5449,8 +5925,8 @@
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
     </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -5464,8 +5940,8 @@
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -5479,8 +5955,8 @@
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -5494,8 +5970,8 @@
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
     </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -5509,8 +5985,8 @@
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -5524,8 +6000,8 @@
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
     </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -5539,8 +6015,8 @@
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
     </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -5554,8 +6030,8 @@
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
     </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -5569,8 +6045,8 @@
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -5584,8 +6060,8 @@
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -5599,8 +6075,8 @@
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -5614,8 +6090,8 @@
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
     </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -5629,8 +6105,8 @@
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -5644,8 +6120,8 @@
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="13"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -5659,8 +6135,8 @@
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
     </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -5674,8 +6150,8 @@
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
     </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -5689,8 +6165,8 @@
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
     </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -5704,8 +6180,8 @@
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -5719,8 +6195,8 @@
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
     </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -5734,8 +6210,8 @@
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -5754,8 +6230,8 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -5772,8 +6248,8 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -5790,8 +6266,8 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -5808,8 +6284,8 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -5826,8 +6302,8 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -5841,8 +6317,8 @@
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -5856,8 +6332,8 @@
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
     </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -5871,8 +6347,8 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="13"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -5886,8 +6362,8 @@
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
     </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -5901,8 +6377,8 @@
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -5916,8 +6392,8 @@
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -5931,8 +6407,8 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -5946,8 +6422,8 @@
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
     </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -5961,8 +6437,8 @@
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="13">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -5981,8 +6457,8 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -5999,8 +6475,8 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -6017,8 +6493,8 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -6035,8 +6511,8 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -6053,8 +6529,8 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8"/>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -6068,8 +6544,8 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -6083,8 +6559,8 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8"/>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -6098,8 +6574,8 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -6113,8 +6589,8 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -6128,8 +6604,8 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8"/>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -6143,8 +6619,8 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8"/>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -6158,8 +6634,8 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8"/>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -6173,449 +6649,637 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13">
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
         <v>44026</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>471</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="F154" s="4">
         <f>A154+1</f>
         <v>44027</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="14"/>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9"/>
       <c r="B155" s="7" t="s">
         <v>472</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>571</v>
       </c>
       <c r="F155" s="4">
         <f>A154+2</f>
         <v>44028</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="14"/>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9"/>
       <c r="B156" s="7" t="s">
         <v>473</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="F156" s="4">
         <f>A154+4</f>
         <v>44030</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="14"/>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9"/>
       <c r="B157" s="7" t="s">
         <v>474</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="F157" s="4">
         <f>A154+7</f>
         <v>44033</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="14"/>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9"/>
       <c r="B158" s="7" t="s">
         <v>475</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="F158" s="4">
         <f>A154+15</f>
         <v>44041</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="14"/>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9"/>
       <c r="B159" s="7" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="14"/>
+      <c r="C159" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9"/>
       <c r="B160" s="7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="14"/>
+      <c r="C160" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9"/>
       <c r="B161" s="7" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="14"/>
+      <c r="C161" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9"/>
       <c r="B162" s="7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="14"/>
+      <c r="C162" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="9"/>
       <c r="B163" s="7" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="14"/>
+      <c r="C163" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9"/>
       <c r="B164" s="7" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="14"/>
+      <c r="C164" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9"/>
       <c r="B165" s="7" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="14"/>
+      <c r="C165" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9"/>
       <c r="B166" s="7" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="14"/>
+      <c r="C166" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9"/>
       <c r="B167" s="7" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="14"/>
+      <c r="C167" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9"/>
       <c r="B168" s="7" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="14"/>
+      <c r="C168" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9"/>
       <c r="B169" s="7" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="14"/>
+      <c r="C169" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="9"/>
       <c r="B170" s="7" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="14"/>
+      <c r="C170" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9"/>
       <c r="B171" s="7" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="14"/>
+      <c r="C171" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9"/>
       <c r="B172" s="7" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="14"/>
+      <c r="C172" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9"/>
       <c r="B173" s="7" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="14"/>
+      <c r="C173" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9"/>
       <c r="B174" s="7" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="14"/>
+      <c r="C174" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="9"/>
       <c r="B175" s="7" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="14"/>
+      <c r="C175" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="9"/>
       <c r="B176" s="7" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="14"/>
+      <c r="C176" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="9"/>
       <c r="B177" s="7" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="14"/>
+      <c r="C177" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="9"/>
       <c r="B178" s="7" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="14"/>
+      <c r="C178" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="9"/>
       <c r="B179" s="7" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="14"/>
+      <c r="C179" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="9"/>
       <c r="B180" s="7" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="14"/>
+      <c r="C180" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="9"/>
       <c r="B181" s="7" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="14"/>
+      <c r="C181" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9"/>
       <c r="B182" s="7" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="14"/>
+      <c r="C182" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="9"/>
       <c r="B183" s="7" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="14"/>
+      <c r="C183" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="9"/>
       <c r="B184" s="7" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="14"/>
+      <c r="C184" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="9"/>
       <c r="B185" s="7" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13">
+      <c r="C185" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="8">
         <v>44027</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="14"/>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="9"/>
       <c r="B187" s="7" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="14"/>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="9"/>
       <c r="B188" s="7" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="14"/>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="9"/>
       <c r="B189" s="7" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="14"/>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="9"/>
       <c r="B190" s="7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="14"/>
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="9"/>
       <c r="B191" s="7" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="14"/>
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="9"/>
       <c r="B192" s="7" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="14"/>
+    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="9"/>
       <c r="B193" s="7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="14"/>
+    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="9"/>
       <c r="B194" s="7" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="14"/>
+    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="9"/>
       <c r="B195" s="7" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="14"/>
+    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="9"/>
       <c r="B196" s="7" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="14"/>
+    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="9"/>
       <c r="B197" s="7" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="14"/>
+    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="9"/>
       <c r="B198" s="7" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="14"/>
+    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9"/>
       <c r="B199" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="14"/>
+    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="9"/>
       <c r="B200" s="7" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="14"/>
+    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="9"/>
       <c r="B201" s="7" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="14"/>
+    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="9"/>
       <c r="B202" s="7" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="14"/>
+    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="9"/>
       <c r="B203" s="7" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="14"/>
+    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="9"/>
       <c r="B204" s="7" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="14"/>
+    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="9"/>
       <c r="B205" s="7" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="14"/>
+    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="9"/>
       <c r="B206" s="7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="14"/>
+    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="9"/>
       <c r="B207" s="7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="14"/>
+    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="9"/>
       <c r="B208" s="7" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="14"/>
+    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="9"/>
       <c r="B209" s="7" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="14"/>
+    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="9"/>
       <c r="B210" s="7" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="14"/>
+    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9"/>
       <c r="B211" s="7" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="14"/>
+    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9"/>
       <c r="B212" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="14"/>
+    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9"/>
       <c r="B213" s="7" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="14"/>
+    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="9"/>
       <c r="B214" s="7" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="14"/>
+    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9"/>
       <c r="B215" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="14"/>
+    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="9"/>
       <c r="B216" s="7" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="14"/>
+    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9"/>
       <c r="B217" s="7" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A186:A217"/>
     <mergeCell ref="G105:G126"/>
     <mergeCell ref="G74:G99"/>
     <mergeCell ref="G132:G140"/>
     <mergeCell ref="A69:A99"/>
     <mergeCell ref="A154:A185"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F383FA9A-1EB5-4289-A3BA-6C3673E6B6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC5412-DC3B-4828-BD58-BECDF8C7991E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="665">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3138,10 +3138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>after</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3716,6 +3712,464 @@
   </si>
   <si>
     <t>发烧</t>
+  </si>
+  <si>
+    <t>[maʊθ , maʊð]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴;口;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[kwaɪt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当;某种程度上;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsɪriəs] </t>
+  </si>
+  <si>
+    <t>疼痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[hɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt]</t>
+    </r>
+  </si>
+  <si>
+    <t>很快;马上;</t>
+  </si>
+  <si>
+    <r>
+      <t>su</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ˈoʊvər]</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lsoʊ]</t>
+    </r>
+  </si>
+  <si>
+    <t>而且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药丸;药片;</t>
+  </si>
+  <si>
+    <t>[pɪl]</t>
+  </si>
+  <si>
+    <t>time：次，时间</t>
+  </si>
+  <si>
+    <t>之后</t>
+  </si>
+  <si>
+    <t>[ˈæftər]</t>
+  </si>
+  <si>
+    <r>
+      <t>[mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">l] </t>
+    </r>
+  </si>
+  <si>
+    <t>一餐</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>[ˈpɪktʃər]</t>
+  </si>
+  <si>
+    <t>狮子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlaɪən]</t>
+  </si>
+  <si>
+    <t>靠近</t>
+  </si>
+  <si>
+    <t>[nɪr]</t>
+  </si>
+  <si>
+    <t>[keɪdʒ]</t>
+  </si>
+  <si>
+    <t>笼子</t>
+  </si>
+  <si>
+    <t>站</t>
+  </si>
+  <si>
+    <t>[stænd]</t>
+  </si>
+  <si>
+    <t>栏杆</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈreɪlɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>准备好</t>
+  </si>
+  <si>
+    <t>[ˈredi]</t>
+  </si>
+  <si>
+    <t>毕竟</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈæftər ɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l]</t>
+    </r>
+  </si>
+  <si>
+    <t>野兽</t>
+  </si>
+  <si>
+    <r>
+      <t>[bi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st]</t>
+    </r>
+  </si>
+  <si>
+    <t>大象</t>
+  </si>
+  <si>
+    <t>[ˈelɪfənt]</t>
+  </si>
+  <si>
+    <t>巨大的</t>
+  </si>
+  <si>
+    <t>[dʒaɪˈɡæntɪk]</t>
+  </si>
+  <si>
+    <t>喂养</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [fi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d] </t>
+    </r>
+  </si>
+  <si>
+    <t>禁止喂食标志</t>
+  </si>
+  <si>
+    <t>[saɪn]：招牌;标牌;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怜的;贫穷的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pʊr]</t>
+  </si>
+  <si>
+    <t>[left]</t>
+  </si>
+  <si>
+    <t>左，剩下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <r>
+      <t>[wɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rld]</t>
+    </r>
+  </si>
+  <si>
+    <t>杀死</t>
+  </si>
+  <si>
+    <t>[kɪl]</t>
+  </si>
+  <si>
+    <t>象牙</t>
+  </si>
+  <si>
+    <t>tʌsk]</t>
+  </si>
+  <si>
+    <t>濒危的</t>
+  </si>
+  <si>
+    <t>[ɪnˈdeɪndʒərd]</t>
+  </si>
+  <si>
+    <t>种，物种</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈspi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ʃi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z]</t>
+    </r>
+  </si>
+  <si>
+    <t>男人;人类;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mæn]</t>
+  </si>
+  <si>
+    <t>表现</t>
+  </si>
+  <si>
+    <t>[bɪˈheɪv]</t>
+  </si>
+  <si>
+    <t>兽;牲畜;动物</t>
+  </si>
+  <si>
+    <t>[ˈænɪml]</t>
   </si>
 </sst>
 </file>
@@ -3766,7 +4220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3826,31 +4280,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3862,12 +4296,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3876,12 +4309,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4164,10 +4591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G220"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="E207" sqref="E207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4205,7 +4633,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="7">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4225,7 +4653,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4245,7 +4673,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4265,7 +4693,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4275,7 +4703,9 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>614</v>
+      </c>
       <c r="F5" s="4">
         <f>A2+7</f>
         <v>44019</v>
@@ -4283,7 +4713,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -4305,7 +4735,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -4316,11 +4746,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4331,11 +4761,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4346,11 +4776,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4361,11 +4791,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -4376,11 +4806,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -4391,11 +4821,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -4406,11 +4836,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -4421,11 +4851,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -4436,11 +4866,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -4453,11 +4883,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -4468,11 +4898,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -4483,11 +4913,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -4498,11 +4928,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="7">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4522,7 +4952,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -4542,7 +4972,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -4562,7 +4992,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -4580,7 +5010,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -4598,7 +5028,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -4609,11 +5039,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -4624,11 +5054,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -4639,11 +5069,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -4654,11 +5084,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -4669,11 +5099,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -4684,11 +5114,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -4699,11 +5129,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -4714,11 +5144,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -4729,11 +5159,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -4744,11 +5174,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -4759,11 +5189,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -4774,11 +5204,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -4789,11 +5219,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -4804,11 +5234,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -4819,11 +5249,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -4834,11 +5264,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -4849,11 +5279,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -4866,11 +5296,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -4881,11 +5311,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -4896,11 +5326,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
+      <c r="A45" s="7">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4920,7 +5350,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4940,7 +5370,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -4960,7 +5390,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -4978,7 +5408,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -4996,7 +5426,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -5007,11 +5437,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -5022,11 +5452,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -5037,11 +5467,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -5052,11 +5482,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -5067,11 +5497,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -5082,11 +5512,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -5097,11 +5527,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -5112,11 +5542,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -5127,11 +5557,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -5142,11 +5572,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -5159,11 +5589,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -5174,11 +5604,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -5191,11 +5621,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -5206,11 +5636,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -5223,11 +5653,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -5238,11 +5668,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -5253,11 +5683,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -5268,11 +5698,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -5283,11 +5713,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
+      <c r="A69" s="7">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -5307,7 +5737,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -5327,7 +5757,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -5345,7 +5775,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -5363,7 +5793,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -5383,7 +5813,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -5394,11 +5824,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -5409,11 +5839,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -5426,11 +5856,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -5441,11 +5871,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -5456,11 +5886,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -5471,11 +5901,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -5486,11 +5916,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -5503,11 +5933,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -5518,11 +5948,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -5533,11 +5963,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -5548,11 +5978,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -5563,11 +5993,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -5578,11 +6008,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -5593,11 +6023,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -5608,11 +6038,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -5623,11 +6053,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -5638,11 +6068,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -5653,11 +6083,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -5668,11 +6098,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -5683,11 +6113,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -5698,11 +6128,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -5713,11 +6143,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -5728,11 +6158,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -5743,11 +6173,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -5760,11 +6190,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -5777,11 +6207,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
+      <c r="A100" s="7">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -5805,7 +6235,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -5825,7 +6255,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -5843,7 +6273,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -5863,7 +6293,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -5881,7 +6311,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -5892,11 +6322,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -5907,11 +6337,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -5922,11 +6352,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -5937,11 +6367,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -5952,11 +6382,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -5967,11 +6397,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -5982,11 +6412,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -5997,11 +6427,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -6012,11 +6442,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -6027,11 +6457,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -6042,11 +6472,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -6057,11 +6487,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -6072,11 +6502,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -6087,11 +6517,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -6102,11 +6532,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -6117,11 +6547,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -6132,11 +6562,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -6147,11 +6577,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -6162,11 +6592,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
+      <c r="A124" s="7"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -6177,11 +6607,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -6192,11 +6622,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
+      <c r="A126" s="7"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -6207,11 +6637,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
+      <c r="A127" s="7">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -6231,7 +6661,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
+      <c r="A128" s="7"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -6249,7 +6679,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
+      <c r="A129" s="7"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -6267,7 +6697,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
+      <c r="A130" s="7"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -6285,7 +6715,7 @@
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -6303,7 +6733,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
+      <c r="A132" s="7"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -6314,11 +6744,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
+      <c r="A133" s="7"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -6329,11 +6759,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -6344,11 +6774,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -6359,11 +6789,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
+      <c r="A136" s="7"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -6374,11 +6804,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -6389,11 +6819,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -6404,11 +6834,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
+      <c r="A139" s="7"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -6419,11 +6849,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
+      <c r="A140" s="7"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -6434,11 +6864,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="13">
+      <c r="A141" s="7">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -6458,7 +6888,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
+      <c r="A142" s="7"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -6476,7 +6906,7 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -6494,7 +6924,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
+      <c r="A144" s="7"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -6512,7 +6942,7 @@
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
+      <c r="A145" s="7"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -6530,7 +6960,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -6541,11 +6971,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
+      <c r="A147" s="7"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -6556,11 +6986,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
+      <c r="A148" s="7"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -6571,11 +7001,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="13"/>
+      <c r="A149" s="7"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -6586,11 +7016,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -6601,11 +7031,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
+      <c r="A151" s="7"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -6616,11 +7046,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
+      <c r="A152" s="7"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -6631,11 +7061,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
+      <c r="A153" s="7"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -6646,635 +7076,1025 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8">
+      <c r="A154" s="7">
         <v>44026</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="5" t="s">
         <v>471</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>570</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="E154" s="1"/>
       <c r="F154" s="4">
         <f>A154+1</f>
         <v>44027</v>
       </c>
+      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="7" t="s">
+      <c r="A155" s="7"/>
+      <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>571</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="E155" s="1"/>
       <c r="F155" s="4">
         <f>A154+2</f>
         <v>44028</v>
       </c>
+      <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="7" t="s">
+      <c r="A156" s="7"/>
+      <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>572</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="E156" s="1"/>
       <c r="F156" s="4">
         <f>A154+4</f>
         <v>44030</v>
       </c>
+      <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="7" t="s">
+      <c r="A157" s="7"/>
+      <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>573</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="E157" s="1"/>
       <c r="F157" s="4">
         <f>A154+7</f>
         <v>44033</v>
       </c>
+      <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="7" t="s">
+      <c r="A158" s="7"/>
+      <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>574</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="E158" s="1"/>
       <c r="F158" s="4">
         <f>A154+15</f>
         <v>44041</v>
       </c>
+      <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="7" t="s">
+      <c r="A159" s="7"/>
+      <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
+      <c r="B160" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="E160" s="1"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
+      <c r="B161" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="E161" s="1"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
-      <c r="B162" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="E162" s="1"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
+      <c r="B163" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
+      <c r="B164" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
+      <c r="B165" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
-      <c r="B164" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="E165" s="1"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
+      <c r="B166" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="E166" s="1"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C167" s="1" t="s">
+      <c r="E167" s="1"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
-      <c r="B168" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="E168" s="1"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
+      <c r="B169" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
-      <c r="B169" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="E169" s="1"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
+      <c r="B170" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="B170" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="1"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
+      <c r="B171" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="E171" s="1"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
+      <c r="B172" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
-      <c r="B172" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
+      <c r="B173" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
-      <c r="B173" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="C173" s="1" t="s">
+      <c r="E173" s="1"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
+      <c r="B174" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
-      <c r="B174" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C174" s="1" t="s">
+      <c r="E174" s="1"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
+      <c r="B175" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
-      <c r="B175" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="C175" s="1" t="s">
+      <c r="E175" s="1"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
+      <c r="B176" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
-      <c r="B176" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C176" s="1" t="s">
+      <c r="E176" s="1"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
+      <c r="B177" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
-      <c r="B177" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="E177" s="1"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
+      <c r="B178" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
-      <c r="B178" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C178" s="1" t="s">
+      <c r="E178" s="1"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
+      <c r="B179" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
-      <c r="B179" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="E179" s="1"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
+      <c r="B180" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C180" s="1" t="s">
+      <c r="E180" s="1"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+      <c r="B181" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="E181" s="1"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+      <c r="B182" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
-      <c r="B182" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C182" s="1" t="s">
+      <c r="E182" s="1"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
+      <c r="B183" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
-      <c r="B183" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="E183" s="1"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
+      <c r="B184" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
-      <c r="B184" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="E184" s="1"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
+      <c r="B185" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
-      <c r="B185" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>44027</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8">
-        <v>44027</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
-      <c r="B187" s="7" t="s">
+      <c r="D186" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E186" s="1"/>
+      <c r="F186" s="4">
+        <f>A186+1</f>
+        <v>44028</v>
+      </c>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
+      <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="9"/>
-      <c r="B188" s="7" t="s">
+      <c r="C187" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E187" s="1"/>
+      <c r="F187" s="4">
+        <f>A186+2</f>
+        <v>44029</v>
+      </c>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
+      <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
-      <c r="B189" s="7" t="s">
+      <c r="C188" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E188" s="1"/>
+      <c r="F188" s="4">
+        <f>A186+4</f>
+        <v>44031</v>
+      </c>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
+      <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="B190" s="7" t="s">
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="4">
+        <f>A186+7</f>
+        <v>44034</v>
+      </c>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
+      <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="9"/>
-      <c r="B191" s="7" t="s">
+      <c r="C190" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E190" s="1"/>
+      <c r="F190" s="4">
+        <f>A186+15</f>
+        <v>44042</v>
+      </c>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
+      <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="7" t="s">
+      <c r="C191" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
+      <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="7" t="s">
+      <c r="C192" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
+      <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
-      <c r="B194" s="7" t="s">
+      <c r="C193" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E193" s="1"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
+      <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-      <c r="B195" s="7" t="s">
+      <c r="C194" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E194" s="1"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
+      <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
-      <c r="B196" s="7" t="s">
+      <c r="C195" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E195" s="1"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
+      <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="9"/>
-      <c r="B197" s="7" t="s">
+      <c r="C196" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E196" s="1"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
+      <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
-      <c r="B198" s="7" t="s">
+      <c r="C197" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E197" s="1"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
+      <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="9"/>
-      <c r="B199" s="7" t="s">
+      <c r="C198" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E198" s="1"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7"/>
+      <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
-      <c r="B200" s="7" t="s">
+      <c r="C199" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E199" s="1"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
+      <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="9"/>
-      <c r="B201" s="7" t="s">
+      <c r="C200" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E200" s="1"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
+      <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
-      <c r="B202" s="7" t="s">
+      <c r="C201" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E201" s="1"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
+      <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="9"/>
-      <c r="B203" s="7" t="s">
+      <c r="C202" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E202" s="1"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
+      <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
-      <c r="B204" s="7" t="s">
+      <c r="C203" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
+      <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="9"/>
-      <c r="B205" s="7" t="s">
+      <c r="C204" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E204" s="1"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
+      <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
-      <c r="B206" s="7" t="s">
+      <c r="C205" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E205" s="1"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
+      <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="9"/>
-      <c r="B207" s="7" t="s">
+      <c r="C206" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E206" s="1"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
+      <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
-      <c r="B208" s="7" t="s">
+      <c r="C207" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E207" s="1"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
+      <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="9"/>
-      <c r="B209" s="7" t="s">
+      <c r="C208" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E208" s="1"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
+      <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="9"/>
-      <c r="B210" s="7" t="s">
+      <c r="C209" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E209" s="1"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+      <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
-      <c r="B211" s="7" t="s">
+      <c r="C210" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E210" s="1"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+      <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
-      <c r="B212" s="7" t="s">
+      <c r="C211" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E211" s="1"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
+      <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="9"/>
-      <c r="B213" s="7" t="s">
+      <c r="C212" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E212" s="1"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+      <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
-      <c r="B214" s="7" t="s">
+      <c r="C213" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E213" s="1"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
+      <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="9"/>
-      <c r="B215" s="7" t="s">
+      <c r="C214" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E214" s="1"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
+      <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
-      <c r="B216" s="7" t="s">
+      <c r="C215" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E215" s="1"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
+      <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="9"/>
-      <c r="B217" s="7" t="s">
+      <c r="C216" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E216" s="1"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
+      <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="7" t="s">
+      <c r="C217" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E217" s="1"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
+      <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="7" t="s">
+      <c r="C218" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
+      <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>537</v>
-      </c>
+      <c r="C219" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E219" s="1"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A186:A217"/>
+  <mergeCells count="27">
     <mergeCell ref="G105:G126"/>
     <mergeCell ref="G74:G99"/>
     <mergeCell ref="G132:G140"/>
@@ -7283,6 +8103,25 @@
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>
+    <mergeCell ref="A186:A219"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="G146:G153"/>
+    <mergeCell ref="F191:F219"/>
+    <mergeCell ref="F159:F185"/>
+    <mergeCell ref="G159:G185"/>
+    <mergeCell ref="G191:G219"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC5412-DC3B-4828-BD58-BECDF8C7991E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176BB64-807B-4D76-A03D-2FAC07068ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="676">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4170,6 +4170,50 @@
   </si>
   <si>
     <t>[ˈænɪml]</t>
+  </si>
+  <si>
+    <t>打针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midnight show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>were</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>was</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>went</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fantastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>did</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4284,7 +4328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4296,12 +4340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4311,6 +4349,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4592,24 +4637,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4632,8 +4677,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4652,8 +4697,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4672,8 +4717,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4692,8 +4737,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4712,8 +4757,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -4734,8 +4779,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -4746,11 +4791,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4761,11 +4806,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4776,11 +4821,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4791,11 +4836,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -4806,11 +4851,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -4821,11 +4866,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -4836,11 +4881,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -4851,11 +4896,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -4866,11 +4911,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -4883,11 +4928,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -4898,11 +4943,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -4913,11 +4958,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -4928,11 +4973,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4951,8 +4996,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -4971,8 +5016,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -4991,8 +5036,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -5009,8 +5054,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -5027,8 +5072,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -5039,11 +5084,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -5054,11 +5099,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -5069,11 +5114,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -5084,11 +5129,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -5099,11 +5144,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -5114,11 +5159,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -5129,11 +5174,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -5144,11 +5189,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -5159,11 +5204,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -5174,11 +5219,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -5189,11 +5234,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -5204,11 +5249,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -5219,11 +5264,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -5234,11 +5279,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -5249,11 +5294,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -5264,11 +5309,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -5279,11 +5324,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -5296,11 +5341,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -5311,11 +5356,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -5326,11 +5371,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -5349,8 +5394,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -5369,8 +5414,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -5389,8 +5434,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -5407,8 +5452,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -5425,8 +5470,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -5437,11 +5482,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -5452,11 +5497,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -5467,11 +5512,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -5482,11 +5527,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -5497,11 +5542,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -5512,11 +5557,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -5527,11 +5572,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -5542,11 +5587,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -5557,11 +5602,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -5572,11 +5617,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -5589,11 +5634,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -5604,11 +5649,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -5621,11 +5666,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -5636,11 +5681,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -5653,11 +5698,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -5668,11 +5713,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -5683,11 +5728,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -5698,11 +5743,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -5713,11 +5758,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -5736,8 +5781,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -5756,8 +5801,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -5774,8 +5819,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -5792,8 +5837,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -5812,8 +5857,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -5824,11 +5869,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -5839,11 +5884,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -5856,11 +5901,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -5871,11 +5916,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -5886,11 +5931,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -5901,11 +5946,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -5916,11 +5961,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -5933,11 +5978,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -5948,11 +5993,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -5963,11 +6008,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -5978,11 +6023,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -5993,11 +6038,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -6008,11 +6053,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -6023,11 +6068,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -6038,11 +6083,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -6053,11 +6098,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -6068,11 +6113,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -6083,11 +6128,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -6098,11 +6143,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -6113,11 +6158,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -6128,11 +6173,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -6143,11 +6188,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -6158,11 +6203,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -6173,11 +6218,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -6190,11 +6235,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -6207,11 +6252,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -6234,8 +6279,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -6254,8 +6299,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -6272,8 +6317,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -6292,8 +6337,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -6310,8 +6355,8 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -6322,11 +6367,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -6337,11 +6382,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -6352,11 +6397,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -6367,11 +6412,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -6382,11 +6427,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -6397,11 +6442,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -6412,11 +6457,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -6427,11 +6472,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -6442,11 +6487,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -6457,11 +6502,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -6472,11 +6517,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -6487,11 +6532,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="10"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -6502,11 +6547,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="10"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -6517,11 +6562,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -6532,11 +6577,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -6547,11 +6592,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -6562,11 +6607,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="10"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -6577,11 +6622,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="10"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -6592,11 +6637,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -6607,11 +6652,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="10"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -6622,11 +6667,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -6637,11 +6682,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -6660,8 +6705,8 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -6678,8 +6723,8 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -6696,8 +6741,8 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -6714,8 +6759,8 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -6732,8 +6777,8 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -6744,11 +6789,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -6759,11 +6804,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -6774,11 +6819,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -6789,11 +6834,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -6804,11 +6849,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -6819,11 +6864,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="10"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -6834,11 +6879,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="10"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -6849,11 +6894,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -6864,11 +6909,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="10">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -6887,8 +6932,8 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="10"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -6905,8 +6950,8 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="10"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -6923,8 +6968,8 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="10"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -6941,8 +6986,8 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -6959,8 +7004,8 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -6971,11 +7016,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="10"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -6986,11 +7031,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="10"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -7001,11 +7046,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="10"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -7016,11 +7061,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -7031,11 +7076,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="10"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -7046,11 +7091,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="10"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -7061,11 +7106,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -7076,11 +7121,11 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10">
         <v>44026</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -7099,8 +7144,8 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
       <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
@@ -7115,10 +7160,12 @@
         <f>A154+2</f>
         <v>44028</v>
       </c>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
+      <c r="G155" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
       <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
@@ -7135,8 +7182,8 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
       <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
@@ -7153,8 +7200,8 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
       <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
@@ -7171,8 +7218,8 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="10"/>
       <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
@@ -7183,11 +7230,11 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="10"/>
       <c r="B160" s="5" t="s">
         <v>477</v>
       </c>
@@ -7198,11 +7245,11 @@
         <v>575</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
       <c r="B161" s="5" t="s">
         <v>478</v>
       </c>
@@ -7213,11 +7260,11 @@
         <v>576</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="10"/>
       <c r="B162" s="5" t="s">
         <v>479</v>
       </c>
@@ -7228,11 +7275,11 @@
         <v>577</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="10"/>
       <c r="B163" s="5" t="s">
         <v>480</v>
       </c>
@@ -7241,11 +7288,11 @@
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="10"/>
       <c r="B164" s="5" t="s">
         <v>481</v>
       </c>
@@ -7254,11 +7301,11 @@
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="10"/>
       <c r="B165" s="5" t="s">
         <v>482</v>
       </c>
@@ -7269,11 +7316,11 @@
         <v>578</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="10"/>
       <c r="B166" s="5" t="s">
         <v>483</v>
       </c>
@@ -7284,11 +7331,11 @@
         <v>579</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="10"/>
       <c r="B167" s="5" t="s">
         <v>484</v>
       </c>
@@ -7299,11 +7346,11 @@
         <v>580</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="10"/>
       <c r="B168" s="5" t="s">
         <v>485</v>
       </c>
@@ -7314,11 +7361,11 @@
         <v>581</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="10"/>
       <c r="B169" s="5" t="s">
         <v>486</v>
       </c>
@@ -7329,11 +7376,11 @@
         <v>582</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10"/>
       <c r="B170" s="5" t="s">
         <v>487</v>
       </c>
@@ -7344,11 +7391,11 @@
         <v>583</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="10"/>
       <c r="B171" s="5" t="s">
         <v>488</v>
       </c>
@@ -7359,11 +7406,11 @@
         <v>584</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="10"/>
       <c r="B172" s="5" t="s">
         <v>489</v>
       </c>
@@ -7374,11 +7421,11 @@
         <v>585</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10"/>
       <c r="B173" s="5" t="s">
         <v>490</v>
       </c>
@@ -7389,11 +7436,11 @@
         <v>586</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="10"/>
       <c r="B174" s="5" t="s">
         <v>491</v>
       </c>
@@ -7404,11 +7451,11 @@
         <v>587</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10"/>
       <c r="B175" s="5" t="s">
         <v>492</v>
       </c>
@@ -7419,11 +7466,11 @@
         <v>588</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="10"/>
       <c r="B176" s="5" t="s">
         <v>493</v>
       </c>
@@ -7434,11 +7481,11 @@
         <v>589</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="10"/>
       <c r="B177" s="5" t="s">
         <v>494</v>
       </c>
@@ -7449,11 +7496,11 @@
         <v>590</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-    </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="10"/>
       <c r="B178" s="5" t="s">
         <v>495</v>
       </c>
@@ -7464,11 +7511,11 @@
         <v>591</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="10"/>
       <c r="B179" s="5" t="s">
         <v>496</v>
       </c>
@@ -7479,11 +7526,11 @@
         <v>592</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="10"/>
       <c r="B180" s="5" t="s">
         <v>497</v>
       </c>
@@ -7494,11 +7541,11 @@
         <v>593</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="10"/>
       <c r="B181" s="5" t="s">
         <v>498</v>
       </c>
@@ -7509,11 +7556,11 @@
         <v>594</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
       <c r="B182" s="5" t="s">
         <v>499</v>
       </c>
@@ -7524,11 +7571,11 @@
         <v>595</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="10"/>
       <c r="B183" s="5" t="s">
         <v>500</v>
       </c>
@@ -7539,11 +7586,11 @@
         <v>596</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-    </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="10"/>
       <c r="B184" s="5" t="s">
         <v>501</v>
       </c>
@@ -7554,11 +7601,11 @@
         <v>597</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-    </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="10"/>
       <c r="B185" s="5" t="s">
         <v>502</v>
       </c>
@@ -7569,11 +7616,11 @@
         <v>598</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-    </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="10">
         <v>44027</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -7590,10 +7637,12 @@
         <f>A186+1</f>
         <v>44028</v>
       </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
+      <c r="G186" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10"/>
       <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
@@ -7610,8 +7659,8 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="10"/>
       <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
@@ -7628,13 +7677,15 @@
       </c>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10"/>
       <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
       <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="E189" s="1"/>
       <c r="F189" s="4">
         <f>A186+7</f>
@@ -7642,8 +7693,8 @@
       </c>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="10"/>
       <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
@@ -7660,8 +7711,8 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7"/>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="10"/>
       <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
@@ -7672,11 +7723,11 @@
         <v>607</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10"/>
       <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
@@ -7685,11 +7736,11 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-    </row>
-    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="10"/>
       <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
@@ -7700,11 +7751,11 @@
         <v>611</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-    </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="10"/>
       <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
@@ -7715,11 +7766,11 @@
         <v>612</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-    </row>
-    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="10"/>
       <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
@@ -7730,11 +7781,11 @@
         <v>615</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-    </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
       <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
@@ -7745,11 +7796,11 @@
         <v>618</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-    </row>
-    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="10"/>
       <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
@@ -7760,11 +7811,11 @@
         <v>619</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-    </row>
-    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="10"/>
       <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
@@ -7775,11 +7826,11 @@
         <v>621</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-    </row>
-    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="10"/>
       <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
@@ -7790,11 +7841,11 @@
         <v>623</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-    </row>
-    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="10"/>
       <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
@@ -7805,11 +7856,11 @@
         <v>626</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="10"/>
       <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
@@ -7820,11 +7871,11 @@
         <v>627</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-    </row>
-    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="10"/>
       <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
@@ -7835,11 +7886,11 @@
         <v>629</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-    </row>
-    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
       <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
@@ -7850,11 +7901,11 @@
         <v>631</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-    </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="10"/>
       <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
@@ -7865,11 +7916,11 @@
         <v>633</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="10"/>
       <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
@@ -7880,11 +7931,11 @@
         <v>635</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-    </row>
-    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="10"/>
       <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
@@ -7895,11 +7946,11 @@
         <v>637</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-    </row>
-    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="10"/>
       <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
@@ -7910,11 +7961,11 @@
         <v>639</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-    </row>
-    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
       <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
@@ -7925,11 +7976,11 @@
         <v>641</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-    </row>
-    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="10"/>
       <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
@@ -7940,11 +7991,11 @@
         <v>643</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-    </row>
-    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="10"/>
       <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
@@ -7955,11 +8006,11 @@
         <v>645</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-    </row>
-    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="10"/>
       <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
@@ -7970,11 +8021,11 @@
         <v>648</v>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-    </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="10"/>
       <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
@@ -7985,11 +8036,11 @@
         <v>649</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-    </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="10"/>
       <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
@@ -8000,11 +8051,11 @@
         <v>651</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-    </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="7"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="10"/>
       <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
@@ -8015,11 +8066,11 @@
         <v>653</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-    </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="7"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="10"/>
       <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
@@ -8030,11 +8081,11 @@
         <v>655</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-    </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="7"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="10"/>
       <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
@@ -8045,11 +8096,11 @@
         <v>657</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-    </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="7"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="10"/>
       <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
@@ -8060,11 +8111,11 @@
         <v>659</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-    </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="10"/>
       <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
@@ -8075,11 +8126,11 @@
         <v>661</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="10"/>
       <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
@@ -8090,11 +8141,185 @@
         <v>663</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="10">
+        <v>44028</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="F220" s="4">
+        <f>A220+1</f>
+        <v>44029</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="10"/>
+      <c r="B221" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="F221" s="4">
+        <f>A220+2</f>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="10"/>
+      <c r="B222" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="F222" s="4">
+        <f>A220+4</f>
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="10"/>
+      <c r="B223" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="F223" s="4">
+        <f>A220+7</f>
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="10"/>
+      <c r="B224" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="F224" s="4">
+        <f>A220+15</f>
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="10"/>
+      <c r="B225" s="12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="10"/>
+      <c r="B226" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="10"/>
+      <c r="B227" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="10"/>
+      <c r="B228" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="10"/>
+      <c r="B229" s="12" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="10"/>
+    </row>
+    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="10"/>
+    </row>
+    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="10"/>
+    </row>
+    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
+    </row>
+    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="10"/>
+    </row>
+    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="10"/>
+    </row>
+    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="10"/>
+    </row>
+    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="10"/>
+    </row>
+    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="10"/>
+    </row>
+    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="10"/>
+    </row>
+    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="10"/>
+    </row>
+    <row r="241" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="10"/>
+    </row>
+    <row r="242" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="10"/>
+    </row>
+    <row r="243" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10"/>
+    </row>
+    <row r="244" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="10"/>
+    </row>
+    <row r="245" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="10"/>
+    </row>
+    <row r="246" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="10"/>
+    </row>
+    <row r="247" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="10"/>
+    </row>
+    <row r="248" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="10"/>
+    </row>
+    <row r="249" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="10"/>
+    </row>
+    <row r="250" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="10"/>
+    </row>
+    <row r="251" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="10"/>
+    </row>
+    <row r="252" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="10"/>
+    </row>
+    <row r="253" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="A220:A253"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A186:A219"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="G146:G153"/>
+    <mergeCell ref="F191:F219"/>
+    <mergeCell ref="F159:F185"/>
+    <mergeCell ref="G159:G185"/>
+    <mergeCell ref="G191:G219"/>
     <mergeCell ref="G105:G126"/>
     <mergeCell ref="G74:G99"/>
     <mergeCell ref="G132:G140"/>
@@ -8103,25 +8328,6 @@
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>
-    <mergeCell ref="A186:A219"/>
-    <mergeCell ref="F146:F153"/>
-    <mergeCell ref="G146:G153"/>
-    <mergeCell ref="F191:F219"/>
-    <mergeCell ref="F159:F185"/>
-    <mergeCell ref="G159:G185"/>
-    <mergeCell ref="G191:G219"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176BB64-807B-4D76-A03D-2FAC07068ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F753B-8859-4FE3-8D6F-DD84BB162BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="701">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3638,10 +3638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>声称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存根</t>
   </si>
   <si>
@@ -4214,6 +4210,89 @@
   <si>
     <t>did</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声称、要求权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满的</t>
+  </si>
+  <si>
+    <t>[fʊl]</t>
+  </si>
+  <si>
+    <t>午夜场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈmɪdnaɪt]</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>[wər</t>
+  </si>
+  <si>
+    <t>be 的过去时复数和第二人称单数形式</t>
+  </si>
+  <si>
+    <t>[wəz]</t>
+  </si>
+  <si>
+    <t>be的第一和第三人称单数过去式</t>
+  </si>
+  <si>
+    <t>去;走;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[went] </t>
+  </si>
+  <si>
+    <t>go的过去式</t>
+  </si>
+  <si>
+    <t>好极了</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [fænˈtæstɪk] </t>
+  </si>
+  <si>
+    <t>主要的</t>
+  </si>
+  <si>
+    <t>[meɪn]</t>
+  </si>
+  <si>
+    <t>演员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈæktər]</t>
+  </si>
+  <si>
+    <t>女演员</t>
+  </si>
+  <si>
+    <t>[ˈæktrəs]</t>
+  </si>
+  <si>
+    <t>做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do的过去式</t>
+  </si>
+  <si>
+    <t>[dɪd]</t>
   </si>
 </sst>
 </file>
@@ -4328,7 +4407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4340,6 +4419,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4349,13 +4434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4637,10 +4715,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4678,7 +4756,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4698,7 +4776,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4718,7 +4796,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -4738,7 +4816,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4749,7 +4827,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F5" s="4">
         <f>A2+7</f>
@@ -4758,7 +4836,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -4780,7 +4858,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -4791,11 +4869,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -4806,11 +4884,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4821,11 +4899,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4836,11 +4914,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -4851,11 +4929,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -4866,11 +4944,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -4881,11 +4959,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -4896,11 +4974,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -4911,11 +4989,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -4928,11 +5006,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -4943,11 +5021,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -4958,11 +5036,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -4973,11 +5051,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4997,7 +5075,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -5017,7 +5095,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -5037,7 +5115,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,7 +5133,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -5073,7 +5151,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -5084,11 +5162,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -5099,11 +5177,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -5114,11 +5192,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -5129,11 +5207,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -5144,11 +5222,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -5159,11 +5237,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -5174,11 +5252,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -5189,11 +5267,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -5204,11 +5282,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -5219,11 +5297,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -5234,11 +5312,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -5249,11 +5327,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -5264,11 +5342,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -5279,11 +5357,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -5294,11 +5372,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -5309,11 +5387,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -5324,11 +5402,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -5341,11 +5419,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -5356,11 +5434,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -5371,11 +5449,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+      <c r="A45" s="7">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -5395,7 +5473,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -5415,7 +5493,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -5435,7 +5513,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -5453,7 +5531,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -5471,7 +5549,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -5482,11 +5560,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -5497,11 +5575,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -5512,11 +5590,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -5527,11 +5605,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -5542,11 +5620,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -5557,11 +5635,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -5572,11 +5650,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -5587,11 +5665,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -5602,11 +5680,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -5617,11 +5695,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -5634,11 +5712,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -5649,11 +5727,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -5666,11 +5744,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -5681,11 +5759,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -5698,11 +5776,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -5713,11 +5791,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -5728,11 +5806,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -5743,11 +5821,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -5758,11 +5836,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
+      <c r="A69" s="7">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -5782,7 +5860,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -5802,7 +5880,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -5820,7 +5898,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -5838,7 +5916,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -5858,7 +5936,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -5869,11 +5947,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -5884,11 +5962,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -5901,11 +5979,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -5916,11 +5994,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -5931,11 +6009,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -5946,11 +6024,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -5961,11 +6039,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -5978,11 +6056,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -5993,11 +6071,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -6008,11 +6086,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -6023,11 +6101,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -6038,11 +6116,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -6053,11 +6131,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -6068,11 +6146,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -6083,11 +6161,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -6098,11 +6176,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -6113,11 +6191,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -6128,11 +6206,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -6143,11 +6221,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -6158,11 +6236,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -6173,11 +6251,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -6188,11 +6266,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -6203,11 +6281,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -6218,11 +6296,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -6235,11 +6313,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -6252,11 +6330,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="10">
+      <c r="A100" s="7">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -6280,7 +6358,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -6300,7 +6378,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -6318,7 +6396,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -6338,7 +6416,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -6356,7 +6434,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -6367,11 +6445,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -6382,11 +6460,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -6397,11 +6475,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -6412,11 +6490,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -6427,11 +6505,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -6442,11 +6520,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -6457,11 +6535,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -6472,11 +6550,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -6487,11 +6565,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -6502,11 +6580,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -6517,11 +6595,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -6532,11 +6610,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -6547,11 +6625,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -6562,11 +6640,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -6577,11 +6655,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -6592,11 +6670,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -6607,11 +6685,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -6622,11 +6700,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="10"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -6637,11 +6715,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="10"/>
+      <c r="A124" s="7"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -6652,11 +6730,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="10"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -6667,11 +6745,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="10"/>
+      <c r="A126" s="7"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -6682,11 +6760,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="10">
+      <c r="A127" s="7">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -6706,7 +6784,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10"/>
+      <c r="A128" s="7"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -6724,7 +6802,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="10"/>
+      <c r="A129" s="7"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -6742,7 +6820,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
+      <c r="A130" s="7"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -6757,10 +6835,12 @@
         <f>A127+7</f>
         <v>44027</v>
       </c>
-      <c r="G130" s="1"/>
+      <c r="G130" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="10"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -6778,7 +6858,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="10"/>
+      <c r="A132" s="7"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -6789,11 +6869,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="10"/>
+      <c r="A133" s="7"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -6804,11 +6884,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="10"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -6819,11 +6899,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="10"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -6834,11 +6914,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
+      <c r="A136" s="7"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -6849,11 +6929,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="10"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -6864,11 +6944,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="10"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -6879,11 +6959,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="10"/>
+      <c r="A139" s="7"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -6894,11 +6974,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="10"/>
+      <c r="A140" s="7"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -6909,11 +6989,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="10">
+      <c r="A141" s="7">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -6933,7 +7013,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
+      <c r="A142" s="7"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -6951,7 +7031,7 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="10"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -6969,7 +7049,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="10"/>
+      <c r="A144" s="7"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -6984,10 +7064,12 @@
         <f>A141+7</f>
         <v>44028</v>
       </c>
-      <c r="G144" s="1"/>
+      <c r="G144" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="10"/>
+      <c r="A145" s="7"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -7005,7 +7087,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="10"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -7016,11 +7098,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="10"/>
+      <c r="A147" s="7"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -7031,11 +7113,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="10"/>
+      <c r="A148" s="7"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -7046,11 +7128,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="10"/>
+      <c r="A149" s="7"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -7061,11 +7143,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="10"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -7076,11 +7158,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="10"/>
+      <c r="A151" s="7"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -7091,11 +7173,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="10"/>
+      <c r="A152" s="7"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -7106,11 +7188,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="10"/>
+      <c r="A153" s="7"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -7121,11 +7203,11 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="10">
+      <c r="A154" s="7">
         <v>44026</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -7145,7 +7227,7 @@
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="10"/>
+      <c r="A155" s="7"/>
       <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
@@ -7165,7 +7247,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="10"/>
+      <c r="A156" s="7"/>
       <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
@@ -7180,10 +7262,12 @@
         <f>A154+4</f>
         <v>44030</v>
       </c>
-      <c r="G156" s="1"/>
+      <c r="G156" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="10"/>
+      <c r="A157" s="7"/>
       <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
@@ -7201,7 +7285,7 @@
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="10"/>
+      <c r="A158" s="7"/>
       <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
@@ -7219,7 +7303,7 @@
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="10"/>
+      <c r="A159" s="7"/>
       <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
@@ -7230,11 +7314,11 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="10"/>
+      <c r="A160" s="7"/>
       <c r="B160" s="5" t="s">
         <v>477</v>
       </c>
@@ -7242,14 +7326,14 @@
         <v>543</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="10"/>
+      <c r="A161" s="7"/>
       <c r="B161" s="5" t="s">
         <v>478</v>
       </c>
@@ -7257,14 +7341,14 @@
         <v>544</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="10"/>
+      <c r="A162" s="7"/>
       <c r="B162" s="5" t="s">
         <v>479</v>
       </c>
@@ -7272,40 +7356,44 @@
         <v>545</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="10"/>
+      <c r="A163" s="7"/>
       <c r="B163" s="5" t="s">
         <v>480</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="10"/>
+      <c r="A164" s="7"/>
       <c r="B164" s="5" t="s">
         <v>481</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D164" s="1"/>
+      <c r="D164" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="10"/>
+      <c r="A165" s="7"/>
       <c r="B165" s="5" t="s">
         <v>482</v>
       </c>
@@ -7313,14 +7401,14 @@
         <v>548</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="10"/>
+      <c r="A166" s="7"/>
       <c r="B166" s="5" t="s">
         <v>483</v>
       </c>
@@ -7328,14 +7416,14 @@
         <v>549</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="10"/>
+      <c r="A167" s="7"/>
       <c r="B167" s="5" t="s">
         <v>484</v>
       </c>
@@ -7343,14 +7431,14 @@
         <v>550</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="10"/>
+      <c r="A168" s="7"/>
       <c r="B168" s="5" t="s">
         <v>485</v>
       </c>
@@ -7358,14 +7446,14 @@
         <v>551</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="10"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="5" t="s">
         <v>486</v>
       </c>
@@ -7373,14 +7461,14 @@
         <v>552</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="10"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="5" t="s">
         <v>487</v>
       </c>
@@ -7388,14 +7476,14 @@
         <v>553</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="10"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="5" t="s">
         <v>488</v>
       </c>
@@ -7403,14 +7491,14 @@
         <v>554</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10"/>
+      <c r="A172" s="7"/>
       <c r="B172" s="5" t="s">
         <v>489</v>
       </c>
@@ -7418,14 +7506,14 @@
         <v>555</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="10"/>
+      <c r="A173" s="7"/>
       <c r="B173" s="5" t="s">
         <v>490</v>
       </c>
@@ -7433,14 +7521,14 @@
         <v>556</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="10"/>
+      <c r="A174" s="7"/>
       <c r="B174" s="5" t="s">
         <v>491</v>
       </c>
@@ -7448,14 +7536,14 @@
         <v>557</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="10"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="5" t="s">
         <v>492</v>
       </c>
@@ -7463,14 +7551,14 @@
         <v>558</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="10"/>
+      <c r="A176" s="7"/>
       <c r="B176" s="5" t="s">
         <v>493</v>
       </c>
@@ -7478,14 +7566,14 @@
         <v>559</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="10"/>
+      <c r="A177" s="7"/>
       <c r="B177" s="5" t="s">
         <v>494</v>
       </c>
@@ -7493,14 +7581,14 @@
         <v>560</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="10"/>
+      <c r="A178" s="7"/>
       <c r="B178" s="5" t="s">
         <v>495</v>
       </c>
@@ -7508,14 +7596,14 @@
         <v>561</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="10"/>
+      <c r="A179" s="7"/>
       <c r="B179" s="5" t="s">
         <v>496</v>
       </c>
@@ -7523,14 +7611,14 @@
         <v>562</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="10"/>
+      <c r="A180" s="7"/>
       <c r="B180" s="5" t="s">
         <v>497</v>
       </c>
@@ -7538,14 +7626,14 @@
         <v>563</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="10"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="5" t="s">
         <v>498</v>
       </c>
@@ -7553,14 +7641,14 @@
         <v>564</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="10"/>
+      <c r="A182" s="7"/>
       <c r="B182" s="5" t="s">
         <v>499</v>
       </c>
@@ -7568,14 +7656,14 @@
         <v>565</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="10"/>
+      <c r="A183" s="7"/>
       <c r="B183" s="5" t="s">
         <v>500</v>
       </c>
@@ -7583,14 +7671,14 @@
         <v>566</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="10"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="5" t="s">
         <v>501</v>
       </c>
@@ -7598,14 +7686,14 @@
         <v>567</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="10"/>
+      <c r="A185" s="7"/>
       <c r="B185" s="5" t="s">
         <v>502</v>
       </c>
@@ -7613,24 +7701,24 @@
         <v>568</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="10">
+      <c r="A186" s="7">
         <v>44027</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>503</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="4">
@@ -7642,15 +7730,15 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="10"/>
+      <c r="A187" s="7"/>
       <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="4">
@@ -7660,15 +7748,15 @@
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="10"/>
+      <c r="A188" s="7"/>
       <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="4">
@@ -7678,13 +7766,13 @@
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="10"/>
+      <c r="A189" s="7"/>
       <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="4">
@@ -7694,15 +7782,15 @@
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="10"/>
+      <c r="A190" s="7"/>
       <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="4">
@@ -7712,607 +7800,634 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="10"/>
+      <c r="A191" s="7"/>
       <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="10"/>
+      <c r="A192" s="7"/>
       <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="10"/>
+      <c r="A193" s="7"/>
       <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="10"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="10"/>
+      <c r="A195" s="7"/>
       <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="10"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="10"/>
+      <c r="A197" s="7"/>
       <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="10"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="10"/>
+      <c r="A199" s="7"/>
       <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="10"/>
+      <c r="A200" s="7"/>
       <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="10"/>
+      <c r="A201" s="7"/>
       <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="10"/>
+      <c r="A202" s="7"/>
       <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="10"/>
+      <c r="A203" s="7"/>
       <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="10"/>
+      <c r="A204" s="7"/>
       <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="10"/>
+      <c r="A205" s="7"/>
       <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="10"/>
+      <c r="A206" s="7"/>
       <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="10"/>
+      <c r="A207" s="7"/>
       <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="10"/>
+      <c r="A208" s="7"/>
       <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="10"/>
+      <c r="A209" s="7"/>
       <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="10"/>
+      <c r="A210" s="7"/>
       <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="10"/>
+      <c r="A211" s="7"/>
       <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="10"/>
+      <c r="A212" s="7"/>
       <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="10"/>
+      <c r="A213" s="7"/>
       <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="10"/>
+      <c r="A214" s="7"/>
       <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="10"/>
+      <c r="A215" s="7"/>
       <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="10"/>
+      <c r="A216" s="7"/>
       <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="10"/>
+      <c r="A217" s="7"/>
       <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="10"/>
+      <c r="A218" s="7"/>
       <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="10"/>
+      <c r="A219" s="7"/>
       <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
     </row>
     <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="10">
+      <c r="A220" s="7">
         <v>44028</v>
       </c>
-      <c r="B220" s="12" t="s">
-        <v>666</v>
-      </c>
+      <c r="B220" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E220" s="1"/>
       <c r="F220" s="4">
         <f>A220+1</f>
         <v>44029</v>
       </c>
+      <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="10"/>
-      <c r="B221" s="12" t="s">
-        <v>667</v>
-      </c>
+      <c r="A221" s="7"/>
+      <c r="B221" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E221" s="1"/>
       <c r="F221" s="4">
         <f>A220+2</f>
         <v>44030</v>
       </c>
+      <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="10"/>
-      <c r="B222" s="12" t="s">
-        <v>668</v>
+      <c r="A222" s="7"/>
+      <c r="B222" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="F222" s="4">
         <f>A220+4</f>
         <v>44032</v>
       </c>
+      <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="10"/>
-      <c r="B223" s="12" t="s">
-        <v>669</v>
+      <c r="A223" s="7"/>
+      <c r="B223" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="F223" s="4">
         <f>A220+7</f>
         <v>44035</v>
       </c>
+      <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="10"/>
-      <c r="B224" s="12" t="s">
-        <v>670</v>
+      <c r="A224" s="7"/>
+      <c r="B224" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="F224" s="4">
         <f>A220+15</f>
         <v>44043</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="10"/>
-      <c r="B225" s="12" t="s">
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="7"/>
+      <c r="B225" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E225" s="1"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
+    </row>
+    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="7"/>
+      <c r="B226" s="5" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="10"/>
-      <c r="B226" s="12" t="s">
+      <c r="C226" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E226" s="1"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="7"/>
+      <c r="B227" s="5" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="10"/>
-      <c r="B227" s="12" t="s">
+      <c r="C227" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E227" s="1"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="7"/>
+      <c r="B228" s="5" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="10"/>
-      <c r="B228" s="12" t="s">
+      <c r="C228" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E228" s="1"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="7"/>
+      <c r="B229" s="5" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="10"/>
-      <c r="B229" s="12" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="10"/>
-    </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="10"/>
-    </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="10"/>
-    </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="10"/>
-    </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="10"/>
-    </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="10"/>
-    </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="10"/>
-    </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="10"/>
-    </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="10"/>
-    </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="10"/>
-    </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="10"/>
-    </row>
-    <row r="241" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="10"/>
-    </row>
-    <row r="242" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="10"/>
-    </row>
-    <row r="243" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="10"/>
-    </row>
-    <row r="244" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="10"/>
-    </row>
-    <row r="245" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="10"/>
-    </row>
-    <row r="246" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="10"/>
-    </row>
-    <row r="247" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="10"/>
-    </row>
-    <row r="248" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="10"/>
-    </row>
-    <row r="249" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="10"/>
-    </row>
-    <row r="250" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="10"/>
-    </row>
-    <row r="251" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="10"/>
-    </row>
-    <row r="252" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="10"/>
-    </row>
-    <row r="253" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="10"/>
+      <c r="C229" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A220:A253"/>
+  <mergeCells count="30">
+    <mergeCell ref="A220:A229"/>
+    <mergeCell ref="F225:F229"/>
+    <mergeCell ref="G225:G229"/>
+    <mergeCell ref="G132:G140"/>
+    <mergeCell ref="A69:A99"/>
+    <mergeCell ref="A154:A185"/>
+    <mergeCell ref="A141:A153"/>
+    <mergeCell ref="A127:A140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="F50:F68"/>
     <mergeCell ref="G50:G68"/>
     <mergeCell ref="A100:A126"/>
     <mergeCell ref="F74:F99"/>
     <mergeCell ref="F105:F126"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A186:A219"/>
     <mergeCell ref="F146:F153"/>
     <mergeCell ref="G146:G153"/>
@@ -8322,12 +8437,6 @@
     <mergeCell ref="G191:G219"/>
     <mergeCell ref="G105:G126"/>
     <mergeCell ref="G74:G99"/>
-    <mergeCell ref="G132:G140"/>
-    <mergeCell ref="A69:A99"/>
-    <mergeCell ref="A154:A185"/>
-    <mergeCell ref="A141:A153"/>
-    <mergeCell ref="A127:A140"/>
-    <mergeCell ref="F132:F140"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F753B-8859-4FE3-8D6F-DD84BB162BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F8E4CF-AF6E-4B33-ABE1-82ED9AEE9CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="757">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4293,13 +4293,364 @@
   </si>
   <si>
     <t>[dɪd]</t>
+  </si>
+  <si>
+    <t>interview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reputation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>annual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈɪntərvju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>面试，会谈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入</t>
+  </si>
+  <si>
+    <t>[dʒɔɪn]</t>
+  </si>
+  <si>
+    <t>公司;</t>
+  </si>
+  <si>
+    <t>[ˈkʌmpəni]</t>
+  </si>
+  <si>
+    <t>[ˌrepjuˈteɪʃn]</t>
+  </si>
+  <si>
+    <t>名誉;名声</t>
+  </si>
+  <si>
+    <t>[ɪkˈspɪriəns]</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>愿意;乐意;</t>
+  </si>
+  <si>
+    <t>willing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈwɪlɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <r>
+      <t>[lɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rn]</t>
+    </r>
+  </si>
+  <si>
+    <t>离开(工作职位、学校等);离任;离校;</t>
+  </si>
+  <si>
+    <t>[kwɪt]</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈfju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tʃər] </t>
+    </r>
+  </si>
+  <si>
+    <t>未来</t>
+  </si>
+  <si>
+    <t>[ˈkwestʃən]</t>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班;加班的时间;</t>
+  </si>
+  <si>
+    <t>[ˈoʊvərtaɪm]</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈhɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lədeɪ]</t>
+    </r>
+  </si>
+  <si>
+    <t>假日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈænjuəl]</t>
+  </si>
+  <si>
+    <t>每年的</t>
+  </si>
+  <si>
+    <t>假期;休假;v,离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v]</t>
+    </r>
+  </si>
+  <si>
+    <t>[ˈboʊnəs]</t>
+  </si>
+  <si>
+    <t>奖金</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈpend]</t>
+  </si>
+  <si>
+    <t>取决(于);有赖(于);</t>
+  </si>
+  <si>
+    <r>
+      <t>[hɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rd]</t>
+    </r>
+  </si>
+  <si>
+    <t>努力地;费力地</t>
+  </si>
+  <si>
+    <t>[meɪk ˈmʌni]</t>
+  </si>
+  <si>
+    <t>赚钱</t>
+  </si>
+  <si>
+    <t>[fer]</t>
+  </si>
+  <si>
+    <t>公平的</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4320,6 +4671,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4422,9 +4781,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4432,6 +4788,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4715,10 +5074,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="K181" sqref="K181"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="J239" sqref="J239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4726,7 +5085,7 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
     <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
@@ -4869,8 +5228,8 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
@@ -4884,8 +5243,8 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -4899,8 +5258,8 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
@@ -4914,8 +5273,8 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -4929,8 +5288,8 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -4944,8 +5303,8 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -4959,8 +5318,8 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -4974,8 +5333,8 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -4989,8 +5348,8 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -5006,8 +5365,8 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
@@ -5021,8 +5380,8 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -5036,8 +5395,8 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -5051,8 +5410,8 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
@@ -5162,8 +5521,8 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
@@ -5177,8 +5536,8 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
@@ -5192,8 +5551,8 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
@@ -5207,8 +5566,8 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
@@ -5222,8 +5581,8 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
@@ -5237,8 +5596,8 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
@@ -5252,8 +5611,8 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
@@ -5267,8 +5626,8 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
@@ -5282,8 +5641,8 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -5297,8 +5656,8 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
@@ -5312,8 +5671,8 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -5327,8 +5686,8 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
@@ -5342,8 +5701,8 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -5357,8 +5716,8 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
@@ -5372,8 +5731,8 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
@@ -5387,8 +5746,8 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
@@ -5402,8 +5761,8 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
@@ -5419,8 +5778,8 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
@@ -5434,8 +5793,8 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
@@ -5449,8 +5808,8 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
@@ -5560,8 +5919,8 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -5575,8 +5934,8 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
@@ -5590,8 +5949,8 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -5605,8 +5964,8 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
@@ -5620,8 +5979,8 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -5635,8 +5994,8 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
@@ -5650,8 +6009,8 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
@@ -5665,8 +6024,8 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
@@ -5680,8 +6039,8 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -5695,8 +6054,8 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
@@ -5712,8 +6071,8 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -5727,8 +6086,8 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
@@ -5744,8 +6103,8 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
@@ -5759,8 +6118,8 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
@@ -5776,8 +6135,8 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
@@ -5791,8 +6150,8 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
@@ -5806,8 +6165,8 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
@@ -5821,8 +6180,8 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -5836,8 +6195,8 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
@@ -5947,8 +6306,8 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
@@ -5962,8 +6321,8 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
@@ -5979,8 +6338,8 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
@@ -5994,8 +6353,8 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
@@ -6009,8 +6368,8 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
@@ -6024,8 +6383,8 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
@@ -6039,8 +6398,8 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
@@ -6056,8 +6415,8 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
@@ -6071,8 +6430,8 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -6086,8 +6445,8 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
@@ -6101,8 +6460,8 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
@@ -6116,8 +6475,8 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
@@ -6131,8 +6490,8 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
@@ -6146,8 +6505,8 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
@@ -6161,8 +6520,8 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
@@ -6176,8 +6535,8 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
@@ -6191,8 +6550,8 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
@@ -6206,8 +6565,8 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
@@ -6221,8 +6580,8 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
@@ -6236,8 +6595,8 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
@@ -6251,8 +6610,8 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
@@ -6266,8 +6625,8 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
@@ -6281,8 +6640,8 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
@@ -6296,8 +6655,8 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
@@ -6313,8 +6672,8 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
@@ -6330,8 +6689,8 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
@@ -6445,8 +6804,8 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
@@ -6460,8 +6819,8 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
@@ -6475,8 +6834,8 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
@@ -6490,8 +6849,8 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
@@ -6505,8 +6864,8 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
@@ -6520,8 +6879,8 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
@@ -6535,8 +6894,8 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
@@ -6550,8 +6909,8 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
@@ -6565,8 +6924,8 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
@@ -6580,8 +6939,8 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
@@ -6595,8 +6954,8 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
@@ -6610,8 +6969,8 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
@@ -6625,8 +6984,8 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
@@ -6640,8 +6999,8 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
@@ -6655,8 +7014,8 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
@@ -6670,8 +7029,8 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
@@ -6685,8 +7044,8 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
@@ -6700,8 +7059,8 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
@@ -6715,8 +7074,8 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
@@ -6730,8 +7089,8 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
@@ -6745,8 +7104,8 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
@@ -6760,8 +7119,8 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
@@ -6869,8 +7228,8 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
@@ -6884,8 +7243,8 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
@@ -6899,8 +7258,8 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
@@ -6914,8 +7273,8 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
@@ -6929,8 +7288,8 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
@@ -6944,8 +7303,8 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
@@ -6959,8 +7318,8 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
@@ -6974,8 +7333,8 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
@@ -6989,8 +7348,8 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
@@ -7098,8 +7457,8 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
@@ -7113,8 +7472,8 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
@@ -7128,8 +7487,8 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
@@ -7143,8 +7502,8 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
@@ -7158,8 +7517,8 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
@@ -7173,8 +7532,8 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
@@ -7188,8 +7547,8 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
@@ -7203,8 +7562,8 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
@@ -7314,8 +7673,8 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
@@ -7329,8 +7688,8 @@
         <v>675</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
@@ -7344,8 +7703,8 @@
         <v>575</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
@@ -7359,8 +7718,8 @@
         <v>576</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
@@ -7374,8 +7733,8 @@
         <v>676</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
@@ -7389,8 +7748,8 @@
         <v>677</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
@@ -7404,8 +7763,8 @@
         <v>577</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
@@ -7419,8 +7778,8 @@
         <v>578</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
@@ -7434,8 +7793,8 @@
         <v>579</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
@@ -7449,8 +7808,8 @@
         <v>580</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
@@ -7464,8 +7823,8 @@
         <v>581</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
@@ -7479,8 +7838,8 @@
         <v>582</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
@@ -7494,8 +7853,8 @@
         <v>583</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
@@ -7509,8 +7868,8 @@
         <v>584</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
@@ -7524,8 +7883,8 @@
         <v>585</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
@@ -7539,8 +7898,8 @@
         <v>586</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
@@ -7554,8 +7913,8 @@
         <v>587</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
@@ -7569,8 +7928,8 @@
         <v>588</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
@@ -7584,8 +7943,8 @@
         <v>589</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
@@ -7599,8 +7958,8 @@
         <v>590</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
@@ -7614,8 +7973,8 @@
         <v>591</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
@@ -7629,8 +7988,8 @@
         <v>592</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
@@ -7644,8 +8003,8 @@
         <v>593</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
@@ -7659,8 +8018,8 @@
         <v>594</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
@@ -7674,8 +8033,8 @@
         <v>595</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
@@ -7689,8 +8048,8 @@
         <v>596</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
@@ -7704,8 +8063,8 @@
         <v>597</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
@@ -7763,7 +8122,9 @@
         <f>A186+4</f>
         <v>44031</v>
       </c>
-      <c r="G188" s="1"/>
+      <c r="G188" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
@@ -7811,8 +8172,8 @@
         <v>606</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
@@ -7824,8 +8185,8 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
@@ -7839,8 +8200,8 @@
         <v>610</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
@@ -7854,8 +8215,8 @@
         <v>611</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
@@ -7869,8 +8230,8 @@
         <v>614</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
@@ -7884,8 +8245,8 @@
         <v>617</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
@@ -7899,8 +8260,8 @@
         <v>618</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
@@ -7914,8 +8275,8 @@
         <v>620</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
@@ -7929,8 +8290,8 @@
         <v>622</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
@@ -7944,8 +8305,8 @@
         <v>625</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
@@ -7959,8 +8320,8 @@
         <v>626</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
@@ -7974,8 +8335,8 @@
         <v>628</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
@@ -7989,8 +8350,8 @@
         <v>630</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
@@ -8004,8 +8365,8 @@
         <v>632</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
@@ -8019,8 +8380,8 @@
         <v>634</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
@@ -8034,8 +8395,8 @@
         <v>636</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
@@ -8049,8 +8410,8 @@
         <v>638</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
@@ -8064,8 +8425,8 @@
         <v>640</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
@@ -8079,8 +8440,8 @@
         <v>642</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
@@ -8094,8 +8455,8 @@
         <v>644</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
@@ -8109,8 +8470,8 @@
         <v>647</v>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
@@ -8124,8 +8485,8 @@
         <v>648</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
@@ -8139,8 +8500,8 @@
         <v>650</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
@@ -8154,8 +8515,8 @@
         <v>652</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
@@ -8169,8 +8530,8 @@
         <v>654</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
@@ -8184,8 +8545,8 @@
         <v>656</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
@@ -8199,8 +8560,8 @@
         <v>658</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
@@ -8214,8 +8575,8 @@
         <v>660</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
@@ -8229,8 +8590,8 @@
         <v>662</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
     </row>
     <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
@@ -8268,7 +8629,9 @@
         <f>A220+2</f>
         <v>44030</v>
       </c>
-      <c r="G221" s="1"/>
+      <c r="G221" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
@@ -8340,8 +8703,8 @@
         <v>690</v>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
     </row>
     <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
@@ -8355,8 +8718,8 @@
         <v>692</v>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
     </row>
     <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
@@ -8370,8 +8733,8 @@
         <v>694</v>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
     </row>
     <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
@@ -8385,8 +8748,8 @@
         <v>696</v>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
     </row>
     <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
@@ -8402,11 +8765,332 @@
       <c r="E229" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="7">
+        <v>44030</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E230" s="1"/>
+      <c r="F230" s="4">
+        <f>A230+1</f>
+        <v>44031</v>
+      </c>
+      <c r="G230" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="7"/>
+      <c r="B231" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E231" s="1"/>
+      <c r="F231" s="4">
+        <f>A230+2</f>
+        <v>44032</v>
+      </c>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="7"/>
+      <c r="B232" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E232" s="1"/>
+      <c r="F232" s="4">
+        <f>A230+4</f>
+        <v>44034</v>
+      </c>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="7"/>
+      <c r="B233" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E233" s="1"/>
+      <c r="F233" s="4">
+        <f>A230+7</f>
+        <v>44037</v>
+      </c>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="7"/>
+      <c r="B234" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E234" s="1"/>
+      <c r="F234" s="4">
+        <f>A230+15</f>
+        <v>44045</v>
+      </c>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="7"/>
+      <c r="B235" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E235" s="1"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="7"/>
+      <c r="B236" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E236" s="1"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="7"/>
+      <c r="B237" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E237" s="1"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="7"/>
+      <c r="B238" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E238" s="1"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="7"/>
+      <c r="B239" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E239" s="1"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="7"/>
+      <c r="B240" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E240" s="1"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="7"/>
+      <c r="B241" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E241" s="1"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="7"/>
+      <c r="B242" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E242" s="1"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="7"/>
+      <c r="B243" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E243" s="1"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="7"/>
+      <c r="B244" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E244" s="1"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="7"/>
+      <c r="B245" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E245" s="1"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="7"/>
+      <c r="B246" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E246" s="1"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="7"/>
+      <c r="B247" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E247" s="1"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="7"/>
+      <c r="B248" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E248" s="1"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
+    <mergeCell ref="A230:A248"/>
+    <mergeCell ref="F235:F248"/>
+    <mergeCell ref="G235:G248"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
+    <mergeCell ref="G105:G126"/>
+    <mergeCell ref="G74:G99"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A220:A229"/>
     <mergeCell ref="F225:F229"/>
     <mergeCell ref="G225:G229"/>
@@ -8416,18 +9100,6 @@
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A127:A140"/>
     <mergeCell ref="F132:F140"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
     <mergeCell ref="A186:A219"/>
     <mergeCell ref="F146:F153"/>
     <mergeCell ref="G146:G153"/>
@@ -8435,8 +9107,6 @@
     <mergeCell ref="F159:F185"/>
     <mergeCell ref="G159:G185"/>
     <mergeCell ref="G191:G219"/>
-    <mergeCell ref="G105:G126"/>
-    <mergeCell ref="G74:G99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F8E4CF-AF6E-4B33-ABE1-82ED9AEE9CBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6053D6F-0042-49E7-A71F-5EE4B13C6DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="766">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4644,6 +4644,42 @@
   </si>
   <si>
     <t>公平的</t>
+  </si>
+  <si>
+    <t>emergency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ambulance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas tank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4766,7 +4802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4793,6 +4829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5074,10 +5111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="J239" sqref="J239"/>
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9072,8 +9109,112 @@
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
     </row>
+    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="7">
+        <v>44031</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="7"/>
+      <c r="B250" s="12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="7"/>
+      <c r="B251" s="12" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="7"/>
+      <c r="B252" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="7"/>
+      <c r="B253" s="12" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="7"/>
+      <c r="B254" s="12" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="7"/>
+      <c r="B255" s="12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="7"/>
+      <c r="B256" s="12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="7"/>
+      <c r="B257" s="12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="7"/>
+    </row>
+    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="7"/>
+    </row>
+    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="7"/>
+    </row>
+    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="7"/>
+    </row>
+    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="7"/>
+    </row>
+    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="7"/>
+    </row>
+    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="7"/>
+    </row>
+    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="7"/>
+    </row>
+    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="A249:A267"/>
+    <mergeCell ref="G146:G153"/>
+    <mergeCell ref="F191:F219"/>
+    <mergeCell ref="F159:F185"/>
+    <mergeCell ref="G159:G185"/>
+    <mergeCell ref="G191:G219"/>
+    <mergeCell ref="A154:A185"/>
+    <mergeCell ref="A141:A153"/>
+    <mergeCell ref="A127:A140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="A186:A219"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A230:A248"/>
     <mergeCell ref="F235:F248"/>
     <mergeCell ref="G235:G248"/>
@@ -9085,28 +9226,11 @@
     <mergeCell ref="F105:F126"/>
     <mergeCell ref="G105:G126"/>
     <mergeCell ref="G74:G99"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A220:A229"/>
     <mergeCell ref="F225:F229"/>
     <mergeCell ref="G225:G229"/>
     <mergeCell ref="G132:G140"/>
     <mergeCell ref="A69:A99"/>
-    <mergeCell ref="A154:A185"/>
-    <mergeCell ref="A141:A153"/>
-    <mergeCell ref="A127:A140"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="A186:A219"/>
-    <mergeCell ref="F146:F153"/>
-    <mergeCell ref="G146:G153"/>
-    <mergeCell ref="F191:F219"/>
-    <mergeCell ref="F159:F185"/>
-    <mergeCell ref="G159:G185"/>
-    <mergeCell ref="G191:G219"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6053D6F-0042-49E7-A71F-5EE4B13C6DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582D6B97-9130-44F4-B229-1F4AD755C220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="796">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4680,6 +4680,114 @@
   <si>
     <t>explode</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rather not</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>film</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>guided practice</t>
+  </si>
+  <si>
+    <t>usually</t>
+  </si>
+  <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puts forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understanding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultural</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>recognize</t>
   </si>
 </sst>
 </file>
@@ -4814,6 +4922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4829,7 +4938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5111,10 +5219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="L236" sqref="L236"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="M226" sqref="M226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5152,7 +5260,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5172,7 +5280,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5192,7 +5300,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5212,7 +5320,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5232,7 +5340,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -5254,7 +5362,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5265,11 +5373,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -5280,11 +5388,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5295,11 +5403,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -5310,11 +5418,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -5325,11 +5433,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5340,11 +5448,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -5355,11 +5463,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -5370,11 +5478,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -5385,11 +5493,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -5402,11 +5510,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -5417,11 +5525,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -5432,11 +5540,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -5447,11 +5555,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5471,7 +5579,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -5491,7 +5599,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -5511,7 +5619,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -5529,7 +5637,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -5547,7 +5655,7 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -5558,11 +5666,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -5573,11 +5681,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -5588,11 +5696,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -5603,11 +5711,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -5618,11 +5726,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -5633,11 +5741,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -5648,11 +5756,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -5663,11 +5771,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -5678,11 +5786,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -5693,11 +5801,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -5708,11 +5816,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -5723,11 +5831,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -5738,11 +5846,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -5753,11 +5861,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -5768,11 +5876,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -5783,11 +5891,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -5798,11 +5906,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -5815,11 +5923,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -5830,11 +5938,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -5845,11 +5953,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -5869,7 +5977,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -5889,7 +5997,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -5909,7 +6017,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -5927,7 +6035,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -5945,7 +6053,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -5956,11 +6064,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -5971,11 +6079,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -5986,11 +6094,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -6001,11 +6109,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -6016,11 +6124,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -6031,11 +6139,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -6046,11 +6154,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -6061,11 +6169,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -6076,11 +6184,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -6091,11 +6199,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -6108,11 +6216,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -6123,11 +6231,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -6140,11 +6248,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -6155,11 +6263,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -6172,11 +6280,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -6187,11 +6295,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -6202,11 +6310,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -6217,11 +6325,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -6232,11 +6340,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6256,7 +6364,7 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -6276,7 +6384,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -6294,7 +6402,7 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -6312,7 +6420,7 @@
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -6332,7 +6440,7 @@
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -6343,11 +6451,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -6358,11 +6466,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -6375,11 +6483,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -6390,11 +6498,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -6405,11 +6513,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -6420,11 +6528,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -6435,11 +6543,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -6452,11 +6560,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -6467,11 +6575,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -6482,11 +6590,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -6497,11 +6605,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -6512,11 +6620,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -6527,11 +6635,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -6542,11 +6650,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -6557,11 +6665,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -6572,11 +6680,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="7"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -6587,11 +6695,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -6602,11 +6710,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -6617,11 +6725,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -6632,11 +6740,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -6647,11 +6755,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -6662,11 +6770,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -6677,11 +6785,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -6692,11 +6800,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -6709,11 +6817,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -6726,11 +6834,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -6754,7 +6862,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -6774,7 +6882,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -6792,7 +6900,7 @@
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -6812,7 +6920,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -6830,7 +6938,7 @@
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -6841,11 +6949,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -6856,11 +6964,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -6871,11 +6979,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="7"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -6886,11 +6994,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -6901,11 +7009,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -6916,11 +7024,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -6931,11 +7039,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -6946,11 +7054,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -6961,11 +7069,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -6976,11 +7084,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -6991,11 +7099,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="7"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -7006,11 +7114,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -7021,11 +7129,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="7"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -7036,11 +7144,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -7051,11 +7159,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="7"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -7066,11 +7174,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -7081,11 +7189,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="7"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -7096,11 +7204,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -7111,11 +7219,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="7"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -7126,11 +7234,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -7141,11 +7249,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="7"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -7156,11 +7264,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -7180,7 +7288,7 @@
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -7198,7 +7306,7 @@
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -7216,7 +7324,7 @@
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -7236,7 +7344,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -7254,7 +7362,7 @@
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="7"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -7265,11 +7373,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -7280,11 +7388,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
     </row>
     <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="7"/>
+      <c r="A134" s="8"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -7295,11 +7403,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
     </row>
     <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -7310,11 +7418,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="7"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -7325,11 +7433,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -7340,11 +7448,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="7"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -7355,11 +7463,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -7370,11 +7478,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -7385,11 +7493,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
+      <c r="A141" s="8">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -7409,7 +7517,7 @@
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -7427,7 +7535,7 @@
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -7445,7 +7553,7 @@
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -7465,7 +7573,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -7483,7 +7591,7 @@
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -7494,11 +7602,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -7509,11 +7617,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -7524,11 +7632,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -7539,11 +7647,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="7"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -7554,11 +7662,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -7569,11 +7677,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="7"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -7584,11 +7692,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -7599,11 +7707,11 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
+      <c r="A154" s="8">
         <v>44026</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -7623,7 +7731,7 @@
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7"/>
+      <c r="A155" s="8"/>
       <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
@@ -7643,7 +7751,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="7"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
@@ -7663,7 +7771,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
@@ -7681,7 +7789,7 @@
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="7"/>
+      <c r="A158" s="8"/>
       <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
@@ -7699,7 +7807,7 @@
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
@@ -7710,11 +7818,11 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="5" t="s">
         <v>477</v>
       </c>
@@ -7725,11 +7833,11 @@
         <v>675</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="5" t="s">
         <v>478</v>
       </c>
@@ -7740,11 +7848,11 @@
         <v>575</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7"/>
+      <c r="A162" s="8"/>
       <c r="B162" s="5" t="s">
         <v>479</v>
       </c>
@@ -7755,11 +7863,11 @@
         <v>576</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7"/>
+      <c r="A163" s="8"/>
       <c r="B163" s="5" t="s">
         <v>480</v>
       </c>
@@ -7770,11 +7878,11 @@
         <v>676</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="7"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="5" t="s">
         <v>481</v>
       </c>
@@ -7785,11 +7893,11 @@
         <v>677</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7"/>
+      <c r="A165" s="8"/>
       <c r="B165" s="5" t="s">
         <v>482</v>
       </c>
@@ -7800,11 +7908,11 @@
         <v>577</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="7"/>
+      <c r="A166" s="8"/>
       <c r="B166" s="5" t="s">
         <v>483</v>
       </c>
@@ -7815,11 +7923,11 @@
         <v>578</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7"/>
+      <c r="A167" s="8"/>
       <c r="B167" s="5" t="s">
         <v>484</v>
       </c>
@@ -7830,11 +7938,11 @@
         <v>579</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="7"/>
+      <c r="A168" s="8"/>
       <c r="B168" s="5" t="s">
         <v>485</v>
       </c>
@@ -7845,11 +7953,11 @@
         <v>580</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7"/>
+      <c r="A169" s="8"/>
       <c r="B169" s="5" t="s">
         <v>486</v>
       </c>
@@ -7860,11 +7968,11 @@
         <v>581</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="7"/>
+      <c r="A170" s="8"/>
       <c r="B170" s="5" t="s">
         <v>487</v>
       </c>
@@ -7875,11 +7983,11 @@
         <v>582</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="5" t="s">
         <v>488</v>
       </c>
@@ -7890,11 +7998,11 @@
         <v>583</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="7"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="5" t="s">
         <v>489</v>
       </c>
@@ -7905,11 +8013,11 @@
         <v>584</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7"/>
+      <c r="A173" s="8"/>
       <c r="B173" s="5" t="s">
         <v>490</v>
       </c>
@@ -7920,11 +8028,11 @@
         <v>585</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
+      <c r="A174" s="8"/>
       <c r="B174" s="5" t="s">
         <v>491</v>
       </c>
@@ -7935,11 +8043,11 @@
         <v>586</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7"/>
+      <c r="A175" s="8"/>
       <c r="B175" s="5" t="s">
         <v>492</v>
       </c>
@@ -7950,11 +8058,11 @@
         <v>587</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
+      <c r="A176" s="8"/>
       <c r="B176" s="5" t="s">
         <v>493</v>
       </c>
@@ -7965,11 +8073,11 @@
         <v>588</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
+      <c r="A177" s="8"/>
       <c r="B177" s="5" t="s">
         <v>494</v>
       </c>
@@ -7980,11 +8088,11 @@
         <v>589</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="5" t="s">
         <v>495</v>
       </c>
@@ -7995,11 +8103,11 @@
         <v>590</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="5" t="s">
         <v>496</v>
       </c>
@@ -8010,11 +8118,11 @@
         <v>591</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
+      <c r="A180" s="8"/>
       <c r="B180" s="5" t="s">
         <v>497</v>
       </c>
@@ -8025,11 +8133,11 @@
         <v>592</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="5" t="s">
         <v>498</v>
       </c>
@@ -8040,11 +8148,11 @@
         <v>593</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="7"/>
+      <c r="A182" s="8"/>
       <c r="B182" s="5" t="s">
         <v>499</v>
       </c>
@@ -8055,11 +8163,11 @@
         <v>594</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="7"/>
+      <c r="A183" s="8"/>
       <c r="B183" s="5" t="s">
         <v>500</v>
       </c>
@@ -8070,11 +8178,11 @@
         <v>595</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="7"/>
+      <c r="A184" s="8"/>
       <c r="B184" s="5" t="s">
         <v>501</v>
       </c>
@@ -8085,11 +8193,11 @@
         <v>596</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
+      <c r="A185" s="8"/>
       <c r="B185" s="5" t="s">
         <v>502</v>
       </c>
@@ -8100,11 +8208,11 @@
         <v>597</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="7">
+      <c r="A186" s="8">
         <v>44027</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -8126,7 +8234,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7"/>
+      <c r="A187" s="8"/>
       <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
@@ -8144,7 +8252,7 @@
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="7"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
@@ -8164,7 +8272,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7"/>
+      <c r="A189" s="8"/>
       <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
@@ -8180,7 +8288,7 @@
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
@@ -8198,7 +8306,7 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7"/>
+      <c r="A191" s="8"/>
       <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
@@ -8209,11 +8317,11 @@
         <v>606</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="7"/>
+      <c r="A192" s="8"/>
       <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
@@ -8222,11 +8330,11 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7"/>
+      <c r="A193" s="8"/>
       <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
@@ -8237,11 +8345,11 @@
         <v>610</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="7"/>
+      <c r="A194" s="8"/>
       <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
@@ -8252,11 +8360,11 @@
         <v>611</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="7"/>
+      <c r="A195" s="8"/>
       <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
@@ -8267,11 +8375,11 @@
         <v>614</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="7"/>
+      <c r="A196" s="8"/>
       <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
@@ -8282,11 +8390,11 @@
         <v>617</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="7"/>
+      <c r="A197" s="8"/>
       <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
@@ -8297,11 +8405,11 @@
         <v>618</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="7"/>
+      <c r="A198" s="8"/>
       <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
@@ -8312,11 +8420,11 @@
         <v>620</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="7"/>
+      <c r="A199" s="8"/>
       <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
@@ -8327,11 +8435,11 @@
         <v>622</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="7"/>
+      <c r="A200" s="8"/>
       <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
@@ -8342,11 +8450,11 @@
         <v>625</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="7"/>
+      <c r="A201" s="8"/>
       <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
@@ -8357,11 +8465,11 @@
         <v>626</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="7"/>
+      <c r="A202" s="8"/>
       <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
@@ -8372,11 +8480,11 @@
         <v>628</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="7"/>
+      <c r="A203" s="8"/>
       <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
@@ -8387,11 +8495,11 @@
         <v>630</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="9"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="7"/>
+      <c r="A204" s="8"/>
       <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
@@ -8402,11 +8510,11 @@
         <v>632</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="7"/>
+      <c r="A205" s="8"/>
       <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
@@ -8417,11 +8525,11 @@
         <v>634</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="9"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="7"/>
+      <c r="A206" s="8"/>
       <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
@@ -8432,11 +8540,11 @@
         <v>636</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="9"/>
-      <c r="G206" s="9"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="7"/>
+      <c r="A207" s="8"/>
       <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
@@ -8447,11 +8555,11 @@
         <v>638</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="7"/>
+      <c r="A208" s="8"/>
       <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
@@ -8462,11 +8570,11 @@
         <v>640</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="7"/>
+      <c r="A209" s="8"/>
       <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
@@ -8477,11 +8585,11 @@
         <v>642</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="7"/>
+      <c r="A210" s="8"/>
       <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
@@ -8492,11 +8600,11 @@
         <v>644</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7"/>
+      <c r="A211" s="8"/>
       <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
@@ -8507,11 +8615,11 @@
         <v>647</v>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="7"/>
+      <c r="A212" s="8"/>
       <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
@@ -8522,11 +8630,11 @@
         <v>648</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="7"/>
+      <c r="A213" s="8"/>
       <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
@@ -8537,11 +8645,11 @@
         <v>650</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="7"/>
+      <c r="A214" s="8"/>
       <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
@@ -8552,11 +8660,11 @@
         <v>652</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="7"/>
+      <c r="A215" s="8"/>
       <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
@@ -8567,11 +8675,11 @@
         <v>654</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="7"/>
+      <c r="A216" s="8"/>
       <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
@@ -8582,11 +8690,11 @@
         <v>656</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="7"/>
+      <c r="A217" s="8"/>
       <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
@@ -8597,11 +8705,11 @@
         <v>658</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="7"/>
+      <c r="A218" s="8"/>
       <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
@@ -8612,11 +8720,11 @@
         <v>660</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="7"/>
+      <c r="A219" s="8"/>
       <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
@@ -8627,11 +8735,11 @@
         <v>662</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
     </row>
     <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="7">
+      <c r="A220" s="8">
         <v>44028</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -8651,7 +8759,7 @@
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="7"/>
+      <c r="A221" s="8"/>
       <c r="B221" s="5" t="s">
         <v>666</v>
       </c>
@@ -8671,7 +8779,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="7"/>
+      <c r="A222" s="8"/>
       <c r="B222" s="5" t="s">
         <v>667</v>
       </c>
@@ -8691,7 +8799,7 @@
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="7"/>
+      <c r="A223" s="8"/>
       <c r="B223" s="5" t="s">
         <v>668</v>
       </c>
@@ -8709,7 +8817,7 @@
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="7"/>
+      <c r="A224" s="8"/>
       <c r="B224" s="5" t="s">
         <v>669</v>
       </c>
@@ -8729,7 +8837,7 @@
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="7"/>
+      <c r="A225" s="8"/>
       <c r="B225" s="5" t="s">
         <v>670</v>
       </c>
@@ -8740,11 +8848,11 @@
         <v>690</v>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="9"/>
     </row>
     <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="7"/>
+      <c r="A226" s="8"/>
       <c r="B226" s="5" t="s">
         <v>671</v>
       </c>
@@ -8755,11 +8863,11 @@
         <v>692</v>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
     </row>
     <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="7"/>
+      <c r="A227" s="8"/>
       <c r="B227" s="5" t="s">
         <v>672</v>
       </c>
@@ -8770,11 +8878,11 @@
         <v>694</v>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
     </row>
     <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="7"/>
+      <c r="A228" s="8"/>
       <c r="B228" s="5" t="s">
         <v>673</v>
       </c>
@@ -8785,11 +8893,11 @@
         <v>696</v>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="9"/>
-      <c r="G228" s="9"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
     </row>
     <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="7"/>
+      <c r="A229" s="8"/>
       <c r="B229" s="5" t="s">
         <v>674</v>
       </c>
@@ -8802,11 +8910,11 @@
       <c r="E229" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
     </row>
     <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="7">
+      <c r="A230" s="8">
         <v>44030</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -8828,7 +8936,7 @@
       </c>
     </row>
     <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="7"/>
+      <c r="A231" s="8"/>
       <c r="B231" s="5" t="s">
         <v>702</v>
       </c>
@@ -8846,7 +8954,7 @@
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="7"/>
+      <c r="A232" s="8"/>
       <c r="B232" s="5" t="s">
         <v>703</v>
       </c>
@@ -8864,7 +8972,7 @@
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="7"/>
+      <c r="A233" s="8"/>
       <c r="B233" s="5" t="s">
         <v>704</v>
       </c>
@@ -8882,7 +8990,7 @@
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="7"/>
+      <c r="A234" s="8"/>
       <c r="B234" s="5" t="s">
         <v>705</v>
       </c>
@@ -8900,7 +9008,7 @@
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="7"/>
+      <c r="A235" s="8"/>
       <c r="B235" s="5" t="s">
         <v>729</v>
       </c>
@@ -8911,11 +9019,11 @@
         <v>728</v>
       </c>
       <c r="E235" s="1"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
     </row>
     <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="7"/>
+      <c r="A236" s="8"/>
       <c r="B236" s="5" t="s">
         <v>706</v>
       </c>
@@ -8926,11 +9034,11 @@
         <v>731</v>
       </c>
       <c r="E236" s="1"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="7"/>
+      <c r="A237" s="8"/>
       <c r="B237" s="5" t="s">
         <v>707</v>
       </c>
@@ -8941,11 +9049,11 @@
         <v>733</v>
       </c>
       <c r="E237" s="1"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
     </row>
     <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="7"/>
+      <c r="A238" s="8"/>
       <c r="B238" s="5" t="s">
         <v>708</v>
       </c>
@@ -8956,11 +9064,11 @@
         <v>736</v>
       </c>
       <c r="E238" s="1"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
     </row>
     <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7"/>
+      <c r="A239" s="8"/>
       <c r="B239" s="5" t="s">
         <v>709</v>
       </c>
@@ -8971,11 +9079,11 @@
         <v>738</v>
       </c>
       <c r="E239" s="1"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="9"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
     </row>
     <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="7"/>
+      <c r="A240" s="8"/>
       <c r="B240" s="5" t="s">
         <v>710</v>
       </c>
@@ -8986,11 +9094,11 @@
         <v>739</v>
       </c>
       <c r="E240" s="1"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
     </row>
     <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="7"/>
+      <c r="A241" s="8"/>
       <c r="B241" s="5" t="s">
         <v>711</v>
       </c>
@@ -9001,11 +9109,11 @@
         <v>742</v>
       </c>
       <c r="E241" s="1"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
     </row>
     <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="7"/>
+      <c r="A242" s="8"/>
       <c r="B242" s="5" t="s">
         <v>712</v>
       </c>
@@ -9016,11 +9124,11 @@
         <v>744</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
     </row>
     <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="7"/>
+      <c r="A243" s="8"/>
       <c r="B243" s="5" t="s">
         <v>210</v>
       </c>
@@ -9031,11 +9139,11 @@
         <v>745</v>
       </c>
       <c r="E243" s="1"/>
-      <c r="F243" s="9"/>
-      <c r="G243" s="9"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
     </row>
     <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="7"/>
+      <c r="A244" s="8"/>
       <c r="B244" s="5" t="s">
         <v>713</v>
       </c>
@@ -9046,11 +9154,11 @@
         <v>748</v>
       </c>
       <c r="E244" s="1"/>
-      <c r="F244" s="9"/>
-      <c r="G244" s="9"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
     </row>
     <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="7"/>
+      <c r="A245" s="8"/>
       <c r="B245" s="5" t="s">
         <v>714</v>
       </c>
@@ -9061,11 +9169,11 @@
         <v>750</v>
       </c>
       <c r="E245" s="1"/>
-      <c r="F245" s="9"/>
-      <c r="G245" s="9"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
     </row>
     <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="7"/>
+      <c r="A246" s="8"/>
       <c r="B246" s="5" t="s">
         <v>715</v>
       </c>
@@ -9076,11 +9184,11 @@
         <v>752</v>
       </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="9"/>
-      <c r="G246" s="9"/>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10"/>
     </row>
     <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="7"/>
+      <c r="A247" s="8"/>
       <c r="B247" s="5" t="s">
         <v>716</v>
       </c>
@@ -9091,11 +9199,11 @@
         <v>754</v>
       </c>
       <c r="E247" s="1"/>
-      <c r="F247" s="9"/>
-      <c r="G247" s="9"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
     </row>
     <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="7"/>
+      <c r="A248" s="8"/>
       <c r="B248" s="5" t="s">
         <v>717</v>
       </c>
@@ -9106,97 +9214,294 @@
         <v>756</v>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
     </row>
     <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
+      <c r="A249" s="8">
         <v>44031</v>
       </c>
-      <c r="B249" s="12" t="s">
+      <c r="B249" s="7" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="7"/>
-      <c r="B250" s="12" t="s">
+      <c r="A250" s="8"/>
+      <c r="B250" s="7" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="7"/>
-      <c r="B251" s="12" t="s">
+      <c r="A251" s="8"/>
+      <c r="B251" s="7" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="7"/>
-      <c r="B252" s="12" t="s">
+      <c r="A252" s="8"/>
+      <c r="B252" s="7" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="7"/>
-      <c r="B253" s="12" t="s">
+      <c r="A253" s="8"/>
+      <c r="B253" s="7" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="7"/>
-      <c r="B254" s="12" t="s">
+      <c r="A254" s="8"/>
+      <c r="B254" s="7" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="7"/>
-      <c r="B255" s="12" t="s">
+      <c r="A255" s="8"/>
+      <c r="B255" s="7" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="7"/>
-      <c r="B256" s="12" t="s">
+      <c r="A256" s="8"/>
+      <c r="B256" s="7" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="7"/>
-      <c r="B257" s="12" t="s">
+      <c r="A257" s="8"/>
+      <c r="B257" s="7" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="7"/>
+      <c r="A258" s="8"/>
     </row>
     <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="7"/>
+      <c r="A259" s="8"/>
     </row>
     <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="7"/>
+      <c r="A260" s="8"/>
     </row>
     <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="7"/>
+      <c r="A261" s="8"/>
     </row>
     <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="7"/>
+      <c r="A262" s="8"/>
     </row>
     <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="7"/>
+      <c r="A263" s="8"/>
     </row>
     <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="7"/>
+      <c r="A264" s="8"/>
     </row>
     <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="7"/>
+      <c r="A265" s="8"/>
     </row>
     <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="7"/>
+      <c r="A266" s="8"/>
     </row>
     <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="7"/>
+      <c r="A267" s="8"/>
+    </row>
+    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="8">
+        <v>44033</v>
+      </c>
+      <c r="B268" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="8"/>
+      <c r="B269" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="8"/>
+      <c r="B270" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="8"/>
+      <c r="B271" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="8"/>
+      <c r="B272" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="8"/>
+      <c r="B273" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="8"/>
+      <c r="B274" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="8"/>
+      <c r="B275" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="8"/>
+      <c r="B276" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="8"/>
+      <c r="B277" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="8"/>
+      <c r="B278" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="8"/>
+      <c r="B279" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="8"/>
+      <c r="B280" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="8"/>
+      <c r="B281" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="8"/>
+      <c r="B282" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="8"/>
+      <c r="B283" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="8"/>
+      <c r="B284" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="8"/>
+      <c r="B285" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="8"/>
+      <c r="B286" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>795</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="G132:G140"/>
+    <mergeCell ref="A69:A99"/>
+    <mergeCell ref="A268:A286"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
+    <mergeCell ref="G105:G126"/>
+    <mergeCell ref="G74:G99"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A127:A140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="A186:A219"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
     <mergeCell ref="A249:A267"/>
     <mergeCell ref="G146:G153"/>
     <mergeCell ref="F191:F219"/>
@@ -9205,32 +9510,12 @@
     <mergeCell ref="G191:G219"/>
     <mergeCell ref="A154:A185"/>
     <mergeCell ref="A141:A153"/>
-    <mergeCell ref="A127:A140"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="A186:A219"/>
-    <mergeCell ref="F146:F153"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
     <mergeCell ref="A230:A248"/>
     <mergeCell ref="F235:F248"/>
     <mergeCell ref="G235:G248"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
-    <mergeCell ref="G105:G126"/>
-    <mergeCell ref="G74:G99"/>
     <mergeCell ref="A220:A229"/>
     <mergeCell ref="F225:F229"/>
     <mergeCell ref="G225:G229"/>
-    <mergeCell ref="G132:G140"/>
-    <mergeCell ref="A69:A99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582D6B97-9130-44F4-B229-1F4AD755C220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB6137-9D9F-4D5B-B0A1-87CC8B813FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="876">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4702,92 +4702,613 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puts forth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>involves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understanding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opinions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultural</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突发事件;紧急情况</t>
+  </si>
+  <si>
+    <r>
+      <t>[iˈmɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rdʒənsi]</t>
+    </r>
+  </si>
+  <si>
+    <t>救护车</t>
+  </si>
+  <si>
+    <t>[ˈæmbjələns]</t>
+  </si>
+  <si>
+    <t>卡车</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [trʌk]</t>
+  </si>
+  <si>
+    <t>[ˈfaɪər]</t>
+  </si>
+  <si>
+    <t>n.火;失火;火灾;v.射击;开火;开枪;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快的;迅速的;</t>
+  </si>
+  <si>
+    <t>[kwɪk]</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
+    <r>
+      <t>[bɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rn]</t>
+    </r>
+  </si>
+  <si>
+    <t>发生</t>
+  </si>
+  <si>
+    <t>[ˈhæpən]</t>
+  </si>
+  <si>
+    <t>储气罐</t>
+  </si>
+  <si>
+    <r>
+      <t>[ɡæs tæ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k]</t>
+    </r>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>[ɪkˈsploʊd]</t>
+  </si>
+  <si>
+    <t>最好不要</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈræðər nɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t]</t>
+    </r>
+  </si>
+  <si>
+    <t>激情的;暴力的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvaɪələnt]</t>
+  </si>
+  <si>
+    <t>之前</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [bɪˈfɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r]</t>
+    </r>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>[fɪlm]</t>
+  </si>
+  <si>
+    <t>餐厅</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈrestrɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt]</t>
+    </r>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>[ækˈtɪvəti</t>
+  </si>
+  <si>
     <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样品</t>
+  </si>
+  <si>
+    <t>[ˈsæmpl]</t>
+  </si>
+  <si>
+    <t>建议</t>
+  </si>
+  <si>
+    <t>[səˈdʒestʃən]</t>
   </si>
   <si>
     <t>place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.位置;地点;场所;v.(小心或有意)放置，安放;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[pleɪs]</t>
   </si>
   <si>
     <t>spend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+  </si>
+  <si>
+    <t>[spend]</t>
   </si>
   <si>
     <t>vacation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [veɪˈkeɪʃn]</t>
   </si>
   <si>
     <t>information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息;消息;情报;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌɪnfərˈmeɪʃn] </t>
   </si>
   <si>
     <t>direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.方向;方位;趋势;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dəˈrekʃn]</t>
   </si>
   <si>
     <t>guided practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导实践</t>
+  </si>
+  <si>
+    <t>[ˈɡaɪdɪd ˈpræktɪs]</t>
   </si>
   <si>
     <t>usually</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常</t>
+  </si>
+  <si>
+    <r>
+      <t>[ˈju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ʒuəli]</t>
+    </r>
   </si>
   <si>
     <t>challenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战</t>
+  </si>
+  <si>
+    <t>[ˈtʃælɪndʒ]</t>
   </si>
   <si>
     <t>represent</t>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>puts forth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>involves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>understanding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opinions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>consider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>context</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cultural</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.代表;作为…的代言人;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌreprɪˈzent]</t>
+  </si>
+  <si>
+    <t>[əˈplaɪd]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.应用的;实用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出</t>
+  </si>
+  <si>
+    <t>[pʊts]</t>
+  </si>
+  <si>
+    <t>[pəˈzɪʃn]</t>
+  </si>
+  <si>
+    <t>n.位置;地方;恰当位置;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.说明;说法;表白;表态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsteɪtmənt] </t>
+  </si>
+  <si>
+    <t>v.包含;需要;使成为必然部分(或结果);牵涉;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ɪnˈvɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lvz] </t>
+    </r>
+  </si>
+  <si>
+    <t>n.理解;领悟;了解;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˌʌndərˈstændɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[ɪˈvæljueɪtɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>v.估计;评价;评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.拥有，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[oʊn]</t>
+  </si>
+  <si>
+    <t>n.意见;想法;看法;(群体的)观点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈpɪnjənz]</t>
+  </si>
+  <si>
+    <t>考虑</t>
+  </si>
+  <si>
+    <t>[kənˈsɪdər]</t>
+  </si>
+  <si>
+    <t>n.(事情发生的)背景，环境，来龙去脉;上下文;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈkɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntekst]</t>
+    </r>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkʌltʃərəl]</t>
   </si>
   <si>
     <t>either</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何一个</t>
+  </si>
+  <si>
+    <t>[ˈaɪðər]</t>
   </si>
   <si>
     <t>recognize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.认识;认出;辨别出;承认</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈrekəɡnaɪz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4910,7 +5431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4922,7 +5443,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5219,24 +5739,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="M226" sqref="M226"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J222" sqref="J222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.25" customWidth="1"/>
-    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5259,8 +5779,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5279,8 +5799,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5299,8 +5819,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5319,8 +5839,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5339,8 +5859,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -5361,8 +5881,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5373,11 +5893,11 @@
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -5388,11 +5908,11 @@
         <v>28</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5403,11 +5923,11 @@
         <v>31</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -5418,11 +5938,11 @@
         <v>34</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -5433,11 +5953,11 @@
         <v>37</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5448,11 +5968,11 @@
         <v>40</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -5463,11 +5983,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -5478,11 +5998,11 @@
         <v>46</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -5493,11 +6013,11 @@
         <v>49</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -5510,11 +6030,11 @@
       <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -5525,11 +6045,11 @@
         <v>56</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -5540,11 +6060,11 @@
         <v>59</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -5555,11 +6075,11 @@
         <v>62</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5578,8 +6098,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -5598,8 +6118,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -5618,8 +6138,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -5636,8 +6156,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -5654,8 +6174,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -5666,11 +6186,11 @@
         <v>80</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -5681,11 +6201,11 @@
         <v>83</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -5696,11 +6216,11 @@
         <v>86</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -5711,11 +6231,11 @@
         <v>89</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -5726,11 +6246,11 @@
         <v>92</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -5741,11 +6261,11 @@
         <v>307</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -5756,11 +6276,11 @@
         <v>96</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -5771,11 +6291,11 @@
         <v>99</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -5786,11 +6306,11 @@
         <v>102</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -5801,11 +6321,11 @@
         <v>105</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -5816,11 +6336,11 @@
         <v>309</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -5831,11 +6351,11 @@
         <v>109</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -5846,11 +6366,11 @@
         <v>112</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -5861,11 +6381,11 @@
         <v>115</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -5876,11 +6396,11 @@
         <v>118</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -5891,11 +6411,11 @@
         <v>121</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -5906,11 +6426,11 @@
         <v>124</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -5923,11 +6443,11 @@
       <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -5938,11 +6458,11 @@
         <v>131</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -5953,11 +6473,11 @@
         <v>134</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -5976,8 +6496,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -5996,8 +6516,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -6016,8 +6536,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -6034,8 +6554,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -6052,8 +6572,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -6064,11 +6584,11 @@
         <v>152</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -6079,11 +6599,11 @@
         <v>155</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -6094,11 +6614,11 @@
         <v>158</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -6109,11 +6629,11 @@
         <v>161</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -6124,11 +6644,11 @@
         <v>164</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -6139,11 +6659,11 @@
         <v>167</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -6154,11 +6674,11 @@
         <v>170</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -6169,11 +6689,11 @@
         <v>173</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -6184,11 +6704,11 @@
         <v>176</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -6199,11 +6719,11 @@
         <v>179</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -6216,11 +6736,11 @@
       <c r="E60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -6231,11 +6751,11 @@
         <v>186</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -6248,11 +6768,11 @@
       <c r="E62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -6263,11 +6783,11 @@
         <v>193</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -6280,11 +6800,11 @@
       <c r="E64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -6295,11 +6815,11 @@
         <v>200</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -6310,11 +6830,11 @@
         <v>203</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -6325,11 +6845,11 @@
         <v>206</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -6340,11 +6860,11 @@
         <v>209</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6363,8 +6883,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -6383,8 +6903,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -6401,8 +6921,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -6419,8 +6939,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -6439,8 +6959,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -6451,11 +6971,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -6466,11 +6986,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -6483,11 +7003,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -6498,11 +7018,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -6513,11 +7033,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -6528,11 +7048,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -6543,11 +7063,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -6560,11 +7080,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -6575,11 +7095,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -6590,11 +7110,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -6605,11 +7125,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -6620,11 +7140,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -6635,11 +7155,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -6650,11 +7170,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -6665,11 +7185,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -6680,11 +7200,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -6695,11 +7215,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -6710,11 +7230,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -6725,11 +7245,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -6740,11 +7260,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -6755,11 +7275,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -6770,11 +7290,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -6785,11 +7305,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -6800,11 +7320,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -6817,11 +7337,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -6834,11 +7354,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -6861,8 +7381,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -6881,8 +7401,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -6899,8 +7419,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -6919,8 +7439,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -6937,8 +7457,8 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -6949,11 +7469,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -6964,11 +7484,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -6979,11 +7499,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -6994,11 +7514,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -7009,11 +7529,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -7024,11 +7544,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -7039,11 +7559,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -7054,11 +7574,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -7069,11 +7589,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -7084,11 +7604,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -7099,11 +7619,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -7114,11 +7634,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -7129,11 +7649,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -7144,11 +7664,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -7159,11 +7679,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -7174,11 +7694,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -7189,11 +7709,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -7204,11 +7724,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -7219,11 +7739,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -7234,11 +7754,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -7249,11 +7769,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -7264,11 +7784,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -7287,8 +7807,8 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -7305,8 +7825,8 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -7323,8 +7843,8 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -7343,8 +7863,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -7361,8 +7881,8 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8"/>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -7373,11 +7893,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -7388,11 +7908,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -7403,11 +7923,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -7418,11 +7938,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -7433,11 +7953,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -7448,11 +7968,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -7463,11 +7983,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -7478,11 +7998,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -7493,11 +8013,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="8">
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -7516,8 +8036,8 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8"/>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -7534,8 +8054,8 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="8"/>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -7552,8 +8072,8 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -7572,8 +8092,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="8"/>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -7590,8 +8110,8 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8"/>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -7602,11 +8122,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -7617,11 +8137,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -7632,11 +8152,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="8"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -7647,11 +8167,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -7662,11 +8182,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -7677,11 +8197,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -7692,11 +8212,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="8"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -7707,11 +8227,11 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
         <v>44026</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -7730,8 +8250,8 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="8"/>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
       <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
@@ -7750,8 +8270,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8"/>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
       <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
@@ -7770,8 +8290,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8"/>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
       <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
@@ -7788,8 +8308,8 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8"/>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
       <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
@@ -7806,8 +8326,8 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="8"/>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
       <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
@@ -7818,11 +8338,11 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
       <c r="B160" s="5" t="s">
         <v>477</v>
       </c>
@@ -7833,11 +8353,11 @@
         <v>675</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="8"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
       <c r="B161" s="5" t="s">
         <v>478</v>
       </c>
@@ -7848,11 +8368,11 @@
         <v>575</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
       <c r="B162" s="5" t="s">
         <v>479</v>
       </c>
@@ -7863,11 +8383,11 @@
         <v>576</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="8"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
       <c r="B163" s="5" t="s">
         <v>480</v>
       </c>
@@ -7878,11 +8398,11 @@
         <v>676</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
       <c r="B164" s="5" t="s">
         <v>481</v>
       </c>
@@ -7893,11 +8413,11 @@
         <v>677</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="8"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
       <c r="B165" s="5" t="s">
         <v>482</v>
       </c>
@@ -7908,11 +8428,11 @@
         <v>577</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
       <c r="B166" s="5" t="s">
         <v>483</v>
       </c>
@@ -7923,11 +8443,11 @@
         <v>578</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
       <c r="B167" s="5" t="s">
         <v>484</v>
       </c>
@@ -7938,11 +8458,11 @@
         <v>579</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
       <c r="B168" s="5" t="s">
         <v>485</v>
       </c>
@@ -7953,11 +8473,11 @@
         <v>580</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
       <c r="B169" s="5" t="s">
         <v>486</v>
       </c>
@@ -7968,11 +8488,11 @@
         <v>581</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="8"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
       <c r="B170" s="5" t="s">
         <v>487</v>
       </c>
@@ -7983,11 +8503,11 @@
         <v>582</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="8"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
       <c r="B171" s="5" t="s">
         <v>488</v>
       </c>
@@ -7998,11 +8518,11 @@
         <v>583</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="8"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
       <c r="B172" s="5" t="s">
         <v>489</v>
       </c>
@@ -8013,11 +8533,11 @@
         <v>584</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="8"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
       <c r="B173" s="5" t="s">
         <v>490</v>
       </c>
@@ -8028,11 +8548,11 @@
         <v>585</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
       <c r="B174" s="5" t="s">
         <v>491</v>
       </c>
@@ -8043,11 +8563,11 @@
         <v>586</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="8"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
       <c r="B175" s="5" t="s">
         <v>492</v>
       </c>
@@ -8058,11 +8578,11 @@
         <v>587</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="8"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
       <c r="B176" s="5" t="s">
         <v>493</v>
       </c>
@@ -8073,11 +8593,11 @@
         <v>588</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="8"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
       <c r="B177" s="5" t="s">
         <v>494</v>
       </c>
@@ -8088,11 +8608,11 @@
         <v>589</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-    </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="8"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
       <c r="B178" s="5" t="s">
         <v>495</v>
       </c>
@@ -8103,11 +8623,11 @@
         <v>590</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="8"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
       <c r="B179" s="5" t="s">
         <v>496</v>
       </c>
@@ -8118,11 +8638,11 @@
         <v>591</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="8"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
       <c r="B180" s="5" t="s">
         <v>497</v>
       </c>
@@ -8133,11 +8653,11 @@
         <v>592</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
       <c r="B181" s="5" t="s">
         <v>498</v>
       </c>
@@ -8148,11 +8668,11 @@
         <v>593</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="8"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
       <c r="B182" s="5" t="s">
         <v>499</v>
       </c>
@@ -8163,11 +8683,11 @@
         <v>594</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="8"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
       <c r="B183" s="5" t="s">
         <v>500</v>
       </c>
@@ -8178,11 +8698,11 @@
         <v>595</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-    </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
       <c r="B184" s="5" t="s">
         <v>501</v>
       </c>
@@ -8193,11 +8713,11 @@
         <v>596</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-    </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="8"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
       <c r="B185" s="5" t="s">
         <v>502</v>
       </c>
@@ -8208,11 +8728,11 @@
         <v>597</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-    </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
         <v>44027</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -8233,8 +8753,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="8"/>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
       <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
@@ -8251,8 +8771,8 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="8"/>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
       <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
@@ -8271,8 +8791,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="8"/>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
       <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
@@ -8287,8 +8807,8 @@
       </c>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8"/>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
       <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
@@ -8305,8 +8825,8 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="8"/>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
       <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
@@ -8317,11 +8837,11 @@
         <v>606</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="8"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
       <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
@@ -8330,11 +8850,11 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-    </row>
-    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
       <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
@@ -8345,11 +8865,11 @@
         <v>610</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-    </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
       <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
@@ -8360,11 +8880,11 @@
         <v>611</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-    </row>
-    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="8"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
       <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
@@ -8375,11 +8895,11 @@
         <v>614</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-    </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="8"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
       <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
@@ -8390,11 +8910,11 @@
         <v>617</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-    </row>
-    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="8"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
       <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
@@ -8405,11 +8925,11 @@
         <v>618</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-    </row>
-    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="8"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
       <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
@@ -8420,11 +8940,11 @@
         <v>620</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-    </row>
-    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="8"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7"/>
       <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
@@ -8435,11 +8955,11 @@
         <v>622</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-    </row>
-    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="8"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
       <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
@@ -8450,11 +8970,11 @@
         <v>625</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="8"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
       <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
@@ -8465,11 +8985,11 @@
         <v>626</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-    </row>
-    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="8"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
       <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
@@ -8480,11 +9000,11 @@
         <v>628</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
-    </row>
-    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="8"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
       <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
@@ -8495,11 +9015,11 @@
         <v>630</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-    </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="8"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
       <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
@@ -8510,11 +9030,11 @@
         <v>632</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="8"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
       <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
@@ -8525,11 +9045,11 @@
         <v>634</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-    </row>
-    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="8"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
       <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
@@ -8540,11 +9060,11 @@
         <v>636</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-    </row>
-    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="8"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
       <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
@@ -8555,11 +9075,11 @@
         <v>638</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-    </row>
-    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="8"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
       <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
@@ -8570,11 +9090,11 @@
         <v>640</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-    </row>
-    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="8"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
       <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
@@ -8585,11 +9105,11 @@
         <v>642</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-    </row>
-    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="8"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
       <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
@@ -8600,11 +9120,11 @@
         <v>644</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-    </row>
-    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="8"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
       <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
@@ -8615,11 +9135,11 @@
         <v>647</v>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-    </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="8"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
       <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
@@ -8630,11 +9150,11 @@
         <v>648</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-    </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="8"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
       <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
@@ -8645,11 +9165,11 @@
         <v>650</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-    </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="8"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
       <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
@@ -8660,11 +9180,11 @@
         <v>652</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-    </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="8"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
       <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
@@ -8675,11 +9195,11 @@
         <v>654</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-    </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="8"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
       <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
@@ -8690,11 +9210,11 @@
         <v>656</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-    </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="8"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
       <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
@@ -8705,11 +9225,11 @@
         <v>658</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-    </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="8"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
       <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
@@ -8720,11 +9240,11 @@
         <v>660</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="8"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
       <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
@@ -8735,11 +9255,11 @@
         <v>662</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
-    </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="8">
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7">
         <v>44028</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -8758,8 +9278,8 @@
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="8"/>
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
       <c r="B221" s="5" t="s">
         <v>666</v>
       </c>
@@ -8778,8 +9298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="8"/>
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
       <c r="B222" s="5" t="s">
         <v>667</v>
       </c>
@@ -8798,8 +9318,8 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="8"/>
+    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
       <c r="B223" s="5" t="s">
         <v>668</v>
       </c>
@@ -8816,8 +9336,8 @@
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="8"/>
+    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
       <c r="B224" s="5" t="s">
         <v>669</v>
       </c>
@@ -8836,8 +9356,8 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="8"/>
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
       <c r="B225" s="5" t="s">
         <v>670</v>
       </c>
@@ -8848,11 +9368,11 @@
         <v>690</v>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="9"/>
-      <c r="G225" s="9"/>
-    </row>
-    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="8"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+    </row>
+    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
       <c r="B226" s="5" t="s">
         <v>671</v>
       </c>
@@ -8863,11 +9383,11 @@
         <v>692</v>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-    </row>
-    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="8"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+    </row>
+    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
       <c r="B227" s="5" t="s">
         <v>672</v>
       </c>
@@ -8878,11 +9398,11 @@
         <v>694</v>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-    </row>
-    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="8"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
       <c r="B228" s="5" t="s">
         <v>673</v>
       </c>
@@ -8893,11 +9413,11 @@
         <v>696</v>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-    </row>
-    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="8"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
       <c r="B229" s="5" t="s">
         <v>674</v>
       </c>
@@ -8910,11 +9430,11 @@
       <c r="E229" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
-    </row>
-    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="8">
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
         <v>44030</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -8935,8 +9455,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="8"/>
+    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
       <c r="B231" s="5" t="s">
         <v>702</v>
       </c>
@@ -8953,8 +9473,8 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="8"/>
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
       <c r="B232" s="5" t="s">
         <v>703</v>
       </c>
@@ -8971,8 +9491,8 @@
       </c>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="8"/>
+    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
       <c r="B233" s="5" t="s">
         <v>704</v>
       </c>
@@ -8989,8 +9509,8 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="8"/>
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
       <c r="B234" s="5" t="s">
         <v>705</v>
       </c>
@@ -9007,8 +9527,8 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="8"/>
+    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
       <c r="B235" s="5" t="s">
         <v>729</v>
       </c>
@@ -9019,11 +9539,11 @@
         <v>728</v>
       </c>
       <c r="E235" s="1"/>
-      <c r="F235" s="9"/>
-      <c r="G235" s="9"/>
-    </row>
-    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
       <c r="B236" s="5" t="s">
         <v>706</v>
       </c>
@@ -9034,11 +9554,11 @@
         <v>731</v>
       </c>
       <c r="E236" s="1"/>
-      <c r="F236" s="10"/>
-      <c r="G236" s="10"/>
-    </row>
-    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="8"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
       <c r="B237" s="5" t="s">
         <v>707</v>
       </c>
@@ -9049,11 +9569,11 @@
         <v>733</v>
       </c>
       <c r="E237" s="1"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10"/>
-    </row>
-    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="8"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
       <c r="B238" s="5" t="s">
         <v>708</v>
       </c>
@@ -9064,11 +9584,11 @@
         <v>736</v>
       </c>
       <c r="E238" s="1"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10"/>
-    </row>
-    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="8"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
       <c r="B239" s="5" t="s">
         <v>709</v>
       </c>
@@ -9079,11 +9599,11 @@
         <v>738</v>
       </c>
       <c r="E239" s="1"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10"/>
-    </row>
-    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="8"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
       <c r="B240" s="5" t="s">
         <v>710</v>
       </c>
@@ -9094,11 +9614,11 @@
         <v>739</v>
       </c>
       <c r="E240" s="1"/>
-      <c r="F240" s="10"/>
-      <c r="G240" s="10"/>
-    </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="8"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
       <c r="B241" s="5" t="s">
         <v>711</v>
       </c>
@@ -9109,11 +9629,11 @@
         <v>742</v>
       </c>
       <c r="E241" s="1"/>
-      <c r="F241" s="10"/>
-      <c r="G241" s="10"/>
-    </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="8"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
       <c r="B242" s="5" t="s">
         <v>712</v>
       </c>
@@ -9124,11 +9644,11 @@
         <v>744</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-    </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="8"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
       <c r="B243" s="5" t="s">
         <v>210</v>
       </c>
@@ -9139,11 +9659,11 @@
         <v>745</v>
       </c>
       <c r="E243" s="1"/>
-      <c r="F243" s="10"/>
-      <c r="G243" s="10"/>
-    </row>
-    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="8"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
       <c r="B244" s="5" t="s">
         <v>713</v>
       </c>
@@ -9154,11 +9674,11 @@
         <v>748</v>
       </c>
       <c r="E244" s="1"/>
-      <c r="F244" s="10"/>
-      <c r="G244" s="10"/>
-    </row>
-    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="8"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
       <c r="B245" s="5" t="s">
         <v>714</v>
       </c>
@@ -9169,11 +9689,11 @@
         <v>750</v>
       </c>
       <c r="E245" s="1"/>
-      <c r="F245" s="10"/>
-      <c r="G245" s="10"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="8"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
       <c r="B246" s="5" t="s">
         <v>715</v>
       </c>
@@ -9184,11 +9704,11 @@
         <v>752</v>
       </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="10"/>
-      <c r="G246" s="10"/>
-    </row>
-    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="8"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
       <c r="B247" s="5" t="s">
         <v>716</v>
       </c>
@@ -9199,11 +9719,11 @@
         <v>754</v>
       </c>
       <c r="E247" s="1"/>
-      <c r="F247" s="10"/>
-      <c r="G247" s="10"/>
-    </row>
-    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="8"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
       <c r="B248" s="5" t="s">
         <v>717</v>
       </c>
@@ -9214,300 +9734,663 @@
         <v>756</v>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="11"/>
-      <c r="G248" s="11"/>
-    </row>
-    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="8">
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+    </row>
+    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="7">
         <v>44031</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="5" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="8"/>
-      <c r="B250" s="7" t="s">
+      <c r="C249" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E249" s="1"/>
+      <c r="F249" s="4">
+        <f>A249+1</f>
+        <v>44032</v>
+      </c>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
+      <c r="B250" s="5" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="8"/>
-      <c r="B251" s="7" t="s">
+      <c r="C250" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E250" s="1"/>
+      <c r="F250" s="4">
+        <f>A249+2</f>
+        <v>44033</v>
+      </c>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
+      <c r="B251" s="5" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="8"/>
-      <c r="B252" s="7" t="s">
+      <c r="C251" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E251" s="1"/>
+      <c r="F251" s="4">
+        <f>A249+4</f>
+        <v>44035</v>
+      </c>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
+      <c r="B252" s="5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="8"/>
-      <c r="B253" s="7" t="s">
+      <c r="C252" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E252" s="1"/>
+      <c r="F252" s="4">
+        <f>A249+7</f>
+        <v>44038</v>
+      </c>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
+      <c r="B253" s="5" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="8"/>
-      <c r="B254" s="7" t="s">
+      <c r="C253" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E253" s="1"/>
+      <c r="F253" s="4">
+        <f>A249+15</f>
+        <v>44046</v>
+      </c>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
+      <c r="B254" s="5" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="8"/>
-      <c r="B255" s="7" t="s">
+      <c r="C254" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E254" s="1"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
+      <c r="B255" s="5" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="8"/>
-      <c r="B256" s="7" t="s">
+      <c r="C255" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E255" s="1"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+    </row>
+    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="7"/>
+      <c r="B256" s="5" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="8"/>
-      <c r="B257" s="7" t="s">
+      <c r="C256" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E256" s="1"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+    </row>
+    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
+      <c r="B257" s="5" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="8"/>
-    </row>
-    <row r="259" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="8"/>
-    </row>
-    <row r="260" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="8"/>
-    </row>
-    <row r="261" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="8"/>
-    </row>
-    <row r="262" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="8"/>
-    </row>
-    <row r="263" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="8"/>
-    </row>
-    <row r="264" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="8"/>
-    </row>
-    <row r="265" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="8"/>
-    </row>
-    <row r="266" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="8"/>
-    </row>
-    <row r="267" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="8"/>
-    </row>
-    <row r="268" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="8">
+      <c r="C257" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E257" s="1"/>
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
         <v>44033</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B258" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="8"/>
-      <c r="B269" t="s">
+      <c r="C258" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E258" s="1"/>
+      <c r="F258" s="4">
+        <f>A258+1</f>
+        <v>44034</v>
+      </c>
+      <c r="G258" s="1"/>
+    </row>
+    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7"/>
+      <c r="B259" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="8"/>
-      <c r="B270" t="s">
+      <c r="C259" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E259" s="1"/>
+      <c r="F259" s="4">
+        <f>A258+2</f>
+        <v>44035</v>
+      </c>
+      <c r="G259" s="1"/>
+    </row>
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
+      <c r="B260" s="1" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="8"/>
-      <c r="B271" t="s">
+      <c r="C260" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E260" s="1"/>
+      <c r="F260" s="4">
+        <f>A258+4</f>
+        <v>44037</v>
+      </c>
+      <c r="G260" s="1"/>
+    </row>
+    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7"/>
+      <c r="B261" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="8"/>
-      <c r="B272" t="s">
+      <c r="C261" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E261" s="1"/>
+      <c r="F261" s="4">
+        <f>A258+7</f>
+        <v>44040</v>
+      </c>
+      <c r="G261" s="1"/>
+    </row>
+    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="7"/>
+      <c r="B262" s="1" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="8"/>
-      <c r="B273" t="s">
+      <c r="C262" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E262" s="1"/>
+      <c r="F262" s="4">
+        <f>A258+15</f>
+        <v>44048</v>
+      </c>
+      <c r="G262" s="1"/>
+    </row>
+    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="7"/>
+      <c r="B263" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E263" s="1"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+    </row>
+    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="7"/>
+      <c r="B264" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E264" s="1"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+    </row>
+    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
+      <c r="B265" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E265" s="1"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+    </row>
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="7"/>
+      <c r="B266" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E266" s="1"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+    </row>
+    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
+      <c r="B267" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E267" s="1"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+    </row>
+    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
+      <c r="B268" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E268" s="1"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+    </row>
+    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
+      <c r="B269" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E269" s="1"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+    </row>
+    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="7"/>
+      <c r="B270" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E270" s="1"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+    </row>
+    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
+      <c r="B271" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E271" s="1"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+    </row>
+    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
+      <c r="B272" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E272" s="1"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+    </row>
+    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
+      <c r="B273" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E273" s="1"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
+    </row>
+    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
+      <c r="B274" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E274" s="1"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+    </row>
+    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
+      <c r="B275" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E275" s="1"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+    </row>
+    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
+      <c r="B276" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E276" s="1"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
+      <c r="B277" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+    </row>
+    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
+      <c r="B278" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E278" s="1"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+    </row>
+    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
+      <c r="B279" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E279" s="1"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
+    </row>
+    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
+      <c r="B280" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E280" s="1"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+    </row>
+    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
+      <c r="B281" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E281" s="1"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+    </row>
+    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
+      <c r="B282" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E282" s="1"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
+      <c r="B283" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E283" s="1"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+    </row>
+    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
+      <c r="B284" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E284" s="1"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+    </row>
+    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="7"/>
+      <c r="B285" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="8"/>
-      <c r="B274" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="8"/>
-      <c r="B275" t="s">
+      <c r="C285" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E285" s="1"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+    </row>
+    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="7"/>
+      <c r="B286" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="8"/>
-      <c r="B276" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="8"/>
-      <c r="B277" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="8"/>
-      <c r="B278" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="8"/>
-      <c r="B279" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="8"/>
-      <c r="B280" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="8"/>
-      <c r="B281" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="8"/>
-      <c r="B282" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="8"/>
-      <c r="B283" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="8"/>
-      <c r="B284" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="8"/>
-      <c r="B285" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="8"/>
-      <c r="B286" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" t="s">
-        <v>795</v>
-      </c>
+      <c r="C286" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E286" s="1"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+    </row>
+    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="7"/>
+      <c r="B287" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E287" s="1"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+    </row>
+    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+      <c r="B288" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E288" s="1"/>
+      <c r="F288" s="10"/>
+      <c r="G288" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="39">
     <mergeCell ref="G132:G140"/>
     <mergeCell ref="A69:A99"/>
-    <mergeCell ref="A268:A286"/>
     <mergeCell ref="G50:G68"/>
     <mergeCell ref="A100:A126"/>
     <mergeCell ref="F74:F99"/>
     <mergeCell ref="F105:F126"/>
     <mergeCell ref="G105:G126"/>
     <mergeCell ref="G74:G99"/>
+    <mergeCell ref="A127:A140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
     <mergeCell ref="G7:G19"/>
     <mergeCell ref="A20:A44"/>
     <mergeCell ref="F25:F44"/>
     <mergeCell ref="G25:G44"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A127:A140"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="A186:A219"/>
-    <mergeCell ref="F146:F153"/>
     <mergeCell ref="F7:F19"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="A249:A267"/>
-    <mergeCell ref="G146:G153"/>
-    <mergeCell ref="F191:F219"/>
-    <mergeCell ref="F159:F185"/>
-    <mergeCell ref="G159:G185"/>
-    <mergeCell ref="G191:G219"/>
     <mergeCell ref="A154:A185"/>
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A230:A248"/>
@@ -9516,6 +10399,19 @@
     <mergeCell ref="A220:A229"/>
     <mergeCell ref="F225:F229"/>
     <mergeCell ref="G225:G229"/>
+    <mergeCell ref="G146:G153"/>
+    <mergeCell ref="F191:F219"/>
+    <mergeCell ref="F159:F185"/>
+    <mergeCell ref="G159:G185"/>
+    <mergeCell ref="G191:G219"/>
+    <mergeCell ref="A186:A219"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="A258:A288"/>
+    <mergeCell ref="G254:G257"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="F263:F288"/>
+    <mergeCell ref="G263:G288"/>
+    <mergeCell ref="A249:A257"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB6137-9D9F-4D5B-B0A1-87CC8B813FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C3A3A-B33C-4B70-83FA-3BADAA7528A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="933">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4714,10 +4714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>psition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>statement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5308,6 +5304,214 @@
   </si>
   <si>
     <t xml:space="preserve"> [ˈrekəɡnaɪz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>represented</t>
+  </si>
+  <si>
+    <t>recogine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>adj.足够的;充足的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.明确肯定;断言;声称;使用;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>支持;拥护;鼓励;资助;帮助;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facts</t>
+  </si>
+  <si>
+    <t>examples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例;例证;例子;典型;范例;</t>
+  </si>
+  <si>
+    <t>统计数字;统计资料;</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>integrated</t>
+  </si>
+  <si>
+    <t>n.权力;威权;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorities</t>
+  </si>
+  <si>
+    <t>结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致的;始终如一的</t>
+  </si>
+  <si>
+    <t>consistent</t>
+  </si>
+  <si>
+    <t>adv.仔细地;小心翼翼的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>evaluate</t>
+  </si>
+  <si>
+    <t>provides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(行为的)反复无常，易变;前后矛盾;不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconsistencies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.分析；（分析）研究；分解；解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assumptions</t>
+  </si>
+  <si>
+    <t>n.假定;假设;(责任的)承担;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.相信;认为真实;把(某事)当真;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>believe</t>
+  </si>
+  <si>
+    <t>directly</t>
+  </si>
+  <si>
+    <t>直接地</t>
+  </si>
+  <si>
+    <t>identify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.确认;认出;鉴定;找到;发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>adj.(法律上)有效的;(正式)认可的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.对…作出抉择;决定;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>adj.确实;确定;肯定;确信;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>credible</t>
+  </si>
+  <si>
+    <t>可信的</t>
+  </si>
+  <si>
+    <t>n.成就;成绩;功绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.紧密相关的;切题的;相关的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.合适的;恰当的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.讨论;谈论;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.知识;学问;学识;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5367,7 +5571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -5427,11 +5631,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5443,9 +5656,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5455,8 +5665,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5739,24 +5961,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G288"/>
+  <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J222" sqref="J222"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I247" sqref="I247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5779,8 +6001,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5799,8 +6021,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5819,8 +6041,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5839,8 +6061,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5859,8 +6081,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -5881,8 +6103,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -5896,8 +6118,8 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -5911,8 +6133,8 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5926,8 +6148,8 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -5941,8 +6163,8 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -5956,8 +6178,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -5971,8 +6193,8 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -5986,8 +6208,8 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -6001,8 +6223,8 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -6016,8 +6238,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -6033,8 +6255,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -6048,8 +6270,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -6063,8 +6285,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -6078,8 +6300,8 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6098,8 +6320,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -6118,8 +6340,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -6138,8 +6360,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -6156,8 +6378,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -6174,8 +6396,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -6189,8 +6411,8 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -6204,8 +6426,8 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -6219,8 +6441,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -6234,8 +6456,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -6249,8 +6471,8 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -6264,8 +6486,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -6279,8 +6501,8 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -6294,8 +6516,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -6309,8 +6531,8 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -6324,8 +6546,8 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -6339,8 +6561,8 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -6354,8 +6576,8 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -6369,8 +6591,8 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -6384,8 +6606,8 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -6399,8 +6621,8 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -6414,8 +6636,8 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -6429,8 +6651,8 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -6446,8 +6668,8 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -6461,8 +6683,8 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -6476,8 +6698,8 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -6496,8 +6718,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -6516,8 +6738,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -6536,8 +6758,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -6554,8 +6776,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -6572,8 +6794,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -6587,8 +6809,8 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -6602,8 +6824,8 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -6617,8 +6839,8 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -6632,8 +6854,8 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -6647,8 +6869,8 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -6662,8 +6884,8 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -6677,8 +6899,8 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -6692,8 +6914,8 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -6707,8 +6929,8 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -6722,8 +6944,8 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -6739,8 +6961,8 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -6754,8 +6976,8 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -6771,8 +6993,8 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -6786,8 +7008,8 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -6803,8 +7025,8 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -6818,8 +7040,8 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -6833,8 +7055,8 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -6848,8 +7070,8 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -6863,8 +7085,8 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6883,8 +7105,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -6903,8 +7125,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -6921,8 +7143,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -6939,8 +7161,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -6959,8 +7181,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -6971,11 +7193,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -6986,11 +7208,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -7003,11 +7225,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -7018,11 +7240,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -7033,11 +7255,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -7048,11 +7270,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -7063,11 +7285,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -7080,11 +7302,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -7095,11 +7317,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -7110,11 +7332,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -7125,11 +7347,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -7140,11 +7362,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -7155,11 +7377,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -7170,11 +7392,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -7185,11 +7407,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -7200,11 +7422,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -7215,11 +7437,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -7230,11 +7452,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -7245,11 +7467,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -7260,11 +7482,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -7275,11 +7497,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -7290,11 +7512,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -7305,11 +7527,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -7320,11 +7542,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -7337,11 +7559,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -7354,11 +7576,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7381,8 +7603,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -7401,8 +7623,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -7419,8 +7641,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -7439,8 +7661,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -7455,10 +7677,12 @@
         <f>A100+15</f>
         <v>44034</v>
       </c>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+      <c r="G104" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -7469,11 +7693,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -7484,11 +7708,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -7499,11 +7723,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -7514,11 +7738,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -7529,11 +7753,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -7544,11 +7768,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -7559,11 +7783,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -7574,11 +7798,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -7589,11 +7813,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -7604,11 +7828,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -7619,11 +7843,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -7634,11 +7858,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="10"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -7649,11 +7873,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="10"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -7664,11 +7888,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -7679,11 +7903,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -7694,11 +7918,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -7709,11 +7933,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="10"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -7724,11 +7948,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="10"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -7739,11 +7963,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -7754,11 +7978,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="10"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -7769,11 +7993,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -7784,11 +8008,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -7807,8 +8031,8 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -7825,8 +8049,8 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -7843,8 +8067,8 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -7863,8 +8087,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -7881,8 +8105,8 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -7893,11 +8117,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -7908,11 +8132,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -7923,11 +8147,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -7938,11 +8162,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -7953,11 +8177,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -7968,11 +8192,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="10"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -7983,11 +8207,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="10"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -7998,11 +8222,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -8013,11 +8237,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="10">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8036,8 +8260,8 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="10"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -8054,8 +8278,8 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="10"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -8072,8 +8296,8 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="10"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -8092,8 +8316,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -8110,8 +8334,8 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -8122,11 +8346,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="10"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -8137,11 +8361,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="10"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -8152,11 +8376,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="10"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -8167,11 +8391,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -8182,11 +8406,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="10"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -8197,11 +8421,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="10"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -8212,11 +8436,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -8227,11 +8451,11 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10">
         <v>44026</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8250,8 +8474,8 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
       <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
@@ -8270,8 +8494,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
       <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
@@ -8290,8 +8514,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
       <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
@@ -8308,8 +8532,8 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
       <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
@@ -8326,8 +8550,8 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="10"/>
       <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
@@ -8338,11 +8562,11 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="10"/>
       <c r="B160" s="5" t="s">
         <v>477</v>
       </c>
@@ -8353,11 +8577,11 @@
         <v>675</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
       <c r="B161" s="5" t="s">
         <v>478</v>
       </c>
@@ -8368,11 +8592,11 @@
         <v>575</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="10"/>
       <c r="B162" s="5" t="s">
         <v>479</v>
       </c>
@@ -8383,11 +8607,11 @@
         <v>576</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="10"/>
       <c r="B163" s="5" t="s">
         <v>480</v>
       </c>
@@ -8398,11 +8622,11 @@
         <v>676</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="10"/>
       <c r="B164" s="5" t="s">
         <v>481</v>
       </c>
@@ -8413,11 +8637,11 @@
         <v>677</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="10"/>
       <c r="B165" s="5" t="s">
         <v>482</v>
       </c>
@@ -8428,11 +8652,11 @@
         <v>577</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="10"/>
       <c r="B166" s="5" t="s">
         <v>483</v>
       </c>
@@ -8443,11 +8667,11 @@
         <v>578</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="10"/>
       <c r="B167" s="5" t="s">
         <v>484</v>
       </c>
@@ -8458,11 +8682,11 @@
         <v>579</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="10"/>
       <c r="B168" s="5" t="s">
         <v>485</v>
       </c>
@@ -8473,11 +8697,11 @@
         <v>580</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="10"/>
       <c r="B169" s="5" t="s">
         <v>486</v>
       </c>
@@ -8488,11 +8712,11 @@
         <v>581</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10"/>
       <c r="B170" s="5" t="s">
         <v>487</v>
       </c>
@@ -8503,11 +8727,11 @@
         <v>582</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="10"/>
       <c r="B171" s="5" t="s">
         <v>488</v>
       </c>
@@ -8518,11 +8742,11 @@
         <v>583</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="10"/>
       <c r="B172" s="5" t="s">
         <v>489</v>
       </c>
@@ -8533,11 +8757,11 @@
         <v>584</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10"/>
       <c r="B173" s="5" t="s">
         <v>490</v>
       </c>
@@ -8548,11 +8772,11 @@
         <v>585</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="10"/>
       <c r="B174" s="5" t="s">
         <v>491</v>
       </c>
@@ -8563,11 +8787,11 @@
         <v>586</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10"/>
       <c r="B175" s="5" t="s">
         <v>492</v>
       </c>
@@ -8578,11 +8802,11 @@
         <v>587</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="10"/>
       <c r="B176" s="5" t="s">
         <v>493</v>
       </c>
@@ -8593,11 +8817,11 @@
         <v>588</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="10"/>
       <c r="B177" s="5" t="s">
         <v>494</v>
       </c>
@@ -8608,11 +8832,11 @@
         <v>589</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-    </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="10"/>
       <c r="B178" s="5" t="s">
         <v>495</v>
       </c>
@@ -8623,11 +8847,11 @@
         <v>590</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="10"/>
       <c r="B179" s="5" t="s">
         <v>496</v>
       </c>
@@ -8638,11 +8862,11 @@
         <v>591</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="10"/>
       <c r="B180" s="5" t="s">
         <v>497</v>
       </c>
@@ -8653,11 +8877,11 @@
         <v>592</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="10"/>
       <c r="B181" s="5" t="s">
         <v>498</v>
       </c>
@@ -8668,11 +8892,11 @@
         <v>593</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
       <c r="B182" s="5" t="s">
         <v>499</v>
       </c>
@@ -8683,11 +8907,11 @@
         <v>594</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="10"/>
       <c r="B183" s="5" t="s">
         <v>500</v>
       </c>
@@ -8698,11 +8922,11 @@
         <v>595</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-    </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="10"/>
       <c r="B184" s="5" t="s">
         <v>501</v>
       </c>
@@ -8713,11 +8937,11 @@
         <v>596</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-    </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="10"/>
       <c r="B185" s="5" t="s">
         <v>502</v>
       </c>
@@ -8728,11 +8952,11 @@
         <v>597</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-    </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="10">
         <v>44027</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -8753,8 +8977,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10"/>
       <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
@@ -8771,8 +8995,8 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="10"/>
       <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
@@ -8791,8 +9015,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10"/>
       <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
@@ -8805,10 +9029,12 @@
         <f>A186+7</f>
         <v>44034</v>
       </c>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
+      <c r="G189" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="10"/>
       <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
@@ -8825,8 +9051,8 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7"/>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="10"/>
       <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
@@ -8837,11 +9063,11 @@
         <v>606</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10"/>
       <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
@@ -8850,11 +9076,11 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-    </row>
-    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="10"/>
       <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
@@ -8865,11 +9091,11 @@
         <v>610</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-    </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="10"/>
       <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
@@ -8880,11 +9106,11 @@
         <v>611</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-    </row>
-    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="10"/>
       <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
@@ -8895,11 +9121,11 @@
         <v>614</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-    </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
       <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
@@ -8910,11 +9136,11 @@
         <v>617</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-    </row>
-    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="10"/>
       <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
@@ -8925,11 +9151,11 @@
         <v>618</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-    </row>
-    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="10"/>
       <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
@@ -8940,11 +9166,11 @@
         <v>620</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-    </row>
-    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="10"/>
       <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
@@ -8955,11 +9181,11 @@
         <v>622</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-    </row>
-    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="10"/>
       <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
@@ -8970,11 +9196,11 @@
         <v>625</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="10"/>
       <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
@@ -8985,11 +9211,11 @@
         <v>626</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
-    </row>
-    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="10"/>
       <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
@@ -9000,11 +9226,11 @@
         <v>628</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
-    </row>
-    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
       <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
@@ -9015,11 +9241,11 @@
         <v>630</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="9"/>
-    </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="10"/>
       <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
@@ -9030,11 +9256,11 @@
         <v>632</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="10"/>
       <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
@@ -9045,11 +9271,11 @@
         <v>634</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="9"/>
-    </row>
-    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="10"/>
       <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
@@ -9060,11 +9286,11 @@
         <v>636</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="9"/>
-      <c r="G206" s="9"/>
-    </row>
-    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="10"/>
       <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
@@ -9075,11 +9301,11 @@
         <v>638</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9"/>
-    </row>
-    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
       <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
@@ -9090,11 +9316,11 @@
         <v>640</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9"/>
-    </row>
-    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="10"/>
       <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
@@ -9105,11 +9331,11 @@
         <v>642</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9"/>
-    </row>
-    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="10"/>
       <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
@@ -9120,11 +9346,11 @@
         <v>644</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
-    </row>
-    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="10"/>
       <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
@@ -9135,11 +9361,11 @@
         <v>647</v>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
-    </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="10"/>
       <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
@@ -9150,11 +9376,11 @@
         <v>648</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
-    </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="10"/>
       <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
@@ -9165,11 +9391,11 @@
         <v>650</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
-    </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="7"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="10"/>
       <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
@@ -9180,11 +9406,11 @@
         <v>652</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-    </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="7"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="10"/>
       <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
@@ -9195,11 +9421,11 @@
         <v>654</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-    </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="7"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="10"/>
       <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
@@ -9210,11 +9436,11 @@
         <v>656</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-    </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="7"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="10"/>
       <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
@@ -9225,11 +9451,11 @@
         <v>658</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
-    </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="10"/>
       <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
@@ -9240,11 +9466,11 @@
         <v>660</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="10"/>
       <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
@@ -9255,11 +9481,11 @@
         <v>662</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-    </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="10">
         <v>44028</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -9278,8 +9504,8 @@
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="7"/>
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="10"/>
       <c r="B221" s="5" t="s">
         <v>666</v>
       </c>
@@ -9298,8 +9524,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="7"/>
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="10"/>
       <c r="B222" s="5" t="s">
         <v>667</v>
       </c>
@@ -9318,8 +9544,8 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="10"/>
       <c r="B223" s="5" t="s">
         <v>668</v>
       </c>
@@ -9336,8 +9562,8 @@
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="10"/>
       <c r="B224" s="5" t="s">
         <v>669</v>
       </c>
@@ -9356,8 +9582,8 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="10"/>
       <c r="B225" s="5" t="s">
         <v>670</v>
       </c>
@@ -9368,11 +9594,11 @@
         <v>690</v>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-    </row>
-    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="10"/>
       <c r="B226" s="5" t="s">
         <v>671</v>
       </c>
@@ -9383,11 +9609,11 @@
         <v>692</v>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9"/>
-    </row>
-    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="7"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="10"/>
       <c r="B227" s="5" t="s">
         <v>672</v>
       </c>
@@ -9398,11 +9624,11 @@
         <v>694</v>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9"/>
-    </row>
-    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="10"/>
       <c r="B228" s="5" t="s">
         <v>673</v>
       </c>
@@ -9413,11 +9639,11 @@
         <v>696</v>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="9"/>
-      <c r="G228" s="9"/>
-    </row>
-    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="7"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="10"/>
       <c r="B229" s="5" t="s">
         <v>674</v>
       </c>
@@ -9430,11 +9656,11 @@
       <c r="E229" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-    </row>
-    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="7">
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+    </row>
+    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="10">
         <v>44030</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -9455,8 +9681,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
+    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="10"/>
       <c r="B231" s="5" t="s">
         <v>702</v>
       </c>
@@ -9473,8 +9699,8 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="7"/>
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="10"/>
       <c r="B232" s="5" t="s">
         <v>703</v>
       </c>
@@ -9489,10 +9715,12 @@
         <f>A230+4</f>
         <v>44034</v>
       </c>
-      <c r="G232" s="1"/>
-    </row>
-    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="7"/>
+      <c r="G232" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
       <c r="B233" s="5" t="s">
         <v>704</v>
       </c>
@@ -9509,8 +9737,8 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="7"/>
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="10"/>
       <c r="B234" s="5" t="s">
         <v>705</v>
       </c>
@@ -9527,8 +9755,8 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="7"/>
+    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="10"/>
       <c r="B235" s="5" t="s">
         <v>729</v>
       </c>
@@ -9539,11 +9767,11 @@
         <v>728</v>
       </c>
       <c r="E235" s="1"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-    </row>
-    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="10"/>
       <c r="B236" s="5" t="s">
         <v>706</v>
       </c>
@@ -9554,11 +9782,11 @@
         <v>731</v>
       </c>
       <c r="E236" s="1"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
-    </row>
-    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="10"/>
       <c r="B237" s="5" t="s">
         <v>707</v>
       </c>
@@ -9569,11 +9797,11 @@
         <v>733</v>
       </c>
       <c r="E237" s="1"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-    </row>
-    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="7"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="10"/>
       <c r="B238" s="5" t="s">
         <v>708</v>
       </c>
@@ -9584,11 +9812,11 @@
         <v>736</v>
       </c>
       <c r="E238" s="1"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-    </row>
-    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="7"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="10"/>
       <c r="B239" s="5" t="s">
         <v>709</v>
       </c>
@@ -9599,11 +9827,11 @@
         <v>738</v>
       </c>
       <c r="E239" s="1"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="9"/>
-    </row>
-    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="7"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="10"/>
       <c r="B240" s="5" t="s">
         <v>710</v>
       </c>
@@ -9614,11 +9842,11 @@
         <v>739</v>
       </c>
       <c r="E240" s="1"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9"/>
-    </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="7"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="10"/>
       <c r="B241" s="5" t="s">
         <v>711</v>
       </c>
@@ -9629,11 +9857,11 @@
         <v>742</v>
       </c>
       <c r="E241" s="1"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-    </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="7"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="10"/>
       <c r="B242" s="5" t="s">
         <v>712</v>
       </c>
@@ -9644,11 +9872,11 @@
         <v>744</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9"/>
-    </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="7"/>
+      <c r="F242" s="8"/>
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10"/>
       <c r="B243" s="5" t="s">
         <v>210</v>
       </c>
@@ -9659,11 +9887,11 @@
         <v>745</v>
       </c>
       <c r="E243" s="1"/>
-      <c r="F243" s="9"/>
-      <c r="G243" s="9"/>
-    </row>
-    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="7"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="10"/>
       <c r="B244" s="5" t="s">
         <v>713</v>
       </c>
@@ -9674,11 +9902,11 @@
         <v>748</v>
       </c>
       <c r="E244" s="1"/>
-      <c r="F244" s="9"/>
-      <c r="G244" s="9"/>
-    </row>
-    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="7"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="10"/>
       <c r="B245" s="5" t="s">
         <v>714</v>
       </c>
@@ -9689,11 +9917,11 @@
         <v>750</v>
       </c>
       <c r="E245" s="1"/>
-      <c r="F245" s="9"/>
-      <c r="G245" s="9"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="7"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="10"/>
       <c r="B246" s="5" t="s">
         <v>715</v>
       </c>
@@ -9704,11 +9932,11 @@
         <v>752</v>
       </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="9"/>
-      <c r="G246" s="9"/>
-    </row>
-    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="7"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="10"/>
       <c r="B247" s="5" t="s">
         <v>716</v>
       </c>
@@ -9719,11 +9947,11 @@
         <v>754</v>
       </c>
       <c r="E247" s="1"/>
-      <c r="F247" s="9"/>
-      <c r="G247" s="9"/>
-    </row>
-    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="7"/>
+      <c r="F247" s="8"/>
+      <c r="G247" s="8"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="10"/>
       <c r="B248" s="5" t="s">
         <v>717</v>
       </c>
@@ -9734,21 +9962,21 @@
         <v>756</v>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-    </row>
-    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="7">
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+    </row>
+    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="10">
         <v>44031</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>757</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E249" s="1"/>
       <c r="F249" s="4">
@@ -9757,16 +9985,16 @@
       </c>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="7"/>
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="10"/>
       <c r="B250" s="5" t="s">
         <v>758</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E250" s="1"/>
       <c r="F250" s="4">
@@ -9775,16 +10003,16 @@
       </c>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="7"/>
+    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="10"/>
       <c r="B251" s="5" t="s">
         <v>759</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E251" s="1"/>
       <c r="F251" s="4">
@@ -9793,16 +10021,16 @@
       </c>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="7"/>
+    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="10"/>
       <c r="B252" s="5" t="s">
         <v>760</v>
       </c>
       <c r="C252" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="E252" s="1"/>
       <c r="F252" s="4">
@@ -9811,16 +10039,16 @@
       </c>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="7"/>
+    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="10"/>
       <c r="B253" s="5" t="s">
         <v>761</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E253" s="1"/>
       <c r="F253" s="4">
@@ -9829,96 +10057,98 @@
       </c>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="7"/>
+    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="10"/>
       <c r="B254" s="5" t="s">
         <v>762</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E254" s="1"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-    </row>
-    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="10"/>
       <c r="B255" s="5" t="s">
         <v>763</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E255" s="1"/>
-      <c r="F255" s="9"/>
-      <c r="G255" s="9"/>
-    </row>
-    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="7"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+    </row>
+    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="10"/>
       <c r="B256" s="5" t="s">
         <v>764</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E256" s="1"/>
-      <c r="F256" s="9"/>
-      <c r="G256" s="9"/>
-    </row>
-    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="7"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+    </row>
+    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="10"/>
       <c r="B257" s="5" t="s">
         <v>765</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E257" s="1"/>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
-    </row>
-    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+    </row>
+    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="10">
         <v>44033</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>766</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E258" s="1"/>
       <c r="F258" s="4">
         <f>A258+1</f>
         <v>44034</v>
       </c>
-      <c r="G258" s="1"/>
-    </row>
-    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="7"/>
+      <c r="G258" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="10"/>
       <c r="B259" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="4">
@@ -9927,16 +10157,16 @@
       </c>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="7"/>
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="10"/>
       <c r="B260" s="1" t="s">
         <v>768</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E260" s="1"/>
       <c r="F260" s="4">
@@ -9945,16 +10175,16 @@
       </c>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="7"/>
+    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="10"/>
       <c r="B261" s="1" t="s">
         <v>769</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" s="4">
@@ -9963,16 +10193,16 @@
       </c>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="7"/>
+    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="10"/>
       <c r="B262" s="1" t="s">
         <v>770</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E262" s="1"/>
       <c r="F262" s="4">
@@ -9981,416 +10211,700 @@
       </c>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="7"/>
+    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="10"/>
       <c r="B263" s="1" t="s">
         <v>771</v>
       </c>
       <c r="C263" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E263" s="1"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="10"/>
+      <c r="B264" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E263" s="1"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-    </row>
-    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="7"/>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="E264" s="1"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
-    </row>
-    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="7"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+    </row>
+    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="10"/>
       <c r="B265" s="1" t="s">
         <v>772</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E265" s="1"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+    </row>
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="10"/>
+      <c r="B266" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="E265" s="1"/>
-      <c r="F265" s="9"/>
-      <c r="G265" s="9"/>
-    </row>
-    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="7"/>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="E266" s="1"/>
+      <c r="F266" s="8"/>
+      <c r="G266" s="8"/>
+    </row>
+    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="10"/>
+      <c r="B267" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E266" s="1"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
-    </row>
-    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="7"/>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="E267" s="1"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+    </row>
+    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="10"/>
+      <c r="B268" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="E267" s="1"/>
-      <c r="F267" s="9"/>
-      <c r="G267" s="9"/>
-    </row>
-    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="7"/>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="E268" s="1"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
+    </row>
+    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="10"/>
+      <c r="B269" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="E268" s="1"/>
-      <c r="F268" s="9"/>
-      <c r="G268" s="9"/>
-    </row>
-    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="7"/>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="E269" s="1"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+    </row>
+    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="10"/>
+      <c r="B270" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="E269" s="1"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
-    </row>
-    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="7"/>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="E270" s="1"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
+    </row>
+    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="10"/>
+      <c r="B271" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="E270" s="1"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="9"/>
-    </row>
-    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="7"/>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="E271" s="1"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="8"/>
+    </row>
+    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="10"/>
+      <c r="B272" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="E271" s="1"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="9"/>
-    </row>
-    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="7"/>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="E272" s="1"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
+    </row>
+    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="10"/>
+      <c r="B273" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="E272" s="1"/>
-      <c r="F272" s="9"/>
-      <c r="G272" s="9"/>
-    </row>
-    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="7"/>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="E273" s="1"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+    </row>
+    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="10"/>
+      <c r="B274" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="E273" s="1"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
-    </row>
-    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="7"/>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="E274" s="1"/>
+      <c r="F274" s="8"/>
+      <c r="G274" s="8"/>
+    </row>
+    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="10"/>
+      <c r="B275" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="E274" s="1"/>
-      <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
-    </row>
-    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="7"/>
-      <c r="B275" s="1" t="s">
+      <c r="D275" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>847</v>
-      </c>
       <c r="E275" s="1"/>
-      <c r="F275" s="9"/>
-      <c r="G275" s="9"/>
-    </row>
-    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="7"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+    </row>
+    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="10"/>
       <c r="B276" s="1" t="s">
         <v>773</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E276" s="1"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="10"/>
+      <c r="B277" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="E276" s="1"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9"/>
-    </row>
-    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="7"/>
-      <c r="B277" s="1" t="s">
+      <c r="D277" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E277" s="1"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+    </row>
+    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="10"/>
+      <c r="B278" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D277" s="1" t="s">
+      <c r="C278" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="E277" s="1"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9"/>
-    </row>
-    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="7"/>
-      <c r="B278" s="1" t="s">
+      <c r="E278" s="1"/>
+      <c r="F278" s="8"/>
+      <c r="G278" s="8"/>
+    </row>
+    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="10"/>
+      <c r="B279" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C279" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D279" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="E278" s="1"/>
-      <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
-    </row>
-    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="7"/>
-      <c r="B279" s="1" t="s">
+      <c r="E279" s="1"/>
+      <c r="F279" s="8"/>
+      <c r="G279" s="8"/>
+    </row>
+    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="10"/>
+      <c r="B280" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C280" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="E279" s="1"/>
-      <c r="F279" s="9"/>
-      <c r="G279" s="9"/>
-    </row>
-    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="7"/>
-      <c r="B280" s="1" t="s">
+      <c r="E280" s="1"/>
+      <c r="F280" s="8"/>
+      <c r="G280" s="8"/>
+    </row>
+    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="10"/>
+      <c r="B281" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="E280" s="1"/>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
-    </row>
-    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
-      <c r="B281" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>859</v>
-      </c>
       <c r="E281" s="1"/>
-      <c r="F281" s="9"/>
-      <c r="G281" s="9"/>
-    </row>
-    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+    </row>
+    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="10"/>
       <c r="B282" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C282" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E282" s="1"/>
+      <c r="F282" s="8"/>
+      <c r="G282" s="8"/>
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="10"/>
+      <c r="B283" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="E282" s="1"/>
-      <c r="F282" s="9"/>
-      <c r="G282" s="9"/>
-    </row>
-    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
-      <c r="B283" s="1" t="s">
+      <c r="E283" s="1"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+    </row>
+    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="10"/>
+      <c r="B284" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C284" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E283" s="1"/>
-      <c r="F283" s="9"/>
-      <c r="G283" s="9"/>
-    </row>
-    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7"/>
-      <c r="B284" s="1" t="s">
+      <c r="E284" s="1"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+    </row>
+    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="10"/>
+      <c r="B285" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C285" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="E284" s="1"/>
-      <c r="F284" s="9"/>
-      <c r="G284" s="9"/>
-    </row>
-    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="7"/>
-      <c r="B285" s="1" t="s">
+      <c r="E285" s="1"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+    </row>
+    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="10"/>
+      <c r="B286" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C286" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E285" s="1"/>
-      <c r="F285" s="9"/>
-      <c r="G285" s="9"/>
-    </row>
-    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="7"/>
-      <c r="B286" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="C286" s="1" t="s">
+      <c r="E286" s="1"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+    </row>
+    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="10"/>
+      <c r="B287" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="E286" s="1"/>
-      <c r="F286" s="9"/>
-      <c r="G286" s="9"/>
-    </row>
-    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7"/>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="E287" s="1"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+    </row>
+    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="10"/>
+      <c r="B288" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="E287" s="1"/>
-      <c r="F287" s="9"/>
-      <c r="G287" s="9"/>
-    </row>
-    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="7"/>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D288" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="E288" s="1"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+    </row>
+    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="13">
+        <v>44034</v>
+      </c>
+      <c r="B289" t="s">
+        <v>878</v>
+      </c>
+      <c r="F289" s="4">
+        <f>A289+1</f>
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="14"/>
+      <c r="B290" t="s">
         <v>875</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="E288" s="1"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
+      <c r="F290" s="4">
+        <f>A289+2</f>
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="14"/>
+      <c r="B291" t="s">
+        <v>876</v>
+      </c>
+      <c r="F291" s="4">
+        <f>A289+4</f>
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="14"/>
+      <c r="B292" t="s">
+        <v>877</v>
+      </c>
+      <c r="F292" s="4">
+        <f>A289+7</f>
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="14"/>
+      <c r="B293" t="s">
+        <v>882</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F293" s="4">
+        <f>A289+15</f>
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="14"/>
+      <c r="B294" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="14"/>
+      <c r="B295" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="14"/>
+      <c r="B296" t="s">
+        <v>880</v>
+      </c>
+      <c r="C296" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="14"/>
+      <c r="B297" t="s">
+        <v>884</v>
+      </c>
+      <c r="D297" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="14"/>
+      <c r="B298" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="14"/>
+      <c r="B299" t="s">
+        <v>887</v>
+      </c>
+      <c r="D299" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="14"/>
+      <c r="B300" t="s">
+        <v>890</v>
+      </c>
+      <c r="D300" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="14"/>
+      <c r="B301" t="s">
+        <v>891</v>
+      </c>
+      <c r="D301" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="14"/>
+      <c r="B302" t="s">
+        <v>893</v>
+      </c>
+      <c r="D302" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="14"/>
+      <c r="B303" t="s">
+        <v>896</v>
+      </c>
+      <c r="D303" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="14"/>
+      <c r="B304" t="s">
+        <v>898</v>
+      </c>
+      <c r="D304" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="14"/>
+      <c r="B305" t="s">
+        <v>899</v>
+      </c>
+      <c r="D305" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="14"/>
+      <c r="B306" t="s">
+        <v>902</v>
+      </c>
+      <c r="D306" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="14"/>
+      <c r="B307" t="s">
+        <v>904</v>
+      </c>
+      <c r="D307" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="14"/>
+      <c r="B308" t="s">
+        <v>905</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="14"/>
+      <c r="B309" t="s">
+        <v>908</v>
+      </c>
+      <c r="D309" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="14"/>
+      <c r="B310" t="s">
+        <v>909</v>
+      </c>
+      <c r="D310" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="14"/>
+      <c r="B311" t="s">
+        <v>911</v>
+      </c>
+      <c r="D311" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="14"/>
+      <c r="B312" t="s">
+        <v>913</v>
+      </c>
+      <c r="D312" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="14"/>
+      <c r="B313" t="s">
+        <v>916</v>
+      </c>
+      <c r="D313" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="14"/>
+      <c r="B314" t="s">
+        <v>918</v>
+      </c>
+      <c r="D314" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="14"/>
+      <c r="B315" t="s">
+        <v>919</v>
+      </c>
+      <c r="D315" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="14"/>
+      <c r="B316" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="14"/>
+      <c r="B317" t="s">
+        <v>930</v>
+      </c>
+      <c r="D317" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="14"/>
+      <c r="B318" t="s">
+        <v>929</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="14"/>
+      <c r="B319" t="s">
+        <v>928</v>
+      </c>
+      <c r="D319" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="14"/>
+      <c r="B320" t="s">
+        <v>927</v>
+      </c>
+      <c r="D320" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="14"/>
+      <c r="B321" t="s">
+        <v>926</v>
+      </c>
+      <c r="D321" t="s">
+        <v>925</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="G132:G140"/>
-    <mergeCell ref="A69:A99"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
-    <mergeCell ref="G105:G126"/>
-    <mergeCell ref="G74:G99"/>
-    <mergeCell ref="A127:A140"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="F7:F19"/>
+  <mergeCells count="40">
+    <mergeCell ref="A289:A321"/>
+    <mergeCell ref="A258:A288"/>
+    <mergeCell ref="G254:G257"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="F263:F288"/>
+    <mergeCell ref="G263:G288"/>
+    <mergeCell ref="A249:A257"/>
     <mergeCell ref="A154:A185"/>
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A230:A248"/>
@@ -10406,12 +10920,24 @@
     <mergeCell ref="G191:G219"/>
     <mergeCell ref="A186:A219"/>
     <mergeCell ref="F146:F153"/>
-    <mergeCell ref="A258:A288"/>
-    <mergeCell ref="G254:G257"/>
-    <mergeCell ref="F254:F257"/>
-    <mergeCell ref="F263:F288"/>
-    <mergeCell ref="G263:G288"/>
-    <mergeCell ref="A249:A257"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="F7:F19"/>
+    <mergeCell ref="G132:G140"/>
+    <mergeCell ref="A69:A99"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
+    <mergeCell ref="G105:G126"/>
+    <mergeCell ref="G74:G99"/>
+    <mergeCell ref="A127:A140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4C3A3A-B33C-4B70-83FA-3BADAA7528A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75315463-D5DE-4B58-976E-4A1FA39A8BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="974">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5307,211 +5307,603 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.足够的;充足的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.明确肯定;断言;声称;使用;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持;拥护;鼓励;资助;帮助;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.权力;威权;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致的;始终如一的</t>
+  </si>
+  <si>
+    <t>adv.仔细地;小心翼翼的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>provides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(行为的)反复无常，易变;前后矛盾;不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconsistencies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.分析；（分析）研究；分解；解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analyze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.假定;假设;(责任的)承担;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.相信;认为真实;把(某事)当真;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.确认;认出;鉴定;找到;发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.(法律上)有效的;(正式)认可的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.对…作出抉择;决定;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.确实;确定;肯定;确信;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.成就;成绩;功绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.紧密相关的;切题的;相关的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.合适的;恰当的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.讨论;谈论;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.知识;学问;学识;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discussing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relevant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈkaʊnt] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>between</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[bɪˈtwi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
   </si>
   <si>
     <t>represented</t>
-  </si>
-  <si>
-    <t>recogine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˌreprɪˈzentɪd]</t>
+  </si>
+  <si>
+    <t>v.代表;作为…的代言人;维护…的利益;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈsɜrʃənz]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.收受;接受(建议、邀请等);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əkˈsept]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.提供;供应;给予;规定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[prəˈvaɪdz] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sufficient</t>
-  </si>
-  <si>
-    <t>adj.足够的;充足的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.明确肯定;断言;声称;使用;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[səˈfɪʃnt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>support</t>
-  </si>
-  <si>
-    <t>支持;拥护;鼓励;资助;帮助;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[səˈpɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>facts</t>
-  </si>
-  <si>
-    <t>examples</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实例;例证;例子;典型;范例;</t>
-  </si>
-  <si>
-    <t>统计数字;统计资料;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.现实;实际情况;(可证实的)事实，真相;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[fækts]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.实例;例证;例子;典型;范例;样品;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ɪgˈzæmpəlz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.统计数字;统计资料;统计学;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[stəˈtɪstɪks] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>integrated</t>
-  </si>
-  <si>
-    <t>n.权力;威权;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈɪntɪɡreɪtɪd]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合；adj.各部分密切协调的;综合的;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>authorities</t>
-  </si>
-  <si>
-    <t>结合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一致的;始终如一的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈθɔrətiz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>consistent</t>
-  </si>
-  <si>
-    <t>adv.仔细地;小心翼翼的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[kənˈsɪstənt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>carefully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈkɛrfəlɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>evaluate</t>
-  </si>
-  <si>
-    <t>provides</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.(行为的)反复无常，易变;前后矛盾;不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inconsistencies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.分析；（分析）研究；分解；解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>analyze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ɪˈvæljueɪt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈkɑnsɪˌstɛnsiz]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈænəlaɪz]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>assumptions</t>
-  </si>
-  <si>
-    <t>n.假定;假设;(责任的)承担;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.相信;认为真实;把(某事)当真;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[əˈsʌmpʃənz]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>believe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[bɪˈli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>directly</t>
-  </si>
-  <si>
-    <t>直接地</t>
-  </si>
-  <si>
-    <t>identify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.确认;认出;鉴定;找到;发现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.直接地;径直地;坦率地;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dəˈrektli]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[aɪˈdentɪfaɪ] </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>valid</t>
-  </si>
-  <si>
-    <t>adj.(法律上)有效的;(正式)认可的;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.对…作出抉择;决定;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvælɪd]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>decide</t>
-  </si>
-  <si>
-    <t>adj.确实;确定;肯定;确信;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dɪˈsaɪd]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>certain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈsɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rtn]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>credible</t>
-  </si>
-  <si>
-    <t>可信的</t>
-  </si>
-  <si>
-    <t>n.成就;成绩;功绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.紧密相关的;切题的;相关的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adj.合适的;恰当的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v.讨论;谈论;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.知识;学问;学识;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knowledge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>discussing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appropriate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relevant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achievement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>landmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可信的;可靠的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ˈkredəbl]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [ˈlændmɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rk]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.陆标，地标；(标志重要阶段的)里程碑;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[əˈtʃi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vmənt]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈreləvənt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈproʊpriət , əˈproʊprieɪt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[dɪˈskʌsɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[ˈnɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lɪdʒ] </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈfaɪnd] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.解释(词语)的含义;给(词语)下定义;阐明;明确;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5571,7 +5963,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -5631,20 +6023,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5656,6 +6039,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5665,20 +6051,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5963,22 +6337,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I247" sqref="I247"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F294" sqref="F294:F321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6001,8 +6375,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6021,8 +6395,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -6041,8 +6415,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6061,8 +6435,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -6081,8 +6455,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -6103,8 +6477,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -6118,8 +6492,8 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -6133,8 +6507,8 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -6148,8 +6522,8 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -6163,8 +6537,8 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -6178,8 +6552,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6193,8 +6567,8 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -6208,8 +6582,8 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -6223,8 +6597,8 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -6238,8 +6612,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -6255,8 +6629,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -6270,8 +6644,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -6285,8 +6659,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -6300,8 +6674,8 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6320,8 +6694,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -6340,8 +6714,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -6360,8 +6734,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -6378,8 +6752,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -6396,8 +6770,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -6411,8 +6785,8 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -6426,8 +6800,8 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -6441,8 +6815,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -6456,8 +6830,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -6471,8 +6845,8 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -6486,8 +6860,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -6501,8 +6875,8 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -6516,8 +6890,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -6531,8 +6905,8 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -6546,8 +6920,8 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -6561,8 +6935,8 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -6576,8 +6950,8 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -6591,8 +6965,8 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -6606,8 +6980,8 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -6621,8 +6995,8 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -6636,8 +7010,8 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -6651,8 +7025,8 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -6668,8 +7042,8 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -6683,8 +7057,8 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -6698,8 +7072,8 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -6718,8 +7092,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -6738,8 +7112,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -6758,8 +7132,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -6776,8 +7150,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -6794,8 +7168,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -6809,8 +7183,8 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="10"/>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -6824,8 +7198,8 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="10"/>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -6839,8 +7213,8 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -6854,8 +7228,8 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -6869,8 +7243,8 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -6884,8 +7258,8 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="10"/>
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -6899,8 +7273,8 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -6914,8 +7288,8 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -6929,8 +7303,8 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -6944,8 +7318,8 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -6961,8 +7335,8 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -6976,8 +7350,8 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -6993,8 +7367,8 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -7008,8 +7382,8 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="10"/>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -7025,8 +7399,8 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="10"/>
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -7040,8 +7414,8 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -7055,8 +7429,8 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -7070,8 +7444,8 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -7085,8 +7459,8 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -7105,8 +7479,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="10"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -7125,8 +7499,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -7143,8 +7517,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -7161,8 +7535,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="10"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -7181,8 +7555,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -7193,11 +7567,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -7208,11 +7582,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="10"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -7225,11 +7599,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="10"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -7240,11 +7614,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="10"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -7255,11 +7629,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="10"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -7270,11 +7644,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="10"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -7285,11 +7659,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="10"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -7302,11 +7676,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="10"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -7317,11 +7691,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="10"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -7332,11 +7706,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -7347,11 +7721,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="10"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -7362,11 +7736,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="10"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -7377,11 +7751,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="10"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -7392,11 +7766,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="10"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -7407,11 +7781,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="10"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -7422,11 +7796,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="10"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -7437,11 +7811,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="10"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -7452,11 +7826,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="10"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -7467,11 +7841,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="10"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -7482,11 +7856,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -7497,11 +7871,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -7512,11 +7886,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="10"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -7527,11 +7901,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="10"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -7542,11 +7916,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -7559,11 +7933,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -7576,11 +7950,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="10">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7603,8 +7977,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -7623,8 +7997,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="10"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -7641,8 +8015,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="10"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -7661,8 +8035,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="10"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -7681,8 +8055,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="10"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -7693,11 +8067,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="10"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -7708,11 +8082,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="10"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -7723,11 +8097,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="10"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -7738,11 +8112,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="10"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -7753,11 +8127,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -7768,11 +8142,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="10"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -7783,11 +8157,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="10"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -7798,11 +8172,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="10"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -7813,11 +8187,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="10"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -7828,11 +8202,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -7843,11 +8217,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -7858,11 +8232,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="10"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -7873,11 +8247,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="10"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -7888,11 +8262,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="10"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -7903,11 +8277,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="10"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -7918,11 +8292,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="10"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -7933,11 +8307,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="10"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -7948,11 +8322,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="10"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -7963,11 +8337,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="10"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -7978,11 +8352,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="10"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -7993,11 +8367,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="10"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -8008,11 +8382,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="10">
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -8031,8 +8405,8 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -8049,8 +8423,8 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="10"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -8067,8 +8441,8 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="10"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -8087,8 +8461,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="10"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -8105,8 +8479,8 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="10"/>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -8117,11 +8491,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="10"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -8132,11 +8506,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="10"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -8147,11 +8521,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="10"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -8162,11 +8536,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="10"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -8177,11 +8551,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="10"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -8192,11 +8566,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="10"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -8207,11 +8581,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="10"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -8222,11 +8596,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="10"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -8237,11 +8611,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="10">
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8260,8 +8634,8 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -8278,8 +8652,8 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="10"/>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -8296,8 +8670,8 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="10"/>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -8316,8 +8690,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="10"/>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -8334,8 +8708,8 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="10"/>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -8346,11 +8720,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="10"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -8361,11 +8735,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="10"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -8376,11 +8750,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="10"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -8391,11 +8765,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="10"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -8406,11 +8780,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="10"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -8421,11 +8795,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="10"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -8436,11 +8810,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="10"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -8451,11 +8825,11 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="10">
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
         <v>44026</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8474,8 +8848,8 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="10"/>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7"/>
       <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
@@ -8494,8 +8868,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="10"/>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7"/>
       <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
@@ -8514,8 +8888,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="10"/>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7"/>
       <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
@@ -8532,8 +8906,8 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="10"/>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7"/>
       <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
@@ -8550,8 +8924,8 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="10"/>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7"/>
       <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
@@ -8562,11 +8936,11 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="10"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7"/>
       <c r="B160" s="5" t="s">
         <v>477</v>
       </c>
@@ -8577,11 +8951,11 @@
         <v>675</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="10"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7"/>
       <c r="B161" s="5" t="s">
         <v>478</v>
       </c>
@@ -8592,11 +8966,11 @@
         <v>575</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="10"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
       <c r="B162" s="5" t="s">
         <v>479</v>
       </c>
@@ -8607,11 +8981,11 @@
         <v>576</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="10"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7"/>
       <c r="B163" s="5" t="s">
         <v>480</v>
       </c>
@@ -8622,11 +8996,11 @@
         <v>676</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="10"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7"/>
       <c r="B164" s="5" t="s">
         <v>481</v>
       </c>
@@ -8637,11 +9011,11 @@
         <v>677</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="10"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7"/>
       <c r="B165" s="5" t="s">
         <v>482</v>
       </c>
@@ -8652,11 +9026,11 @@
         <v>577</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="10"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7"/>
       <c r="B166" s="5" t="s">
         <v>483</v>
       </c>
@@ -8667,11 +9041,11 @@
         <v>578</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="10"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
       <c r="B167" s="5" t="s">
         <v>484</v>
       </c>
@@ -8682,11 +9056,11 @@
         <v>579</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="10"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
       <c r="B168" s="5" t="s">
         <v>485</v>
       </c>
@@ -8697,11 +9071,11 @@
         <v>580</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="10"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7"/>
       <c r="B169" s="5" t="s">
         <v>486</v>
       </c>
@@ -8712,11 +9086,11 @@
         <v>581</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="10"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7"/>
       <c r="B170" s="5" t="s">
         <v>487</v>
       </c>
@@ -8727,11 +9101,11 @@
         <v>582</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="10"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7"/>
       <c r="B171" s="5" t="s">
         <v>488</v>
       </c>
@@ -8742,11 +9116,11 @@
         <v>583</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="10"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7"/>
       <c r="B172" s="5" t="s">
         <v>489</v>
       </c>
@@ -8757,11 +9131,11 @@
         <v>584</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="10"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7"/>
       <c r="B173" s="5" t="s">
         <v>490</v>
       </c>
@@ -8772,11 +9146,11 @@
         <v>585</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="10"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7"/>
       <c r="B174" s="5" t="s">
         <v>491</v>
       </c>
@@ -8787,11 +9161,11 @@
         <v>586</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="10"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7"/>
       <c r="B175" s="5" t="s">
         <v>492</v>
       </c>
@@ -8802,11 +9176,11 @@
         <v>587</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="10"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7"/>
       <c r="B176" s="5" t="s">
         <v>493</v>
       </c>
@@ -8817,11 +9191,11 @@
         <v>588</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="10"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7"/>
       <c r="B177" s="5" t="s">
         <v>494</v>
       </c>
@@ -8832,11 +9206,11 @@
         <v>589</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-    </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="10"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7"/>
       <c r="B178" s="5" t="s">
         <v>495</v>
       </c>
@@ -8847,11 +9221,11 @@
         <v>590</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="10"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
       <c r="B179" s="5" t="s">
         <v>496</v>
       </c>
@@ -8862,11 +9236,11 @@
         <v>591</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="10"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
       <c r="B180" s="5" t="s">
         <v>497</v>
       </c>
@@ -8877,11 +9251,11 @@
         <v>592</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="10"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
       <c r="B181" s="5" t="s">
         <v>498</v>
       </c>
@@ -8892,11 +9266,11 @@
         <v>593</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="10"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="9"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
       <c r="B182" s="5" t="s">
         <v>499</v>
       </c>
@@ -8907,11 +9281,11 @@
         <v>594</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="10"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="9"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
       <c r="B183" s="5" t="s">
         <v>500</v>
       </c>
@@ -8922,11 +9296,11 @@
         <v>595</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-    </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="10"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
       <c r="B184" s="5" t="s">
         <v>501</v>
       </c>
@@ -8937,11 +9311,11 @@
         <v>596</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-    </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="10"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="9"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7"/>
       <c r="B185" s="5" t="s">
         <v>502</v>
       </c>
@@ -8952,11 +9326,11 @@
         <v>597</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
-    </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="10">
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
         <v>44027</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -8977,8 +9351,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="10"/>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7"/>
       <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
@@ -8995,8 +9369,8 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="10"/>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7"/>
       <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
@@ -9015,8 +9389,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="10"/>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7"/>
       <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
@@ -9033,8 +9407,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="10"/>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7"/>
       <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
@@ -9051,8 +9425,8 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="10"/>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7"/>
       <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
@@ -9063,11 +9437,11 @@
         <v>606</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="10"/>
+      <c r="F191" s="8"/>
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7"/>
       <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
@@ -9076,11 +9450,11 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-    </row>
-    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="10"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7"/>
       <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
@@ -9091,11 +9465,11 @@
         <v>610</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-    </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="10"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7"/>
       <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
@@ -9106,11 +9480,11 @@
         <v>611</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-    </row>
-    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="10"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7"/>
       <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
@@ -9121,11 +9495,11 @@
         <v>614</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-    </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="10"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7"/>
       <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
@@ -9136,11 +9510,11 @@
         <v>617</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-    </row>
-    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="10"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7"/>
       <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
@@ -9151,11 +9525,11 @@
         <v>618</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-    </row>
-    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="10"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7"/>
       <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
@@ -9166,11 +9540,11 @@
         <v>620</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-    </row>
-    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="10"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7"/>
       <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
@@ -9181,11 +9555,11 @@
         <v>622</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-    </row>
-    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="10"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7"/>
       <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
@@ -9196,11 +9570,11 @@
         <v>625</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="10"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7"/>
       <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
@@ -9211,11 +9585,11 @@
         <v>626</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-    </row>
-    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="10"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7"/>
       <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
@@ -9226,11 +9600,11 @@
         <v>628</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-    </row>
-    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="10"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7"/>
       <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
@@ -9241,11 +9615,11 @@
         <v>630</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-    </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="10"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="9"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7"/>
       <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
@@ -9256,11 +9630,11 @@
         <v>632</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="10"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7"/>
       <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
@@ -9271,11 +9645,11 @@
         <v>634</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-    </row>
-    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="10"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="7"/>
       <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
@@ -9286,11 +9660,11 @@
         <v>636</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-    </row>
-    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="10"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="7"/>
       <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
@@ -9301,11 +9675,11 @@
         <v>638</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-    </row>
-    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="10"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="9"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="7"/>
       <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
@@ -9316,11 +9690,11 @@
         <v>640</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-    </row>
-    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="10"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="9"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7"/>
       <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
@@ -9331,11 +9705,11 @@
         <v>642</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-    </row>
-    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="10"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
       <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
@@ -9346,11 +9720,11 @@
         <v>644</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-    </row>
-    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="10"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="9"/>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
       <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
@@ -9361,11 +9735,11 @@
         <v>647</v>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-    </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="10"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="9"/>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="7"/>
       <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
@@ -9376,11 +9750,11 @@
         <v>648</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-    </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="10"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="9"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
       <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
@@ -9391,11 +9765,11 @@
         <v>650</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-    </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="10"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="9"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="7"/>
       <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
@@ -9406,11 +9780,11 @@
         <v>652</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-    </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="10"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7"/>
       <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
@@ -9421,11 +9795,11 @@
         <v>654</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-    </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="10"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="9"/>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="7"/>
       <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
@@ -9436,11 +9810,11 @@
         <v>656</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-    </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="10"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7"/>
       <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
@@ -9451,11 +9825,11 @@
         <v>658</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-    </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="10"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="9"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7"/>
       <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
@@ -9466,11 +9840,11 @@
         <v>660</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="10"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7"/>
       <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
@@ -9481,11 +9855,11 @@
         <v>662</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
-    </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="10">
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="7">
         <v>44028</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -9504,8 +9878,8 @@
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="10"/>
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7"/>
       <c r="B221" s="5" t="s">
         <v>666</v>
       </c>
@@ -9524,8 +9898,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="10"/>
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="7"/>
       <c r="B222" s="5" t="s">
         <v>667</v>
       </c>
@@ -9544,8 +9918,8 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="10"/>
+    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7"/>
       <c r="B223" s="5" t="s">
         <v>668</v>
       </c>
@@ -9562,8 +9936,8 @@
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="10"/>
+    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="7"/>
       <c r="B224" s="5" t="s">
         <v>669</v>
       </c>
@@ -9582,8 +9956,8 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="10"/>
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7"/>
       <c r="B225" s="5" t="s">
         <v>670</v>
       </c>
@@ -9594,11 +9968,11 @@
         <v>690</v>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-    </row>
-    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="10"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+    </row>
+    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="7"/>
       <c r="B226" s="5" t="s">
         <v>671</v>
       </c>
@@ -9609,11 +9983,11 @@
         <v>692</v>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-    </row>
-    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="10"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="9"/>
+    </row>
+    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7"/>
       <c r="B227" s="5" t="s">
         <v>672</v>
       </c>
@@ -9624,11 +9998,11 @@
         <v>694</v>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-    </row>
-    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="10"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
       <c r="B228" s="5" t="s">
         <v>673</v>
       </c>
@@ -9639,11 +10013,11 @@
         <v>696</v>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-    </row>
-    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="10"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="9"/>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7"/>
       <c r="B229" s="5" t="s">
         <v>674</v>
       </c>
@@ -9656,11 +10030,11 @@
       <c r="E229" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F229" s="9"/>
-      <c r="G229" s="9"/>
-    </row>
-    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="10">
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="7">
         <v>44030</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -9681,8 +10055,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="10"/>
+    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7"/>
       <c r="B231" s="5" t="s">
         <v>702</v>
       </c>
@@ -9699,8 +10073,8 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="10"/>
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="7"/>
       <c r="B232" s="5" t="s">
         <v>703</v>
       </c>
@@ -9719,8 +10093,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="10"/>
+    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7"/>
       <c r="B233" s="5" t="s">
         <v>704</v>
       </c>
@@ -9737,8 +10111,8 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="10"/>
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="7"/>
       <c r="B234" s="5" t="s">
         <v>705</v>
       </c>
@@ -9755,8 +10129,8 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="10"/>
+    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7"/>
       <c r="B235" s="5" t="s">
         <v>729</v>
       </c>
@@ -9767,11 +10141,11 @@
         <v>728</v>
       </c>
       <c r="E235" s="1"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-    </row>
-    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="10"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="7"/>
       <c r="B236" s="5" t="s">
         <v>706</v>
       </c>
@@ -9782,11 +10156,11 @@
         <v>731</v>
       </c>
       <c r="E236" s="1"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-    </row>
-    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="10"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7"/>
       <c r="B237" s="5" t="s">
         <v>707</v>
       </c>
@@ -9797,11 +10171,11 @@
         <v>733</v>
       </c>
       <c r="E237" s="1"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-    </row>
-    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="10"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="9"/>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="7"/>
       <c r="B238" s="5" t="s">
         <v>708</v>
       </c>
@@ -9812,11 +10186,11 @@
         <v>736</v>
       </c>
       <c r="E238" s="1"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-    </row>
-    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="10"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7"/>
       <c r="B239" s="5" t="s">
         <v>709</v>
       </c>
@@ -9827,11 +10201,11 @@
         <v>738</v>
       </c>
       <c r="E239" s="1"/>
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
-    </row>
-    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="10"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="7"/>
       <c r="B240" s="5" t="s">
         <v>710</v>
       </c>
@@ -9842,11 +10216,11 @@
         <v>739</v>
       </c>
       <c r="E240" s="1"/>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-    </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="10"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="9"/>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="7"/>
       <c r="B241" s="5" t="s">
         <v>711</v>
       </c>
@@ -9857,11 +10231,11 @@
         <v>742</v>
       </c>
       <c r="E241" s="1"/>
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
-    </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="10"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="9"/>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="7"/>
       <c r="B242" s="5" t="s">
         <v>712</v>
       </c>
@@ -9872,11 +10246,11 @@
         <v>744</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-    </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="10"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="9"/>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7"/>
       <c r="B243" s="5" t="s">
         <v>210</v>
       </c>
@@ -9887,11 +10261,11 @@
         <v>745</v>
       </c>
       <c r="E243" s="1"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-    </row>
-    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="10"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="9"/>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="7"/>
       <c r="B244" s="5" t="s">
         <v>713</v>
       </c>
@@ -9902,11 +10276,11 @@
         <v>748</v>
       </c>
       <c r="E244" s="1"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-    </row>
-    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="10"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="9"/>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="7"/>
       <c r="B245" s="5" t="s">
         <v>714</v>
       </c>
@@ -9917,11 +10291,11 @@
         <v>750</v>
       </c>
       <c r="E245" s="1"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="10"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="9"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="7"/>
       <c r="B246" s="5" t="s">
         <v>715</v>
       </c>
@@ -9932,11 +10306,11 @@
         <v>752</v>
       </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
-    </row>
-    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="10"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="9"/>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7"/>
       <c r="B247" s="5" t="s">
         <v>716</v>
       </c>
@@ -9947,11 +10321,11 @@
         <v>754</v>
       </c>
       <c r="E247" s="1"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-    </row>
-    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="10"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="7"/>
       <c r="B248" s="5" t="s">
         <v>717</v>
       </c>
@@ -9962,11 +10336,11 @@
         <v>756</v>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="9"/>
-      <c r="G248" s="9"/>
-    </row>
-    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="10">
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+    </row>
+    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="7">
         <v>44031</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -9985,8 +10359,8 @@
       </c>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="10"/>
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="7"/>
       <c r="B250" s="5" t="s">
         <v>758</v>
       </c>
@@ -10003,8 +10377,8 @@
       </c>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="10"/>
+    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7"/>
       <c r="B251" s="5" t="s">
         <v>759</v>
       </c>
@@ -10021,8 +10395,8 @@
       </c>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="10"/>
+    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="7"/>
       <c r="B252" s="5" t="s">
         <v>760</v>
       </c>
@@ -10039,8 +10413,8 @@
       </c>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="10"/>
+    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7"/>
       <c r="B253" s="5" t="s">
         <v>761</v>
       </c>
@@ -10057,8 +10431,8 @@
       </c>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="10"/>
+    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="7"/>
       <c r="B254" s="5" t="s">
         <v>762</v>
       </c>
@@ -10069,11 +10443,11 @@
         <v>792</v>
       </c>
       <c r="E254" s="1"/>
-      <c r="F254" s="7"/>
-      <c r="G254" s="7"/>
-    </row>
-    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="10"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7"/>
       <c r="B255" s="5" t="s">
         <v>763</v>
       </c>
@@ -10084,11 +10458,11 @@
         <v>794</v>
       </c>
       <c r="E255" s="1"/>
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-    </row>
-    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="10"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="9"/>
+    </row>
+    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="7"/>
       <c r="B256" s="5" t="s">
         <v>764</v>
       </c>
@@ -10099,11 +10473,11 @@
         <v>796</v>
       </c>
       <c r="E256" s="1"/>
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-    </row>
-    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="10"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+    </row>
+    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7"/>
       <c r="B257" s="5" t="s">
         <v>765</v>
       </c>
@@ -10114,11 +10488,11 @@
         <v>798</v>
       </c>
       <c r="E257" s="1"/>
-      <c r="F257" s="9"/>
-      <c r="G257" s="9"/>
-    </row>
-    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="10">
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="7">
         <v>44033</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -10139,8 +10513,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="10"/>
+    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7"/>
       <c r="B259" s="1" t="s">
         <v>767</v>
       </c>
@@ -10157,8 +10531,8 @@
       </c>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="10"/>
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="7"/>
       <c r="B260" s="1" t="s">
         <v>768</v>
       </c>
@@ -10175,8 +10549,8 @@
       </c>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="10"/>
+    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7"/>
       <c r="B261" s="1" t="s">
         <v>769</v>
       </c>
@@ -10193,8 +10567,8 @@
       </c>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="10"/>
+    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="7"/>
       <c r="B262" s="1" t="s">
         <v>770</v>
       </c>
@@ -10211,8 +10585,8 @@
       </c>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="10"/>
+    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="7"/>
       <c r="B263" s="1" t="s">
         <v>771</v>
       </c>
@@ -10223,11 +10597,11 @@
         <v>810</v>
       </c>
       <c r="E263" s="1"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="7"/>
-    </row>
-    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="10"/>
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+    </row>
+    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="7"/>
       <c r="B264" s="1" t="s">
         <v>812</v>
       </c>
@@ -10238,11 +10612,11 @@
         <v>813</v>
       </c>
       <c r="E264" s="1"/>
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
-    </row>
-    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="10"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="9"/>
+    </row>
+    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="7"/>
       <c r="B265" s="1" t="s">
         <v>772</v>
       </c>
@@ -10253,11 +10627,11 @@
         <v>815</v>
       </c>
       <c r="E265" s="1"/>
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
-    </row>
-    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="10"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="9"/>
+    </row>
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="7"/>
       <c r="B266" s="1" t="s">
         <v>817</v>
       </c>
@@ -10268,11 +10642,11 @@
         <v>818</v>
       </c>
       <c r="E266" s="1"/>
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
-    </row>
-    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="10"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="9"/>
+    </row>
+    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7"/>
       <c r="B267" s="1" t="s">
         <v>820</v>
       </c>
@@ -10283,11 +10657,11 @@
         <v>821</v>
       </c>
       <c r="E267" s="1"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-    </row>
-    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="10"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="9"/>
+    </row>
+    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="7"/>
       <c r="B268" s="1" t="s">
         <v>823</v>
       </c>
@@ -10298,11 +10672,11 @@
         <v>824</v>
       </c>
       <c r="E268" s="1"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
-    </row>
-    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="10"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="9"/>
+    </row>
+    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7"/>
       <c r="B269" s="1" t="s">
         <v>826</v>
       </c>
@@ -10313,11 +10687,11 @@
         <v>827</v>
       </c>
       <c r="E269" s="1"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
-    </row>
-    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="10"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="9"/>
+    </row>
+    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="7"/>
       <c r="B270" s="1" t="s">
         <v>829</v>
       </c>
@@ -10328,11 +10702,11 @@
         <v>830</v>
       </c>
       <c r="E270" s="1"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-    </row>
-    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="10"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+    </row>
+    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7"/>
       <c r="B271" s="1" t="s">
         <v>832</v>
       </c>
@@ -10343,11 +10717,11 @@
         <v>833</v>
       </c>
       <c r="E271" s="1"/>
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-    </row>
-    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="10"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="9"/>
+    </row>
+    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="7"/>
       <c r="B272" s="1" t="s">
         <v>835</v>
       </c>
@@ -10358,11 +10732,11 @@
         <v>836</v>
       </c>
       <c r="E272" s="1"/>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
-    </row>
-    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="10"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="9"/>
+    </row>
+    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7"/>
       <c r="B273" s="1" t="s">
         <v>838</v>
       </c>
@@ -10373,11 +10747,11 @@
         <v>839</v>
       </c>
       <c r="E273" s="1"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-    </row>
-    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="10"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="9"/>
+    </row>
+    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="7"/>
       <c r="B274" s="1" t="s">
         <v>841</v>
       </c>
@@ -10388,11 +10762,11 @@
         <v>842</v>
       </c>
       <c r="E274" s="1"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
-    </row>
-    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="10"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="9"/>
+    </row>
+    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7"/>
       <c r="B275" s="1" t="s">
         <v>845</v>
       </c>
@@ -10403,11 +10777,11 @@
         <v>846</v>
       </c>
       <c r="E275" s="1"/>
-      <c r="F275" s="8"/>
-      <c r="G275" s="8"/>
-    </row>
-    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="10"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="9"/>
+    </row>
+    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="7"/>
       <c r="B276" s="1" t="s">
         <v>773</v>
       </c>
@@ -10418,13 +10792,13 @@
         <v>847</v>
       </c>
       <c r="E276" s="1"/>
-      <c r="F276" s="8"/>
-      <c r="G276" s="8"/>
-    </row>
-    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="10"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="9"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7"/>
       <c r="B277" s="1" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>849</v>
@@ -10433,11 +10807,11 @@
         <v>850</v>
       </c>
       <c r="E277" s="1"/>
-      <c r="F277" s="8"/>
-      <c r="G277" s="8"/>
-    </row>
-    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="10"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="9"/>
+    </row>
+    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="7"/>
       <c r="B278" s="1" t="s">
         <v>774</v>
       </c>
@@ -10448,11 +10822,11 @@
         <v>851</v>
       </c>
       <c r="E278" s="1"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
-    </row>
-    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="10"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="9"/>
+    </row>
+    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7"/>
       <c r="B279" s="1" t="s">
         <v>775</v>
       </c>
@@ -10463,11 +10837,11 @@
         <v>853</v>
       </c>
       <c r="E279" s="1"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="8"/>
-    </row>
-    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="10"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="9"/>
+    </row>
+    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="7"/>
       <c r="B280" s="1" t="s">
         <v>776</v>
       </c>
@@ -10478,11 +10852,11 @@
         <v>855</v>
       </c>
       <c r="E280" s="1"/>
-      <c r="F280" s="8"/>
-      <c r="G280" s="8"/>
-    </row>
-    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="10"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+    </row>
+    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7"/>
       <c r="B281" s="1" t="s">
         <v>777</v>
       </c>
@@ -10493,11 +10867,11 @@
         <v>858</v>
       </c>
       <c r="E281" s="1"/>
-      <c r="F281" s="8"/>
-      <c r="G281" s="8"/>
-    </row>
-    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="10"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="9"/>
+    </row>
+    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="7"/>
       <c r="B282" s="1" t="s">
         <v>229</v>
       </c>
@@ -10508,11 +10882,11 @@
         <v>859</v>
       </c>
       <c r="E282" s="1"/>
-      <c r="F282" s="8"/>
-      <c r="G282" s="8"/>
-    </row>
-    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="10"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="9"/>
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7"/>
       <c r="B283" s="1" t="s">
         <v>778</v>
       </c>
@@ -10523,11 +10897,11 @@
         <v>861</v>
       </c>
       <c r="E283" s="1"/>
-      <c r="F283" s="8"/>
-      <c r="G283" s="8"/>
-    </row>
-    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="10"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="9"/>
+    </row>
+    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="7"/>
       <c r="B284" s="1" t="s">
         <v>779</v>
       </c>
@@ -10538,11 +10912,11 @@
         <v>863</v>
       </c>
       <c r="E284" s="1"/>
-      <c r="F284" s="8"/>
-      <c r="G284" s="8"/>
-    </row>
-    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="10"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+    </row>
+    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="7"/>
       <c r="B285" s="1" t="s">
         <v>780</v>
       </c>
@@ -10553,11 +10927,11 @@
         <v>865</v>
       </c>
       <c r="E285" s="1"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
-    </row>
-    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="10"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+    </row>
+    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="7"/>
       <c r="B286" s="1" t="s">
         <v>781</v>
       </c>
@@ -10568,11 +10942,11 @@
         <v>867</v>
       </c>
       <c r="E286" s="1"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
-    </row>
-    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="10"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+    </row>
+    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="7"/>
       <c r="B287" s="1" t="s">
         <v>869</v>
       </c>
@@ -10583,11 +10957,11 @@
         <v>870</v>
       </c>
       <c r="E287" s="1"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="8"/>
-    </row>
-    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="10"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+    </row>
+    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
       <c r="B288" s="1" t="s">
         <v>872</v>
       </c>
@@ -10598,313 +10972,541 @@
         <v>873</v>
       </c>
       <c r="E288" s="1"/>
-      <c r="F288" s="9"/>
-      <c r="G288" s="9"/>
-    </row>
-    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="13">
+      <c r="F288" s="10"/>
+      <c r="G288" s="10"/>
+    </row>
+    <row r="289" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="7">
         <v>44034</v>
       </c>
-      <c r="B289" t="s">
-        <v>878</v>
-      </c>
+      <c r="B289" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E289" s="1"/>
       <c r="F289" s="4">
         <f>A289+1</f>
         <v>44035</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="14"/>
-      <c r="B290" t="s">
-        <v>875</v>
-      </c>
+      <c r="G289" s="1"/>
+    </row>
+    <row r="290" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="7"/>
+      <c r="B290" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E290" s="1"/>
       <c r="F290" s="4">
         <f>A289+2</f>
         <v>44036</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="14"/>
-      <c r="B291" t="s">
-        <v>876</v>
-      </c>
+      <c r="G290" s="1"/>
+    </row>
+    <row r="291" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="7"/>
+      <c r="B291" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E291" s="1"/>
       <c r="F291" s="4">
         <f>A289+4</f>
         <v>44038</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="14"/>
-      <c r="B292" t="s">
+      <c r="G291" s="1"/>
+    </row>
+    <row r="292" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="7"/>
+      <c r="B292" s="1" t="s">
         <v>877</v>
       </c>
+      <c r="C292" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E292" s="1"/>
       <c r="F292" s="4">
         <f>A289+7</f>
         <v>44041</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="14"/>
-      <c r="B293" t="s">
-        <v>882</v>
-      </c>
-      <c r="D293" s="12" t="s">
-        <v>883</v>
-      </c>
+      <c r="G292" s="1"/>
+    </row>
+    <row r="293" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="7"/>
+      <c r="B293" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E293" s="1"/>
       <c r="F293" s="4">
         <f>A289+15</f>
         <v>44049</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="14"/>
-      <c r="B294" t="s">
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="7"/>
+      <c r="B294" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E294" s="1"/>
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+    </row>
+    <row r="295" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="7"/>
+      <c r="B295" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="E295" s="1"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
+    </row>
+    <row r="296" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="7"/>
+      <c r="B296" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="14"/>
-      <c r="B295" t="s">
+      <c r="E296" s="1"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+    </row>
+    <row r="297" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="7"/>
+      <c r="B297" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E297" s="1"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+    </row>
+    <row r="298" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="7"/>
+      <c r="B298" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="E298" s="1"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+    </row>
+    <row r="299" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="7"/>
+      <c r="B299" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="E299" s="1"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+    </row>
+    <row r="300" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="7"/>
+      <c r="B300" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E300" s="1"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9"/>
+    </row>
+    <row r="301" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="7"/>
+      <c r="B301" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E301" s="1"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+    </row>
+    <row r="302" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="7"/>
+      <c r="B302" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="E302" s="1"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+    </row>
+    <row r="303" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="7"/>
+      <c r="B303" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E303" s="1"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="9"/>
+    </row>
+    <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="7"/>
+      <c r="B304" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E304" s="1"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="9"/>
+    </row>
+    <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="7"/>
+      <c r="B305" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E305" s="1"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="9"/>
+    </row>
+    <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="7"/>
+      <c r="B306" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="E306" s="1"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="9"/>
+    </row>
+    <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="7"/>
+      <c r="B307" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E307" s="1"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="9"/>
+    </row>
+    <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="7"/>
+      <c r="B308" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E308" s="1"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="9"/>
+    </row>
+    <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="7"/>
+      <c r="B309" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E309" s="1"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="9"/>
+    </row>
+    <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="7"/>
+      <c r="B310" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E310" s="1"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="9"/>
+    </row>
+    <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="7"/>
+      <c r="B311" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E311" s="1"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="9"/>
+    </row>
+    <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="7"/>
+      <c r="B312" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="E312" s="1"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
+    </row>
+    <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="7"/>
+      <c r="B313" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E313" s="1"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="9"/>
+    </row>
+    <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="7"/>
+      <c r="B314" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E314" s="1"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="9"/>
+    </row>
+    <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="7"/>
+      <c r="B315" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E315" s="1"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="9"/>
+    </row>
+    <row r="316" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="7"/>
+      <c r="B316" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E316" s="1"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="9"/>
+    </row>
+    <row r="317" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="7"/>
+      <c r="B317" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E317" s="1"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="9"/>
+    </row>
+    <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="7"/>
+      <c r="B318" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="E318" s="1"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="9"/>
+    </row>
+    <row r="319" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="7"/>
+      <c r="B319" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="E319" s="1"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="9"/>
+    </row>
+    <row r="320" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="7"/>
+      <c r="B320" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="14"/>
-      <c r="B296" t="s">
-        <v>880</v>
-      </c>
-      <c r="C296" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="14"/>
-      <c r="B297" t="s">
-        <v>884</v>
-      </c>
-      <c r="D297" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="14"/>
-      <c r="B298" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="14"/>
-      <c r="B299" t="s">
-        <v>887</v>
-      </c>
-      <c r="D299" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="14"/>
-      <c r="B300" t="s">
-        <v>890</v>
-      </c>
-      <c r="D300" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="14"/>
-      <c r="B301" t="s">
-        <v>891</v>
-      </c>
-      <c r="D301" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="14"/>
-      <c r="B302" t="s">
-        <v>893</v>
-      </c>
-      <c r="D302" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="14"/>
-      <c r="B303" t="s">
-        <v>896</v>
-      </c>
-      <c r="D303" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="14"/>
-      <c r="B304" t="s">
-        <v>898</v>
-      </c>
-      <c r="D304" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="14"/>
-      <c r="B305" t="s">
-        <v>899</v>
-      </c>
-      <c r="D305" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="14"/>
-      <c r="B306" t="s">
-        <v>902</v>
-      </c>
-      <c r="D306" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="14"/>
-      <c r="B307" t="s">
-        <v>904</v>
-      </c>
-      <c r="D307" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="14"/>
-      <c r="B308" t="s">
-        <v>905</v>
-      </c>
-      <c r="D308" s="12" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="14"/>
-      <c r="B309" t="s">
-        <v>908</v>
-      </c>
-      <c r="D309" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="14"/>
-      <c r="B310" t="s">
-        <v>909</v>
-      </c>
-      <c r="D310" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="14"/>
-      <c r="B311" t="s">
-        <v>911</v>
-      </c>
-      <c r="D311" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="14"/>
-      <c r="B312" t="s">
-        <v>913</v>
-      </c>
-      <c r="D312" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="14"/>
-      <c r="B313" t="s">
-        <v>916</v>
-      </c>
-      <c r="D313" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="14"/>
-      <c r="B314" t="s">
-        <v>918</v>
-      </c>
-      <c r="D314" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="14"/>
-      <c r="B315" t="s">
-        <v>919</v>
-      </c>
-      <c r="D315" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="14"/>
-      <c r="B316" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="14"/>
-      <c r="B317" t="s">
-        <v>930</v>
-      </c>
-      <c r="D317" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="14"/>
-      <c r="B318" t="s">
-        <v>929</v>
-      </c>
-      <c r="D318" s="12" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="14"/>
-      <c r="B319" t="s">
-        <v>928</v>
-      </c>
-      <c r="D319" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="14"/>
-      <c r="B320" t="s">
-        <v>927</v>
-      </c>
-      <c r="D320" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="14"/>
-      <c r="B321" t="s">
-        <v>926</v>
-      </c>
-      <c r="D321" t="s">
-        <v>925</v>
-      </c>
+      <c r="E320" s="1"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="9"/>
+    </row>
+    <row r="321" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="7"/>
+      <c r="B321" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E321" s="1"/>
+      <c r="F321" s="10"/>
+      <c r="G321" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A289:A321"/>
-    <mergeCell ref="A258:A288"/>
-    <mergeCell ref="G254:G257"/>
-    <mergeCell ref="F254:F257"/>
-    <mergeCell ref="F263:F288"/>
-    <mergeCell ref="G263:G288"/>
-    <mergeCell ref="A249:A257"/>
+  <mergeCells count="42">
+    <mergeCell ref="G132:G140"/>
+    <mergeCell ref="A69:A99"/>
+    <mergeCell ref="G50:G68"/>
+    <mergeCell ref="A100:A126"/>
+    <mergeCell ref="F74:F99"/>
+    <mergeCell ref="F105:F126"/>
+    <mergeCell ref="G105:G126"/>
+    <mergeCell ref="G74:G99"/>
+    <mergeCell ref="A127:A140"/>
+    <mergeCell ref="F132:F140"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A20:A44"/>
+    <mergeCell ref="F25:F44"/>
+    <mergeCell ref="G25:G44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="F7:F19"/>
     <mergeCell ref="A154:A185"/>
     <mergeCell ref="A141:A153"/>
     <mergeCell ref="A230:A248"/>
@@ -10920,24 +11522,15 @@
     <mergeCell ref="G191:G219"/>
     <mergeCell ref="A186:A219"/>
     <mergeCell ref="F146:F153"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="A20:A44"/>
-    <mergeCell ref="F25:F44"/>
-    <mergeCell ref="G25:G44"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="G132:G140"/>
-    <mergeCell ref="A69:A99"/>
-    <mergeCell ref="G50:G68"/>
-    <mergeCell ref="A100:A126"/>
-    <mergeCell ref="F74:F99"/>
-    <mergeCell ref="F105:F126"/>
-    <mergeCell ref="G105:G126"/>
-    <mergeCell ref="G74:G99"/>
-    <mergeCell ref="A127:A140"/>
-    <mergeCell ref="F132:F140"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="F50:F68"/>
+    <mergeCell ref="A289:A321"/>
+    <mergeCell ref="A258:A288"/>
+    <mergeCell ref="G254:G257"/>
+    <mergeCell ref="F254:F257"/>
+    <mergeCell ref="F263:F288"/>
+    <mergeCell ref="G263:G288"/>
+    <mergeCell ref="A249:A257"/>
+    <mergeCell ref="F294:F321"/>
+    <mergeCell ref="G294:G321"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WordExcel/单词记忆.xlsx
+++ b/WordExcel/单词记忆.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\scripts\MyMind\WordExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Scripts\everyone\mymind\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75315463-D5DE-4B58-976E-4A1FA39A8BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90210F22-DF16-4F0C-A078-85F94166E16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1012">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5904,6 +5904,156 @@
   </si>
   <si>
     <t>v.解释(词语)的含义;给(词语)下定义;阐明;明确;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信心;信任;信赖;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>感觉</t>
+  </si>
+  <si>
+    <t>influence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.影响;对…起作用;支配;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.想法;看法;主意;记忆;心思;思想;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>programs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.程序;编码指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.脑;(供食用的)动物脑髓;智力;脑力;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mastering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.精通;掌握;控制(情绪);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destinies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.命运;天命;天数;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>important</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.重要的;有重大影响的;有巨大价值的;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.可能;能做到(或取得);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>possible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dramatically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.戏剧地;显著地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>improve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.改进;改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.质量;品质;上乘;优质;高标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v.想象;设想;误以为;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj.热切的;渴望的;渴求的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.(给人或动物的)命令;指令;命令;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.全部地;完整地;完全地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entirely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.故意地;蓄意地;会意地;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowingly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whether</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管…(还是)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6027,7 +6177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6039,9 +6189,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6051,8 +6198,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6335,24 +6494,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G321"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F294" sqref="F294:F321"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K209" sqref="K209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6375,8 +6534,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>44012</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6395,8 +6554,8 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -6415,8 +6574,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -6435,8 +6594,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
@@ -6455,8 +6614,8 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -6477,8 +6636,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -6492,8 +6651,8 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -6507,8 +6666,8 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -6522,8 +6681,8 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -6537,8 +6696,8 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -6552,8 +6711,8 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6567,8 +6726,8 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
@@ -6582,8 +6741,8 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
@@ -6597,8 +6756,8 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -6612,8 +6771,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
@@ -6629,8 +6788,8 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
@@ -6644,8 +6803,8 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
@@ -6659,8 +6818,8 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
@@ -6674,8 +6833,8 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>44014</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -6694,8 +6853,8 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
@@ -6714,8 +6873,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
@@ -6734,8 +6893,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
       <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
@@ -6752,8 +6911,8 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
@@ -6770,8 +6929,8 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
       <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
@@ -6785,8 +6944,8 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>81</v>
       </c>
@@ -6800,8 +6959,8 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
@@ -6815,8 +6974,8 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
@@ -6830,8 +6989,8 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
@@ -6845,8 +7004,8 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
       <c r="B30" s="1" t="s">
         <v>306</v>
       </c>
@@ -6860,8 +7019,8 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
       <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
@@ -6875,8 +7034,8 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -6890,8 +7049,8 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
@@ -6905,8 +7064,8 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
       <c r="B34" s="1" t="s">
         <v>103</v>
       </c>
@@ -6920,8 +7079,8 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
       <c r="B35" s="1" t="s">
         <v>308</v>
       </c>
@@ -6935,8 +7094,8 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
@@ -6950,8 +7109,8 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
@@ -6965,8 +7124,8 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
@@ -6980,8 +7139,8 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
       <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
@@ -6995,8 +7154,8 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
@@ -7010,8 +7169,8 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
       <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
@@ -7025,8 +7184,8 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
       <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
@@ -7042,8 +7201,8 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
@@ -7057,8 +7216,8 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -7072,8 +7231,8 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>44017</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -7092,8 +7251,8 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -7112,8 +7271,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -7132,8 +7291,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
       </c>
@@ -7150,8 +7309,8 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
       <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
@@ -7168,8 +7327,8 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
       <c r="B50" s="1" t="s">
         <v>150</v>
       </c>
@@ -7183,8 +7342,8 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
       </c>
@@ -7198,8 +7357,8 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
       <c r="B52" s="1" t="s">
         <v>156</v>
       </c>
@@ -7213,8 +7372,8 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
       <c r="B53" s="1" t="s">
         <v>159</v>
       </c>
@@ -7228,8 +7387,8 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
@@ -7243,8 +7402,8 @@
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
@@ -7258,8 +7417,8 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
       <c r="B56" s="1" t="s">
         <v>168</v>
       </c>
@@ -7273,8 +7432,8 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -7288,8 +7447,8 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
       <c r="B58" s="1" t="s">
         <v>174</v>
       </c>
@@ -7303,8 +7462,8 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
       <c r="B59" s="1" t="s">
         <v>177</v>
       </c>
@@ -7318,8 +7477,8 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
       <c r="B60" s="1" t="s">
         <v>180</v>
       </c>
@@ -7335,8 +7494,8 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
       <c r="B61" s="1" t="s">
         <v>184</v>
       </c>
@@ -7350,8 +7509,8 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
       <c r="B62" s="1" t="s">
         <v>187</v>
       </c>
@@ -7367,8 +7526,8 @@
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
       <c r="B63" s="1" t="s">
         <v>191</v>
       </c>
@@ -7382,8 +7541,8 @@
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
@@ -7399,8 +7558,8 @@
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
-    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
       <c r="B65" s="1" t="s">
         <v>198</v>
       </c>
@@ -7414,8 +7573,8 @@
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
       <c r="B66" s="1" t="s">
         <v>201</v>
       </c>
@@ -7429,8 +7588,8 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
       <c r="B67" s="1" t="s">
         <v>204</v>
       </c>
@@ -7444,8 +7603,8 @@
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
-    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
       <c r="B68" s="1" t="s">
         <v>207</v>
       </c>
@@ -7459,8 +7618,8 @@
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="10">
         <v>44018</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -7479,8 +7638,8 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
       <c r="B70" s="5" t="s">
         <v>211</v>
       </c>
@@ -7499,8 +7658,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
       <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
@@ -7517,8 +7676,8 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
       <c r="B72" s="5" t="s">
         <v>213</v>
       </c>
@@ -7535,8 +7694,8 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
       <c r="B73" s="5" t="s">
         <v>248</v>
       </c>
@@ -7555,8 +7714,8 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
       <c r="B74" s="5" t="s">
         <v>214</v>
       </c>
@@ -7567,11 +7726,11 @@
         <v>251</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
       <c r="B75" s="5" t="s">
         <v>215</v>
       </c>
@@ -7582,11 +7741,11 @@
         <v>252</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
       <c r="B76" s="5" t="s">
         <v>253</v>
       </c>
@@ -7599,11 +7758,11 @@
       <c r="E76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
       <c r="B77" s="5" t="s">
         <v>216</v>
       </c>
@@ -7614,11 +7773,11 @@
         <v>257</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
       <c r="B78" s="5" t="s">
         <v>217</v>
       </c>
@@ -7629,11 +7788,11 @@
         <v>259</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
       <c r="B79" s="5" t="s">
         <v>218</v>
       </c>
@@ -7644,11 +7803,11 @@
         <v>261</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
       <c r="B80" s="5" t="s">
         <v>219</v>
       </c>
@@ -7659,11 +7818,11 @@
         <v>263</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
       <c r="B81" s="5" t="s">
         <v>220</v>
       </c>
@@ -7676,11 +7835,11 @@
       <c r="E81" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="10"/>
       <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
@@ -7691,11 +7850,11 @@
         <v>269</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="10"/>
       <c r="B83" s="5" t="s">
         <v>222</v>
       </c>
@@ -7706,11 +7865,11 @@
         <v>271</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
       <c r="B84" s="5" t="s">
         <v>223</v>
       </c>
@@ -7721,11 +7880,11 @@
         <v>272</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="10"/>
       <c r="B85" s="5" t="s">
         <v>224</v>
       </c>
@@ -7736,11 +7895,11 @@
         <v>275</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="10"/>
       <c r="B86" s="5" t="s">
         <v>225</v>
       </c>
@@ -7751,11 +7910,11 @@
         <v>276</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
@@ -7766,11 +7925,11 @@
         <v>279</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="10"/>
       <c r="B88" s="5" t="s">
         <v>227</v>
       </c>
@@ -7781,11 +7940,11 @@
         <v>280</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="10"/>
       <c r="B89" s="5" t="s">
         <v>228</v>
       </c>
@@ -7796,11 +7955,11 @@
         <v>283</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
       <c r="B90" s="5" t="s">
         <v>229</v>
       </c>
@@ -7811,11 +7970,11 @@
         <v>429</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10"/>
       <c r="B91" s="5" t="s">
         <v>230</v>
       </c>
@@ -7826,11 +7985,11 @@
         <v>285</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="10"/>
       <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
@@ -7841,11 +8000,11 @@
         <v>289</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10"/>
       <c r="B93" s="5" t="s">
         <v>231</v>
       </c>
@@ -7856,11 +8015,11 @@
         <v>290</v>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
       <c r="B94" s="5" t="s">
         <v>292</v>
       </c>
@@ -7871,11 +8030,11 @@
         <v>294</v>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
       <c r="B95" s="5" t="s">
         <v>232</v>
       </c>
@@ -7886,11 +8045,11 @@
         <v>296</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="10"/>
       <c r="B96" s="5" t="s">
         <v>233</v>
       </c>
@@ -7901,11 +8060,11 @@
         <v>297</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="10"/>
       <c r="B97" s="5" t="s">
         <v>234</v>
       </c>
@@ -7916,11 +8075,11 @@
         <v>299</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="10"/>
       <c r="B98" s="5" t="s">
         <v>235</v>
       </c>
@@ -7933,11 +8092,11 @@
       <c r="E98" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="10"/>
       <c r="B99" s="5" t="s">
         <v>236</v>
       </c>
@@ -7950,11 +8109,11 @@
       <c r="E99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
         <v>44019</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -7977,8 +8136,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="10"/>
       <c r="B101" s="5" t="s">
         <v>311</v>
       </c>
@@ -7997,8 +8156,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="10"/>
       <c r="B102" s="5" t="s">
         <v>312</v>
       </c>
@@ -8015,8 +8174,8 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="10"/>
       <c r="B103" s="5" t="s">
         <v>313</v>
       </c>
@@ -8035,8 +8194,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="10"/>
       <c r="B104" s="5" t="s">
         <v>314</v>
       </c>
@@ -8055,8 +8214,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="10"/>
       <c r="B105" s="5" t="s">
         <v>315</v>
       </c>
@@ -8067,11 +8226,11 @@
         <v>347</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="10"/>
       <c r="B106" s="5" t="s">
         <v>316</v>
       </c>
@@ -8082,11 +8241,11 @@
         <v>349</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="10"/>
       <c r="B107" s="5" t="s">
         <v>317</v>
       </c>
@@ -8097,11 +8256,11 @@
         <v>350</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
       <c r="B108" s="5" t="s">
         <v>318</v>
       </c>
@@ -8112,11 +8271,11 @@
         <v>353</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="10"/>
       <c r="B109" s="5" t="s">
         <v>319</v>
       </c>
@@ -8127,11 +8286,11 @@
         <v>355</v>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="10"/>
       <c r="B110" s="5" t="s">
         <v>320</v>
       </c>
@@ -8142,11 +8301,11 @@
         <v>357</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="10"/>
       <c r="B111" s="5" t="s">
         <v>321</v>
       </c>
@@ -8157,11 +8316,11 @@
         <v>359</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="10"/>
       <c r="B112" s="5" t="s">
         <v>322</v>
       </c>
@@ -8172,11 +8331,11 @@
         <v>468</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
       <c r="B113" s="5" t="s">
         <v>228</v>
       </c>
@@ -8187,11 +8346,11 @@
         <v>363</v>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="10"/>
       <c r="B114" s="5" t="s">
         <v>323</v>
       </c>
@@ -8202,11 +8361,11 @@
         <v>364</v>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
       <c r="B115" s="5" t="s">
         <v>324</v>
       </c>
@@ -8217,11 +8376,11 @@
         <v>369</v>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
       <c r="B116" s="5" t="s">
         <v>325</v>
       </c>
@@ -8232,11 +8391,11 @@
         <v>367</v>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="10"/>
       <c r="B117" s="5" t="s">
         <v>326</v>
       </c>
@@ -8247,11 +8406,11 @@
         <v>371</v>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="10"/>
       <c r="B118" s="5" t="s">
         <v>327</v>
       </c>
@@ -8262,11 +8421,11 @@
         <v>373</v>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="10"/>
       <c r="B119" s="5" t="s">
         <v>328</v>
       </c>
@@ -8277,11 +8436,11 @@
         <v>375</v>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="10"/>
       <c r="B120" s="5" t="s">
         <v>329</v>
       </c>
@@ -8292,11 +8451,11 @@
         <v>379</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="10"/>
       <c r="B121" s="5" t="s">
         <v>330</v>
       </c>
@@ -8307,11 +8466,11 @@
         <v>377</v>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="10"/>
       <c r="B122" s="5" t="s">
         <v>331</v>
       </c>
@@ -8322,11 +8481,11 @@
         <v>380</v>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="10"/>
       <c r="B123" s="5" t="s">
         <v>332</v>
       </c>
@@ -8337,11 +8496,11 @@
         <v>382</v>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="10"/>
       <c r="B124" s="5" t="s">
         <v>333</v>
       </c>
@@ -8352,11 +8511,11 @@
         <v>385</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="10"/>
       <c r="B125" s="5" t="s">
         <v>334</v>
       </c>
@@ -8367,11 +8526,11 @@
         <v>386</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10"/>
       <c r="B126" s="5" t="s">
         <v>335</v>
       </c>
@@ -8382,11 +8541,11 @@
         <v>389</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="10">
         <v>44020</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -8405,8 +8564,8 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7"/>
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
       <c r="B128" s="5" t="s">
         <v>391</v>
       </c>
@@ -8423,8 +8582,8 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7"/>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="10"/>
       <c r="B129" s="5" t="s">
         <v>392</v>
       </c>
@@ -8441,8 +8600,8 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="10"/>
       <c r="B130" s="5" t="s">
         <v>393</v>
       </c>
@@ -8461,8 +8620,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7"/>
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="10"/>
       <c r="B131" s="5" t="s">
         <v>394</v>
       </c>
@@ -8477,10 +8636,12 @@
         <f>A127+15</f>
         <v>44035</v>
       </c>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
+      <c r="G131" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="10"/>
       <c r="B132" s="5" t="s">
         <v>395</v>
       </c>
@@ -8491,11 +8652,11 @@
         <v>416</v>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="10"/>
       <c r="B133" s="5" t="s">
         <v>414</v>
       </c>
@@ -8506,11 +8667,11 @@
         <v>415</v>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-    </row>
-    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="10"/>
       <c r="B134" s="5" t="s">
         <v>396</v>
       </c>
@@ -8521,11 +8682,11 @@
         <v>417</v>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-    </row>
-    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="10"/>
       <c r="B135" s="5" t="s">
         <v>397</v>
       </c>
@@ -8536,11 +8697,11 @@
         <v>420</v>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="10"/>
       <c r="B136" s="5" t="s">
         <v>398</v>
       </c>
@@ -8551,11 +8712,11 @@
         <v>421</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-    </row>
-    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
       <c r="B137" s="5" t="s">
         <v>399</v>
       </c>
@@ -8566,11 +8727,11 @@
         <v>424</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="10"/>
       <c r="B138" s="5" t="s">
         <v>400</v>
       </c>
@@ -8581,11 +8742,11 @@
         <v>426</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-    </row>
-    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="10"/>
       <c r="B139" s="5" t="s">
         <v>434</v>
       </c>
@@ -8596,11 +8757,11 @@
         <v>435</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="10"/>
       <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
@@ -8611,11 +8772,11 @@
         <v>428</v>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-    </row>
-    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="10">
         <v>44021</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -8634,8 +8795,8 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7"/>
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="10"/>
       <c r="B142" s="5" t="s">
         <v>431</v>
       </c>
@@ -8652,8 +8813,8 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="10"/>
       <c r="B143" s="5" t="s">
         <v>432</v>
       </c>
@@ -8670,8 +8831,8 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7"/>
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="10"/>
       <c r="B144" s="5" t="s">
         <v>433</v>
       </c>
@@ -8690,8 +8851,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7"/>
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="10"/>
       <c r="B145" s="5" t="s">
         <v>436</v>
       </c>
@@ -8708,8 +8869,8 @@
       </c>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="10"/>
       <c r="B146" s="5" t="s">
         <v>437</v>
       </c>
@@ -8720,11 +8881,11 @@
         <v>470</v>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-    </row>
-    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="10"/>
       <c r="B147" s="5" t="s">
         <v>438</v>
       </c>
@@ -8735,11 +8896,11 @@
         <v>453</v>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="10"/>
       <c r="B148" s="5" t="s">
         <v>439</v>
       </c>
@@ -8750,11 +8911,11 @@
         <v>455</v>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="10"/>
       <c r="B149" s="5" t="s">
         <v>335</v>
       </c>
@@ -8765,11 +8926,11 @@
         <v>457</v>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-    </row>
-    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="10"/>
       <c r="B150" s="5" t="s">
         <v>440</v>
       </c>
@@ -8780,11 +8941,11 @@
         <v>459</v>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="10"/>
       <c r="B151" s="5" t="s">
         <v>441</v>
       </c>
@@ -8795,11 +8956,11 @@
         <v>461</v>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-    </row>
-    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="10"/>
       <c r="B152" s="5" t="s">
         <v>442</v>
       </c>
@@ -8810,11 +8971,11 @@
         <v>463</v>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-    </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="10"/>
       <c r="B153" s="5" t="s">
         <v>443</v>
       </c>
@@ -8825,11 +8986,11 @@
         <v>466</v>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-    </row>
-    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+    </row>
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="10">
         <v>44026</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -8848,8 +9009,8 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7"/>
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
       <c r="B155" s="5" t="s">
         <v>472</v>
       </c>
@@ -8868,8 +9029,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
       <c r="B156" s="5" t="s">
         <v>473</v>
       </c>
@@ -8888,8 +9049,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
       <c r="B157" s="5" t="s">
         <v>474</v>
       </c>
@@ -8906,8 +9067,8 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
       <c r="B158" s="5" t="s">
         <v>475</v>
       </c>
@@ -8924,8 +9085,8 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7"/>
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="10"/>
       <c r="B159" s="5" t="s">
         <v>476</v>
       </c>
@@ -8936,11 +9097,11 @@
         <v>574</v>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-    </row>
-    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="10"/>
       <c r="B160" s="5" t="s">
         <v>477</v>
       </c>
@@ -8951,11 +9112,11 @@
         <v>675</v>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-    </row>
-    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
       <c r="B161" s="5" t="s">
         <v>478</v>
       </c>
@@ -8966,11 +9127,11 @@
         <v>575</v>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-    </row>
-    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="10"/>
       <c r="B162" s="5" t="s">
         <v>479</v>
       </c>
@@ -8981,11 +9142,11 @@
         <v>576</v>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="10"/>
       <c r="B163" s="5" t="s">
         <v>480</v>
       </c>
@@ -8996,11 +9157,11 @@
         <v>676</v>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-    </row>
-    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="10"/>
       <c r="B164" s="5" t="s">
         <v>481</v>
       </c>
@@ -9011,11 +9172,11 @@
         <v>677</v>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="10"/>
       <c r="B165" s="5" t="s">
         <v>482</v>
       </c>
@@ -9026,11 +9187,11 @@
         <v>577</v>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-    </row>
-    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="10"/>
       <c r="B166" s="5" t="s">
         <v>483</v>
       </c>
@@ -9041,11 +9202,11 @@
         <v>578</v>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-    </row>
-    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="10"/>
       <c r="B167" s="5" t="s">
         <v>484</v>
       </c>
@@ -9056,11 +9217,11 @@
         <v>579</v>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-    </row>
-    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="10"/>
       <c r="B168" s="5" t="s">
         <v>485</v>
       </c>
@@ -9071,11 +9232,11 @@
         <v>580</v>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-    </row>
-    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="10"/>
       <c r="B169" s="5" t="s">
         <v>486</v>
       </c>
@@ -9086,11 +9247,11 @@
         <v>581</v>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-    </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10"/>
       <c r="B170" s="5" t="s">
         <v>487</v>
       </c>
@@ -9101,11 +9262,11 @@
         <v>582</v>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-    </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="10"/>
       <c r="B171" s="5" t="s">
         <v>488</v>
       </c>
@@ -9116,11 +9277,11 @@
         <v>583</v>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="10"/>
       <c r="B172" s="5" t="s">
         <v>489</v>
       </c>
@@ -9131,11 +9292,11 @@
         <v>584</v>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-    </row>
-    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10"/>
       <c r="B173" s="5" t="s">
         <v>490</v>
       </c>
@@ -9146,11 +9307,11 @@
         <v>585</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
-    </row>
-    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="10"/>
       <c r="B174" s="5" t="s">
         <v>491</v>
       </c>
@@ -9161,11 +9322,11 @@
         <v>586</v>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="10"/>
       <c r="B175" s="5" t="s">
         <v>492</v>
       </c>
@@ -9176,11 +9337,11 @@
         <v>587</v>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="10"/>
       <c r="B176" s="5" t="s">
         <v>493</v>
       </c>
@@ -9191,11 +9352,11 @@
         <v>588</v>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="10"/>
       <c r="B177" s="5" t="s">
         <v>494</v>
       </c>
@@ -9206,11 +9367,11 @@
         <v>589</v>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-    </row>
-    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="10"/>
       <c r="B178" s="5" t="s">
         <v>495</v>
       </c>
@@ -9221,11 +9382,11 @@
         <v>590</v>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="10"/>
       <c r="B179" s="5" t="s">
         <v>496</v>
       </c>
@@ -9236,11 +9397,11 @@
         <v>591</v>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="10"/>
       <c r="B180" s="5" t="s">
         <v>497</v>
       </c>
@@ -9251,11 +9412,11 @@
         <v>592</v>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="10"/>
       <c r="B181" s="5" t="s">
         <v>498</v>
       </c>
@@ -9266,11 +9427,11 @@
         <v>593</v>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
       <c r="B182" s="5" t="s">
         <v>499</v>
       </c>
@@ -9281,11 +9442,11 @@
         <v>594</v>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="10"/>
       <c r="B183" s="5" t="s">
         <v>500</v>
       </c>
@@ -9296,11 +9457,11 @@
         <v>595</v>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
-    </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="10"/>
       <c r="B184" s="5" t="s">
         <v>501</v>
       </c>
@@ -9311,11 +9472,11 @@
         <v>596</v>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-    </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="10"/>
       <c r="B185" s="5" t="s">
         <v>502</v>
       </c>
@@ -9326,11 +9487,11 @@
         <v>597</v>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-    </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="10">
         <v>44027</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -9351,8 +9512,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7"/>
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="10"/>
       <c r="B187" s="5" t="s">
         <v>504</v>
       </c>
@@ -9369,8 +9530,8 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7"/>
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="10"/>
       <c r="B188" s="5" t="s">
         <v>505</v>
       </c>
@@ -9389,8 +9550,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7"/>
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="10"/>
       <c r="B189" s="5" t="s">
         <v>506</v>
       </c>
@@ -9407,8 +9568,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="10"/>
       <c r="B190" s="5" t="s">
         <v>507</v>
       </c>
@@ -9425,8 +9586,8 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7"/>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="10"/>
       <c r="B191" s="5" t="s">
         <v>508</v>
       </c>
@@ -9437,11 +9598,11 @@
         <v>606</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="10"/>
       <c r="B192" s="5" t="s">
         <v>509</v>
       </c>
@@ -9450,11 +9611,11 @@
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
-    </row>
-    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7"/>
+      <c r="F192" s="8"/>
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="10"/>
       <c r="B193" s="5" t="s">
         <v>510</v>
       </c>
@@ -9465,11 +9626,11 @@
         <v>610</v>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
-    </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="10"/>
       <c r="B194" s="5" t="s">
         <v>511</v>
       </c>
@@ -9480,11 +9641,11 @@
         <v>611</v>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
-    </row>
-    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="10"/>
       <c r="B195" s="5" t="s">
         <v>512</v>
       </c>
@@ -9495,11 +9656,11 @@
         <v>614</v>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
-    </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7"/>
+      <c r="F195" s="8"/>
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
       <c r="B196" s="5" t="s">
         <v>513</v>
       </c>
@@ -9510,11 +9671,11 @@
         <v>617</v>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
-    </row>
-    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
+      <c r="F196" s="8"/>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="10"/>
       <c r="B197" s="5" t="s">
         <v>514</v>
       </c>
@@ -9525,11 +9686,11 @@
         <v>618</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
-    </row>
-    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="10"/>
       <c r="B198" s="5" t="s">
         <v>515</v>
       </c>
@@ -9540,11 +9701,11 @@
         <v>620</v>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
-    </row>
-    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="10"/>
       <c r="B199" s="5" t="s">
         <v>516</v>
       </c>
@@ -9555,11 +9716,11 @@
         <v>622</v>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
-    </row>
-    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="10"/>
       <c r="B200" s="5" t="s">
         <v>517</v>
       </c>
@@ -9570,11 +9731,11 @@
         <v>625</v>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
+      <c r="F200" s="8"/>
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="10"/>
       <c r="B201" s="5" t="s">
         <v>518</v>
       </c>
@@ -9585,11 +9746,11 @@
         <v>626</v>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
-    </row>
-    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7"/>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="10"/>
       <c r="B202" s="5" t="s">
         <v>519</v>
       </c>
@@ -9600,11 +9761,11 @@
         <v>628</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
-    </row>
-    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
       <c r="B203" s="5" t="s">
         <v>520</v>
       </c>
@@ -9615,11 +9776,11 @@
         <v>630</v>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="9"/>
-    </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="10"/>
       <c r="B204" s="5" t="s">
         <v>521</v>
       </c>
@@ -9630,11 +9791,11 @@
         <v>632</v>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
-    </row>
-    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="7"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="10"/>
       <c r="B205" s="5" t="s">
         <v>522</v>
       </c>
@@ -9645,11 +9806,11 @@
         <v>634</v>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="9"/>
-      <c r="G205" s="9"/>
-    </row>
-    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
+      <c r="F205" s="8"/>
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="10"/>
       <c r="B206" s="5" t="s">
         <v>523</v>
       </c>
@@ -9660,11 +9821,11 @@
         <v>636</v>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="9"/>
-      <c r="G206" s="9"/>
-    </row>
-    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="7"/>
+      <c r="F206" s="8"/>
+      <c r="G206" s="8"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="10"/>
       <c r="B207" s="5" t="s">
         <v>524</v>
       </c>
@@ -9675,11 +9836,11 @@
         <v>638</v>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="9"/>
-      <c r="G207" s="9"/>
-    </row>
-    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="7"/>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
       <c r="B208" s="5" t="s">
         <v>525</v>
       </c>
@@ -9690,11 +9851,11 @@
         <v>640</v>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="9"/>
-      <c r="G208" s="9"/>
-    </row>
-    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="7"/>
+      <c r="F208" s="8"/>
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="10"/>
       <c r="B209" s="5" t="s">
         <v>526</v>
       </c>
@@ -9705,11 +9866,11 @@
         <v>642</v>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="9"/>
-      <c r="G209" s="9"/>
-    </row>
-    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="7"/>
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+    </row>
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="10"/>
       <c r="B210" s="5" t="s">
         <v>527</v>
       </c>
@@ -9720,11 +9881,11 @@
         <v>644</v>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
-    </row>
-    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="7"/>
+      <c r="F210" s="8"/>
+      <c r="G210" s="8"/>
+    </row>
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="10"/>
       <c r="B211" s="5" t="s">
         <v>528</v>
       </c>
@@ -9735,11 +9896,11 @@
         <v>647</v>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
-    </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="7"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+    </row>
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="10"/>
       <c r="B212" s="5" t="s">
         <v>529</v>
       </c>
@@ -9750,11 +9911,11 @@
         <v>648</v>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
-    </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="7"/>
+      <c r="F212" s="8"/>
+      <c r="G212" s="8"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="10"/>
       <c r="B213" s="5" t="s">
         <v>530</v>
       </c>
@@ -9765,11 +9926,11 @@
         <v>650</v>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
-    </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="7"/>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="10"/>
       <c r="B214" s="5" t="s">
         <v>531</v>
       </c>
@@ -9780,11 +9941,11 @@
         <v>652</v>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
-    </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="7"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="10"/>
       <c r="B215" s="5" t="s">
         <v>532</v>
       </c>
@@ -9795,11 +9956,11 @@
         <v>654</v>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-    </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="7"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="10"/>
       <c r="B216" s="5" t="s">
         <v>533</v>
       </c>
@@ -9810,11 +9971,11 @@
         <v>656</v>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
-    </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="7"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="10"/>
       <c r="B217" s="5" t="s">
         <v>534</v>
       </c>
@@ -9825,11 +9986,11 @@
         <v>658</v>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
-    </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="7"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="10"/>
       <c r="B218" s="5" t="s">
         <v>535</v>
       </c>
@@ -9840,11 +10001,11 @@
         <v>660</v>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
-    </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="7"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="10"/>
       <c r="B219" s="5" t="s">
         <v>536</v>
       </c>
@@ -9855,11 +10016,11 @@
         <v>662</v>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-    </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="7">
+      <c r="F219" s="9"/>
+      <c r="G219" s="9"/>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="10">
         <v>44028</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -9878,8 +10039,8 @@
       </c>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="7"/>
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="10"/>
       <c r="B221" s="5" t="s">
         <v>666</v>
       </c>
@@ -9898,8 +10059,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="7"/>
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="10"/>
       <c r="B222" s="5" t="s">
         <v>667</v>
       </c>
@@ -9918,8 +10079,8 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="10"/>
       <c r="B223" s="5" t="s">
         <v>668</v>
       </c>
@@ -9936,8 +10097,8 @@
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="10"/>
       <c r="B224" s="5" t="s">
         <v>669</v>
       </c>
@@ -9956,8 +10117,8 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="10"/>
       <c r="B225" s="5" t="s">
         <v>670</v>
       </c>
@@ -9968,11 +10129,11 @@
         <v>690</v>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-    </row>
-    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="10"/>
       <c r="B226" s="5" t="s">
         <v>671</v>
       </c>
@@ -9983,11 +10144,11 @@
         <v>692</v>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="9"/>
-      <c r="G226" s="9"/>
-    </row>
-    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="7"/>
+      <c r="F226" s="8"/>
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="10"/>
       <c r="B227" s="5" t="s">
         <v>672</v>
       </c>
@@ -9998,11 +10159,11 @@
         <v>694</v>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="9"/>
-      <c r="G227" s="9"/>
-    </row>
-    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="7"/>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="10"/>
       <c r="B228" s="5" t="s">
         <v>673</v>
       </c>
@@ -10013,11 +10174,11 @@
         <v>696</v>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="9"/>
-      <c r="G228" s="9"/>
-    </row>
-    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="7"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="10"/>
       <c r="B229" s="5" t="s">
         <v>674</v>
       </c>
@@ -10030,11 +10191,11 @@
       <c r="E229" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="F229" s="10"/>
-      <c r="G229" s="10"/>
-    </row>
-    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="7">
+      <c r="F229" s="9"/>
+      <c r="G229" s="9"/>
+    </row>
+    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="10">
         <v>44030</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -10055,8 +10216,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="7"/>
+    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="10"/>
       <c r="B231" s="5" t="s">
         <v>702</v>
       </c>
@@ -10073,8 +10234,8 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="7"/>
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="10"/>
       <c r="B232" s="5" t="s">
         <v>703</v>
       </c>
@@ -10093,8 +10254,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="7"/>
+    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
       <c r="B233" s="5" t="s">
         <v>704</v>
       </c>
@@ -10111,8 +10272,8 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="7"/>
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="10"/>
       <c r="B234" s="5" t="s">
         <v>705</v>
       </c>
@@ -10129,8 +10290,8 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="7"/>
+    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="10"/>
       <c r="B235" s="5" t="s">
         <v>729</v>
       </c>
@@ -10141,11 +10302,11 @@
         <v>728</v>
       </c>
       <c r="E235" s="1"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-    </row>
-    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="10"/>
       <c r="B236" s="5" t="s">
         <v>706</v>
       </c>
@@ -10156,11 +10317,11 @@
         <v>731</v>
       </c>
       <c r="E236" s="1"/>
-      <c r="F236" s="9"/>
-      <c r="G236" s="9"/>
-    </row>
-    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="7"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="10"/>
       <c r="B237" s="5" t="s">
         <v>707</v>
       </c>
@@ -10171,11 +10332,11 @@
         <v>733</v>
       </c>
       <c r="E237" s="1"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="9"/>
-    </row>
-    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="7"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="10"/>
       <c r="B238" s="5" t="s">
         <v>708</v>
       </c>
@@ -10186,11 +10347,11 @@
         <v>736</v>
       </c>
       <c r="E238" s="1"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-    </row>
-    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="7"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="10"/>
       <c r="B239" s="5" t="s">
         <v>709</v>
       </c>
@@ -10201,11 +10362,11 @@
         <v>738</v>
       </c>
       <c r="E239" s="1"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="9"/>
-    </row>
-    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="7"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="10"/>
       <c r="B240" s="5" t="s">
         <v>710</v>
       </c>
@@ -10216,11 +10377,11 @@
         <v>739</v>
       </c>
       <c r="E240" s="1"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="9"/>
-    </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="7"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="10"/>
       <c r="B241" s="5" t="s">
         <v>711</v>
       </c>
@@ -10231,11 +10392,11 @@
         <v>742</v>
       </c>
       <c r="E241" s="1"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-    </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="7"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="10"/>
       <c r="B242" s="5" t="s">
         <v>712</v>
       </c>
@@ -10246,11 +10407,11 @@
         <v>744</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="9"/>
-    </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="7"/>
+      <c r="F242" s="8"/>
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10"/>
       <c r="B243" s="5" t="s">
         <v>210</v>
       </c>
@@ -10261,11 +10422,11 @@
         <v>745</v>
       </c>
       <c r="E243" s="1"/>
-      <c r="F243" s="9"/>
-      <c r="G243" s="9"/>
-    </row>
-    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="7"/>
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="10"/>
       <c r="B244" s="5" t="s">
         <v>713</v>
       </c>
@@ -10276,11 +10437,11 @@
         <v>748</v>
       </c>
       <c r="E244" s="1"/>
-      <c r="F244" s="9"/>
-      <c r="G244" s="9"/>
-    </row>
-    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="7"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="10"/>
       <c r="B245" s="5" t="s">
         <v>714</v>
       </c>
@@ -10291,11 +10452,11 @@
         <v>750</v>
       </c>
       <c r="E245" s="1"/>
-      <c r="F245" s="9"/>
-      <c r="G245" s="9"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="7"/>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="10"/>
       <c r="B246" s="5" t="s">
         <v>715</v>
       </c>
@@ -10306,11 +10467,11 @@
         <v>752</v>
       </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="9"/>
-      <c r="G246" s="9"/>
-    </row>
-    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="7"/>
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="10"/>
       <c r="B247" s="5" t="s">
         <v>716</v>
       </c>
@@ -10321,11 +10482,11 @@
         <v>754</v>
       </c>
       <c r="E247" s="1"/>
-      <c r="F247" s="9"/>
-      <c r="G247" s="9"/>
-    </row>
-    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="7"/>
+      <c r="F247" s="8"/>
+      <c r="G247" s="8"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="10"/>
       <c r="B248" s="5" t="s">
         <v>717</v>
       </c>
@@ -10336,11 +10497,11 @@
         <v>756</v>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-    </row>
-    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="7">
+      <c r="F248" s="9"/>
+      <c r="G248" s="9"/>
+    </row>
+    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="10">
         <v>44031</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -10359,8 +10520,8 @@
       </c>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="7"/>
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="10"/>
       <c r="B250" s="5" t="s">
         <v>758</v>
       </c>
@@ -10377,8 +10538,8 @@
       </c>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="7"/>
+    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="10"/>
       <c r="B251" s="5" t="s">
         <v>759</v>
       </c>
@@ -10395,8 +10556,8 @@
       </c>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="7"/>
+    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="10"/>
       <c r="B252" s="5" t="s">
         <v>760</v>
       </c>
@@ -10413,8 +10574,8 @@
       </c>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="7"/>
+    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="10"/>
       <c r="B253" s="5" t="s">
         <v>761</v>
       </c>
@@ -10431,8 +10592,8 @@
       </c>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="7"/>
+    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="10"/>
       <c r="B254" s="5" t="s">
         <v>762</v>
       </c>
@@ -10443,11 +10604,11 @@
         <v>792</v>
       </c>
       <c r="E254" s="1"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-    </row>
-    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="10"/>
       <c r="B255" s="5" t="s">
         <v>763</v>
       </c>
@@ -10458,11 +10619,11 @@
         <v>794</v>
       </c>
       <c r="E255" s="1"/>
-      <c r="F255" s="9"/>
-      <c r="G255" s="9"/>
-    </row>
-    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="7"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+    </row>
+    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="10"/>
       <c r="B256" s="5" t="s">
         <v>764</v>
       </c>
@@ -10473,11 +10634,11 @@
         <v>796</v>
       </c>
       <c r="E256" s="1"/>
-      <c r="F256" s="9"/>
-      <c r="G256" s="9"/>
-    </row>
-    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="7"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+    </row>
+    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="10"/>
       <c r="B257" s="5" t="s">
         <v>765</v>
       </c>
@@ -10488,11 +10649,11 @@
         <v>798</v>
       </c>
       <c r="E257" s="1"/>
-      <c r="F257" s="10"/>
-      <c r="G257" s="10"/>
-    </row>
-    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="7">
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+    </row>
+    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="10">
         <v>44033</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -10513,8 +10674,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="7"/>
+    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="10"/>
       <c r="B259" s="1" t="s">
         <v>767</v>
       </c>
@@ -10531,8 +10692,8 @@
       </c>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="7"/>
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="10"/>
       <c r="B260" s="1" t="s">
         <v>768</v>
       </c>
@@ -10549,8 +10710,8 @@
       </c>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="7"/>
+    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="10"/>
       <c r="B261" s="1" t="s">
         <v>769</v>
       </c>
@@ -10567,8 +10728,8 @@
       </c>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="7"/>
+    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="10"/>
       <c r="B262" s="1" t="s">
         <v>770</v>
       </c>
@@ -10585,8 +10746,8 @@
       </c>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="7"/>
+    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="10"/>
       <c r="B263" s="1" t="s">
         <v>771</v>
       </c>
@@ -10597,11 +10758,11 @@
         <v>810</v>
       </c>
       <c r="E263" s="1"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-    </row>
-    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="10"/>
       <c r="B264" s="1" t="s">
         <v>812</v>
       </c>
@@ -10612,11 +10773,11 @@
         <v>813</v>
       </c>
       <c r="E264" s="1"/>
-      <c r="F264" s="9"/>
-      <c r="G264" s="9"/>
-    </row>
-    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="7"/>
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+    </row>
+    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="10"/>
       <c r="B265" s="1" t="s">
         <v>772</v>
       </c>
@@ -10627,11 +10788,11 @@
         <v>815</v>
       </c>
       <c r="E265" s="1"/>
-      <c r="F265" s="9"/>
-      <c r="G265" s="9"/>
-    </row>
-    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="7"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+    </row>
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="10"/>
       <c r="B266" s="1" t="s">
         <v>817</v>
       </c>
@@ -10642,11 +10803,11 @@
         <v>818</v>
       </c>
       <c r="E266" s="1"/>
-      <c r="F266" s="9"/>
-      <c r="G266" s="9"/>
-    </row>
-    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="7"/>
+      <c r="F266" s="8"/>
+      <c r="G266" s="8"/>
+    </row>
+    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="10"/>
       <c r="B267" s="1" t="s">
         <v>820</v>
       </c>
@@ -10657,11 +10818,11 @@
         <v>821</v>
       </c>
       <c r="E267" s="1"/>
-      <c r="F267" s="9"/>
-      <c r="G267" s="9"/>
-    </row>
-    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="7"/>
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+    </row>
+    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="10"/>
       <c r="B268" s="1" t="s">
         <v>823</v>
       </c>
@@ -10672,11 +10833,11 @@
         <v>824</v>
       </c>
       <c r="E268" s="1"/>
-      <c r="F268" s="9"/>
-      <c r="G268" s="9"/>
-    </row>
-    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="7"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
+    </row>
+    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="10"/>
       <c r="B269" s="1" t="s">
         <v>826</v>
       </c>
@@ -10687,11 +10848,11 @@
         <v>827</v>
       </c>
       <c r="E269" s="1"/>
-      <c r="F269" s="9"/>
-      <c r="G269" s="9"/>
-    </row>
-    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="7"/>
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+    </row>
+    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="10"/>
       <c r="B270" s="1" t="s">
         <v>829</v>
       </c>
@@ -10702,11 +10863,11 @@
         <v>830</v>
       </c>
       <c r="E270" s="1"/>
-      <c r="F270" s="9"/>
-      <c r="G270" s="9"/>
-    </row>
-    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="7"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
+    </row>
+    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="10"/>
       <c r="B271" s="1" t="s">
         <v>832</v>
       </c>
@@ -10717,11 +10878,11 @@
         <v>833</v>
       </c>
       <c r="E271" s="1"/>
-      <c r="F271" s="9"/>
-      <c r="G271" s="9"/>
-    </row>
-    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="7"/>
+      <c r="F271" s="8"/>
+      <c r="G271" s="8"/>
+    </row>
+    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="10"/>
       <c r="B272" s="1" t="s">
         <v>835</v>
       </c>
@@ -10732,11 +10893,11 @@
         <v>836</v>
       </c>
       <c r="E272" s="1"/>
-      <c r="F272" s="9"/>
-      <c r="G272" s="9"/>
-    </row>
-    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="7"/>
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
+    </row>
+    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="10"/>
       <c r="B273" s="1" t="s">
         <v>838</v>
       </c>
@@ -10747,11 +10908,11 @@
         <v>839</v>
       </c>
       <c r="E273" s="1"/>
-      <c r="F273" s="9"/>
-      <c r="G273" s="9"/>
-    </row>
-    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="7"/>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+    </row>
+    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="10"/>
       <c r="B274" s="1" t="s">
         <v>841</v>
       </c>
@@ -10762,11 +10923,11 @@
         <v>842</v>
       </c>
       <c r="E274" s="1"/>
-      <c r="F274" s="9"/>
-      <c r="G274" s="9"/>
-    </row>
-    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="7"/>
+      <c r="F274" s="8"/>
+      <c r="G274" s="8"/>
+    </row>
+    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="10"/>
       <c r="B275" s="1" t="s">
         <v>845</v>
       </c>
@@ -10777,11 +10938,11 @@
         <v>846</v>
       </c>
       <c r="E275" s="1"/>
-      <c r="F275" s="9"/>
-      <c r="G275" s="9"/>
-    </row>
-    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="7"/>
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+    </row>
+    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="10"/>
       <c r="B276" s="1" t="s">
         <v>773</v>
       </c>
@@ -10792,11 +10953,11 @@
         <v>847</v>
       </c>
       <c r="E276" s="1"/>
-      <c r="F276" s="9"/>
-      <c r="G276" s="9"/>
-    </row>
-    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="7"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="10"/>
       <c r="B277" s="1" t="s">
         <v>907</v>
       </c>
@@ -10807,11 +10968,11 @@
         <v>850</v>
       </c>
       <c r="E277" s="1"/>
-      <c r="F277" s="9"/>
-      <c r="G277" s="9"/>
-    </row>
-    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="7"/>
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+    </row>
+    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="10"/>
       <c r="B278" s="1" t="s">
         <v>774</v>
       </c>
@@ -10822,11 +10983,11 @@
         <v>851</v>
       </c>
       <c r="E278" s="1"/>
-      <c r="F278" s="9"/>
-      <c r="G278" s="9"/>
-    </row>
-    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="7"/>
+      <c r="F278" s="8"/>
+      <c r="G278" s="8"/>
+    </row>
+    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="10"/>
       <c r="B279" s="1" t="s">
         <v>775</v>
       </c>
@@ -10837,11 +10998,11 @@
         <v>853</v>
       </c>
       <c r="E279" s="1"/>
-      <c r="F279" s="9"/>
-      <c r="G279" s="9"/>
-    </row>
-    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="7"/>
+      <c r="F279" s="8"/>
+      <c r="G279" s="8"/>
+    </row>
+    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="10"/>
       <c r="B280" s="1" t="s">
         <v>776</v>
       </c>
@@ -10852,11 +11013,11 @@
         <v>855</v>
       </c>
       <c r="E280" s="1"/>
-      <c r="F280" s="9"/>
-      <c r="G280" s="9"/>
-    </row>
-    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="F280" s="8"/>
+      <c r="G280" s="8"/>
+    </row>
+    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="10"/>
       <c r="B281" s="1" t="s">
         <v>777</v>
       </c>
@@ -10867,11 +11028,11 @@
         <v>858</v>
       </c>
       <c r="E281" s="1"/>
-      <c r="F281" s="9"/>
-      <c r="G281" s="9"/>
-    </row>
-    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+    </row>
+    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="10"/>
       <c r="B282" s="1" t="s">
         <v>229</v>
       </c>
@@ -10882,11 +11043,11 @@
         <v>859</v>
       </c>
       <c r="E282" s="1"/>
-      <c r="F282" s="9"/>
-      <c r="G282" s="9"/>
-    </row>
-    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="F282" s="8"/>
+      <c r="G282" s="8"/>
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="10"/>
       <c r="B283" s="1" t="s">
         <v>778</v>
       </c>
@@ -10897,11 +11058,11 @@
         <v>861</v>
       </c>
       <c r="E283" s="1"/>
-      <c r="F283" s="9"/>
-      <c r="G283" s="9"/>
-    </row>
-    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+    </row>
+    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="10"/>
       <c r="B284" s="1" t="s">
         <v>779</v>
       </c>
@@ -10912,11 +11073,11 @@
         <v>863</v>
       </c>
       <c r="E284" s="1"/>
-      <c r="F284" s="9"/>
-      <c r="G284" s="9"/>
-    </row>
-    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="7"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+    </row>
+    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="10"/>
       <c r="B285" s="1" t="s">
         <v>780</v>
       </c>
@@ -10927,11 +11088,11 @@
         <v>865</v>
       </c>
       <c r="E285" s="1"/>
-      <c r="F285" s="9"/>
-      <c r="G285" s="9"/>
-    </row>
-    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="7"/>
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+    </row>
+    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="10"/>
       <c r="B286" s="1" t="s">
         <v>781</v>
       </c>
@@ -10942,11 +11103,11 @@
         <v>867</v>
       </c>
       <c r="E286" s="1"/>
-      <c r="F286" s="9"/>
-      <c r="G286" s="9"/>
-    </row>
-    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7"/>
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+    </row>
+    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="10"/>
       <c r="B287" s="1" t="s">
         <v>869</v>
       </c>
@@ -10957,11 +11118,11 @@
         <v>870</v>
       </c>
       <c r="E287" s="1"/>
-      <c r="F287" s="9"/>
-      <c r="G287" s="9"/>
-    </row>
-    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="7"/>
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+    </row>
+    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="10"/>
       <c r="B288" s="1" t="s">
         <v>872</v>
       </c>
@@ -10972,11 +11133,11 @@
         <v>873</v>
       </c>
       <c r="E288" s="1"/>
-      <c r="F288" s="10"/>
-      <c r="G288" s="10"/>
-    </row>
-    <row r="289" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="7">
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+    </row>
+    <row r="289" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="10">
         <v>44034</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -10995,8 +11156,8 @@
       </c>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="7"/>
+    <row r="290" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="10"/>
       <c r="B290" s="1" t="s">
         <v>909</v>
       </c>
@@ -11013,8 +11174,8 @@
       </c>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="7"/>
+    <row r="291" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="10"/>
       <c r="B291" s="1" t="s">
         <v>913</v>
       </c>
@@ -11031,8 +11192,8 @@
       </c>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="7"/>
+    <row r="292" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="10"/>
       <c r="B292" s="1" t="s">
         <v>877</v>
       </c>
@@ -11049,8 +11210,8 @@
       </c>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="7"/>
+    <row r="293" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="10"/>
       <c r="B293" s="1" t="s">
         <v>917</v>
       </c>
@@ -11067,8 +11228,8 @@
       </c>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="7"/>
+    <row r="294" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="10"/>
       <c r="B294" s="1" t="s">
         <v>884</v>
       </c>
@@ -11079,11 +11240,11 @@
         <v>920</v>
       </c>
       <c r="E294" s="1"/>
-      <c r="F294" s="8"/>
-      <c r="G294" s="8"/>
-    </row>
-    <row r="295" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
+    </row>
+    <row r="295" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="10"/>
       <c r="B295" s="1" t="s">
         <v>922</v>
       </c>
@@ -11094,11 +11255,11 @@
         <v>876</v>
       </c>
       <c r="E295" s="1"/>
-      <c r="F295" s="9"/>
-      <c r="G295" s="9"/>
-    </row>
-    <row r="296" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="7"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="8"/>
+    </row>
+    <row r="296" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="10"/>
       <c r="B296" s="1" t="s">
         <v>924</v>
       </c>
@@ -11109,11 +11270,11 @@
         <v>879</v>
       </c>
       <c r="E296" s="1"/>
-      <c r="F296" s="9"/>
-      <c r="G296" s="9"/>
-    </row>
-    <row r="297" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="7"/>
+      <c r="F296" s="8"/>
+      <c r="G296" s="8"/>
+    </row>
+    <row r="297" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="10"/>
       <c r="B297" s="1" t="s">
         <v>926</v>
       </c>
@@ -11124,11 +11285,11 @@
         <v>927</v>
       </c>
       <c r="E297" s="1"/>
-      <c r="F297" s="9"/>
-      <c r="G297" s="9"/>
-    </row>
-    <row r="298" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="7"/>
+      <c r="F297" s="8"/>
+      <c r="G297" s="8"/>
+    </row>
+    <row r="298" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="10"/>
       <c r="B298" s="1" t="s">
         <v>880</v>
       </c>
@@ -11139,11 +11300,11 @@
         <v>929</v>
       </c>
       <c r="E298" s="1"/>
-      <c r="F298" s="9"/>
-      <c r="G298" s="9"/>
-    </row>
-    <row r="299" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="7"/>
+      <c r="F298" s="8"/>
+      <c r="G298" s="8"/>
+    </row>
+    <row r="299" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="10"/>
       <c r="B299" s="1" t="s">
         <v>931</v>
       </c>
@@ -11154,11 +11315,11 @@
         <v>932</v>
       </c>
       <c r="E299" s="1"/>
-      <c r="F299" s="9"/>
-      <c r="G299" s="9"/>
-    </row>
-    <row r="300" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="7"/>
+      <c r="F299" s="8"/>
+      <c r="G299" s="8"/>
+    </row>
+    <row r="300" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="10"/>
       <c r="B300" s="1" t="s">
         <v>934</v>
       </c>
@@ -11169,11 +11330,11 @@
         <v>936</v>
       </c>
       <c r="E300" s="1"/>
-      <c r="F300" s="9"/>
-      <c r="G300" s="9"/>
-    </row>
-    <row r="301" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="7"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
+    </row>
+    <row r="301" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="10"/>
       <c r="B301" s="1" t="s">
         <v>937</v>
       </c>
@@ -11184,11 +11345,11 @@
         <v>881</v>
       </c>
       <c r="E301" s="1"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="9"/>
-    </row>
-    <row r="302" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="7"/>
+      <c r="F301" s="8"/>
+      <c r="G301" s="8"/>
+    </row>
+    <row r="302" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="10"/>
       <c r="B302" s="1" t="s">
         <v>939</v>
       </c>
@@ -11199,11 +11360,11 @@
         <v>882</v>
       </c>
       <c r="E302" s="1"/>
-      <c r="F302" s="9"/>
-      <c r="G302" s="9"/>
-    </row>
-    <row r="303" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="7"/>
+      <c r="F302" s="8"/>
+      <c r="G302" s="8"/>
+    </row>
+    <row r="303" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="10"/>
       <c r="B303" s="1" t="s">
         <v>941</v>
       </c>
@@ -11214,11 +11375,11 @@
         <v>883</v>
       </c>
       <c r="E303" s="1"/>
-      <c r="F303" s="9"/>
-      <c r="G303" s="9"/>
-    </row>
-    <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="7"/>
+      <c r="F303" s="8"/>
+      <c r="G303" s="8"/>
+    </row>
+    <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="10"/>
       <c r="B304" s="1" t="s">
         <v>943</v>
       </c>
@@ -11229,11 +11390,11 @@
         <v>858</v>
       </c>
       <c r="E304" s="1"/>
-      <c r="F304" s="9"/>
-      <c r="G304" s="9"/>
-    </row>
-    <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="7"/>
+      <c r="F304" s="8"/>
+      <c r="G304" s="8"/>
+    </row>
+    <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="10"/>
       <c r="B305" s="1" t="s">
         <v>886</v>
       </c>
@@ -11244,11 +11405,11 @@
         <v>885</v>
       </c>
       <c r="E305" s="1"/>
-      <c r="F305" s="9"/>
-      <c r="G305" s="9"/>
-    </row>
-    <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="7"/>
+      <c r="F305" s="8"/>
+      <c r="G305" s="8"/>
+    </row>
+    <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="10"/>
       <c r="B306" s="1" t="s">
         <v>888</v>
       </c>
@@ -11259,11 +11420,11 @@
         <v>887</v>
       </c>
       <c r="E306" s="1"/>
-      <c r="F306" s="9"/>
-      <c r="G306" s="9"/>
-    </row>
-    <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="7"/>
+      <c r="F306" s="8"/>
+      <c r="G306" s="8"/>
+    </row>
+    <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="10"/>
       <c r="B307" s="1" t="s">
         <v>947</v>
       </c>
@@ -11274,11 +11435,11 @@
         <v>889</v>
       </c>
       <c r="E307" s="1"/>
-      <c r="F307" s="9"/>
-      <c r="G307" s="9"/>
-    </row>
-    <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="7"/>
+      <c r="F307" s="8"/>
+      <c r="G307" s="8"/>
+    </row>
+    <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="10"/>
       <c r="B308" s="1" t="s">
         <v>949</v>
       </c>
@@ -11289,11 +11450,11 @@
         <v>890</v>
       </c>
       <c r="E308" s="1"/>
-      <c r="F308" s="9"/>
-      <c r="G308" s="9"/>
-    </row>
-    <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="7"/>
+      <c r="F308" s="8"/>
+      <c r="G308" s="8"/>
+    </row>
+    <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="10"/>
       <c r="B309" s="1" t="s">
         <v>951</v>
       </c>
@@ -11304,11 +11465,11 @@
         <v>952</v>
       </c>
       <c r="E309" s="1"/>
-      <c r="F309" s="9"/>
-      <c r="G309" s="9"/>
-    </row>
-    <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="7"/>
+      <c r="F309" s="8"/>
+      <c r="G309" s="8"/>
+    </row>
+    <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="10"/>
       <c r="B310" s="1" t="s">
         <v>891</v>
       </c>
@@ -11319,11 +11480,11 @@
         <v>892</v>
       </c>
       <c r="E310" s="1"/>
-      <c r="F310" s="9"/>
-      <c r="G310" s="9"/>
-    </row>
-    <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="7"/>
+      <c r="F310" s="8"/>
+      <c r="G310" s="8"/>
+    </row>
+    <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="10"/>
       <c r="B311" s="1" t="s">
         <v>955</v>
       </c>
@@ -11334,11 +11495,11 @@
         <v>893</v>
       </c>
       <c r="E311" s="1"/>
-      <c r="F311" s="9"/>
-      <c r="G311" s="9"/>
-    </row>
-    <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="7"/>
+      <c r="F311" s="8"/>
+      <c r="G311" s="8"/>
+    </row>
+    <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="10"/>
       <c r="B312" s="1" t="s">
         <v>957</v>
       </c>
@@ -11349,11 +11510,11 @@
         <v>894</v>
       </c>
       <c r="E312" s="1"/>
-      <c r="F312" s="9"/>
-      <c r="G312" s="9"/>
-    </row>
-    <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="7"/>
+      <c r="F312" s="8"/>
+      <c r="G312" s="8"/>
+    </row>
+    <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <